--- a/class-control.xlsx
+++ b/class-control.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7410"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7410" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="time-control" sheetId="1" r:id="rId1"/>
+    <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="508">
   <si>
     <t>Name</t>
   </si>
@@ -917,6 +918,627 @@
   </si>
   <si>
     <t>Máx</t>
+  </si>
+  <si>
+    <t>Lidando com Erros</t>
+  </si>
+  <si>
+    <t>Comunicação do Cronograma</t>
+  </si>
+  <si>
+    <t>Dicas para Carreira</t>
+  </si>
+  <si>
+    <t>Preparação para Codar</t>
+  </si>
+  <si>
+    <t>Tema e fonte [Terminal]</t>
+  </si>
+  <si>
+    <t>Oh My Zsh [Terminal]</t>
+  </si>
+  <si>
+    <t>Plugins [Terminal]</t>
+  </si>
+  <si>
+    <t>Ferramentas</t>
+  </si>
+  <si>
+    <t>Instalando Node &amp; NPM</t>
+  </si>
+  <si>
+    <t>Instalação do Yarn</t>
+  </si>
+  <si>
+    <t>Conceitos do Node.js</t>
+  </si>
+  <si>
+    <t>Conceitos de API REST</t>
+  </si>
+  <si>
+    <t>Criando aplicação</t>
+  </si>
+  <si>
+    <t>Query &amp; Route params</t>
+  </si>
+  <si>
+    <t>Utilizando Insomnia</t>
+  </si>
+  <si>
+    <t>Utilizando Nodemon</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>Debugando aplicação</t>
+  </si>
+  <si>
+    <t>Nodemon &amp; Sucrase</t>
+  </si>
+  <si>
+    <t>Conceitos do Docker</t>
+  </si>
+  <si>
+    <t>Configurando Docker</t>
+  </si>
+  <si>
+    <t>Sequelize &amp; MVC</t>
+  </si>
+  <si>
+    <t>ESLint, Prettier &amp; EditorConfig</t>
+  </si>
+  <si>
+    <t>Configurando Sequelize</t>
+  </si>
+  <si>
+    <t>Migration de usuário</t>
+  </si>
+  <si>
+    <t>Model de usuário</t>
+  </si>
+  <si>
+    <t>Criando loader de models</t>
+  </si>
+  <si>
+    <t>Cadastro de usuários</t>
+  </si>
+  <si>
+    <t>Gerando hash da senha</t>
+  </si>
+  <si>
+    <t>Autenticação JWT</t>
+  </si>
+  <si>
+    <t>Middleware de autenticação</t>
+  </si>
+  <si>
+    <t>Update do usuário</t>
+  </si>
+  <si>
+    <t>Validando dados de entrada</t>
+  </si>
+  <si>
+    <t>Configurando Multer</t>
+  </si>
+  <si>
+    <t>Avatar do usuário</t>
+  </si>
+  <si>
+    <t>Listagem de prestadores de serviço</t>
+  </si>
+  <si>
+    <t>Migration e model de agendamento</t>
+  </si>
+  <si>
+    <t>Agendamento de serviço</t>
+  </si>
+  <si>
+    <t>Validações de agendamento</t>
+  </si>
+  <si>
+    <t>Listando agendamentos do usuário</t>
+  </si>
+  <si>
+    <t>Aplicando paginação</t>
+  </si>
+  <si>
+    <t>Listando agenda do prestador</t>
+  </si>
+  <si>
+    <t>Notificando novos agendamentos</t>
+  </si>
+  <si>
+    <t>Listando notificações do usuário</t>
+  </si>
+  <si>
+    <t>Marcar notificações como lidas</t>
+  </si>
+  <si>
+    <t>Cancelamento de agendamento</t>
+  </si>
+  <si>
+    <t>Configurando Nodemailer</t>
+  </si>
+  <si>
+    <t>Configurando templates de e-mail</t>
+  </si>
+  <si>
+    <t>Configurando fila com Redis</t>
+  </si>
+  <si>
+    <t>Monitorando falhas na fila</t>
+  </si>
+  <si>
+    <t>Campos virtuais no agendamento</t>
+  </si>
+  <si>
+    <t>Tratamento de exceções</t>
+  </si>
+  <si>
+    <t>Conceitos do React</t>
+  </si>
+  <si>
+    <t>Criando componente raiz</t>
+  </si>
+  <si>
+    <t>Importando CSS</t>
+  </si>
+  <si>
+    <t>Importando imagens</t>
+  </si>
+  <si>
+    <t>Class Components</t>
+  </si>
+  <si>
+    <t>Estado &amp; Imutabilidade</t>
+  </si>
+  <si>
+    <t>Removendo itens do estado</t>
+  </si>
+  <si>
+    <t>Propriedades do React</t>
+  </si>
+  <si>
+    <t>Default Props &amp; PropTypes</t>
+  </si>
+  <si>
+    <t>Ciclo de vida do componente</t>
+  </si>
+  <si>
+    <t>Debugando React com DevTools</t>
+  </si>
+  <si>
+    <t>Criando projeto do zero</t>
+  </si>
+  <si>
+    <t>Roteamento no React</t>
+  </si>
+  <si>
+    <t>Styled Components</t>
+  </si>
+  <si>
+    <t>Estilizando página Main</t>
+  </si>
+  <si>
+    <t>Adicionando repositórios</t>
+  </si>
+  <si>
+    <t>Listando repositórios</t>
+  </si>
+  <si>
+    <t>Utilizando LocalStorage</t>
+  </si>
+  <si>
+    <t>Navegação de rotas</t>
+  </si>
+  <si>
+    <t>Carregando dados da API</t>
+  </si>
+  <si>
+    <t>Definindo PropTypes</t>
+  </si>
+  <si>
+    <t>Exibindo repositório</t>
+  </si>
+  <si>
+    <t>Exibindo issues</t>
+  </si>
+  <si>
+    <t>Conceitos do React Native</t>
+  </si>
+  <si>
+    <t>Ambiente de desenvolvimento</t>
+  </si>
+  <si>
+    <t>Configurando Reactotron</t>
+  </si>
+  <si>
+    <t>React Navigation</t>
+  </si>
+  <si>
+    <t>Estilizando formulário</t>
+  </si>
+  <si>
+    <t>Acessando API do Github</t>
+  </si>
+  <si>
+    <t>Estilizando listagem</t>
+  </si>
+  <si>
+    <t>Loading e disabled</t>
+  </si>
+  <si>
+    <t>Salvando no storage</t>
+  </si>
+  <si>
+    <t>Realizando navegação</t>
+  </si>
+  <si>
+    <t>Buscando dados da API</t>
+  </si>
+  <si>
+    <t>Listando favoritos</t>
+  </si>
+  <si>
+    <t>Conceitos do Redux</t>
+  </si>
+  <si>
+    <t>Estrutura do projeto</t>
+  </si>
+  <si>
+    <t>Configurando rotas</t>
+  </si>
+  <si>
+    <t>Estilização da Home</t>
+  </si>
+  <si>
+    <t>Estilização do Carrinho</t>
+  </si>
+  <si>
+    <t>Configurando API</t>
+  </si>
+  <si>
+    <t>Buscando produtos da API</t>
+  </si>
+  <si>
+    <t>Configurando o Redux</t>
+  </si>
+  <si>
+    <t>Adicionando ao carrinho</t>
+  </si>
+  <si>
+    <t>Reactotron + Redux</t>
+  </si>
+  <si>
+    <t>Listando no carrinho</t>
+  </si>
+  <si>
+    <t>Produto duplicado</t>
+  </si>
+  <si>
+    <t>Remover produto</t>
+  </si>
+  <si>
+    <t>Refatorando as actions</t>
+  </si>
+  <si>
+    <t>Alterando quantidade</t>
+  </si>
+  <si>
+    <t>Calculando totais</t>
+  </si>
+  <si>
+    <t>Exibindo quantidades</t>
+  </si>
+  <si>
+    <t>Configurando Redux Saga</t>
+  </si>
+  <si>
+    <t>Reactotron + Saga</t>
+  </si>
+  <si>
+    <t>Separando actions</t>
+  </si>
+  <si>
+    <t>Estoque na adição</t>
+  </si>
+  <si>
+    <t>React Toastify</t>
+  </si>
+  <si>
+    <t>Estoque na alteração</t>
+  </si>
+  <si>
+    <t>Navegando no Saga</t>
+  </si>
+  <si>
+    <t>Hook useState</t>
+  </si>
+  <si>
+    <t>Hook useEffect</t>
+  </si>
+  <si>
+    <t>Hook useMemo</t>
+  </si>
+  <si>
+    <t>Hook useCallback</t>
+  </si>
+  <si>
+    <t>Convertendo classe</t>
+  </si>
+  <si>
+    <t>Hooks com Redux</t>
+  </si>
+  <si>
+    <t>Estrutura configurada</t>
+  </si>
+  <si>
+    <t>Ajustes na API</t>
+  </si>
+  <si>
+    <t>Layouts por página</t>
+  </si>
+  <si>
+    <t>Utilizando Root Import</t>
+  </si>
+  <si>
+    <t>Estilização da autenticação</t>
+  </si>
+  <si>
+    <t>Validações</t>
+  </si>
+  <si>
+    <t>Configurando store</t>
+  </si>
+  <si>
+    <t>Autenticação</t>
+  </si>
+  <si>
+    <t>Armazenando perfil</t>
+  </si>
+  <si>
+    <t>Persistindo autenticação</t>
+  </si>
+  <si>
+    <t>Loading da autenticação</t>
+  </si>
+  <si>
+    <t>Exibindo toasts</t>
+  </si>
+  <si>
+    <t>Requisições autenticadas</t>
+  </si>
+  <si>
+    <t>Configurando Header</t>
+  </si>
+  <si>
+    <t>Estilizando notificações</t>
+  </si>
+  <si>
+    <t>Notificações</t>
+  </si>
+  <si>
+    <t>Atualizando perfil</t>
+  </si>
+  <si>
+    <t>Foto de perfil</t>
+  </si>
+  <si>
+    <t>Dados do Header</t>
+  </si>
+  <si>
+    <t>Estilização do Dashboard</t>
+  </si>
+  <si>
+    <t>Navegando entre dias</t>
+  </si>
+  <si>
+    <t>Listando agendamentos</t>
+  </si>
+  <si>
+    <t>Configurando Root Import</t>
+  </si>
+  <si>
+    <t>Rotas de autenticação</t>
+  </si>
+  <si>
+    <t>Configurando background</t>
+  </si>
+  <si>
+    <t>Página SignIn</t>
+  </si>
+  <si>
+    <t>Página SignUp</t>
+  </si>
+  <si>
+    <t>Dicas de acessibilidade</t>
+  </si>
+  <si>
+    <t>Reactotron</t>
+  </si>
+  <si>
+    <t>Configurando Redux</t>
+  </si>
+  <si>
+    <t>Conectando Redux</t>
+  </si>
+  <si>
+    <t>Rota inicial</t>
+  </si>
+  <si>
+    <t>Estilizações das rotas</t>
+  </si>
+  <si>
+    <t>Lista de agendamentos</t>
+  </si>
+  <si>
+    <t>Atualização de perfil</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Rotas de agendamento</t>
+  </si>
+  <si>
+    <t>DatePicker por plataforma</t>
+  </si>
+  <si>
+    <t>Selecionando horário</t>
+  </si>
+  <si>
+    <t>Confirmando agendamento</t>
+  </si>
+  <si>
+    <t>Load de agendamentos</t>
+  </si>
+  <si>
+    <t>Conceitos de testes</t>
+  </si>
+  <si>
+    <t>Configurando projeto</t>
+  </si>
+  <si>
+    <t>Teste de criação de usuário</t>
+  </si>
+  <si>
+    <t>E-mail duplicado</t>
+  </si>
+  <si>
+    <t>Gerando dados aleatórios</t>
+  </si>
+  <si>
+    <t>Criando servidor</t>
+  </si>
+  <si>
+    <t>Clonando aplicação</t>
+  </si>
+  <si>
+    <t>Criando serviços</t>
+  </si>
+  <si>
+    <t>Rodando servidor</t>
+  </si>
+  <si>
+    <t>Dicas do SSH</t>
+  </si>
+  <si>
+    <t>Configurando NGINX</t>
+  </si>
+  <si>
+    <t>Utilizando PM2</t>
+  </si>
+  <si>
+    <t>Integração contínua</t>
+  </si>
+  <si>
+    <t>Primeiro teste</t>
+  </si>
+  <si>
+    <t>Testando formulário</t>
+  </si>
+  <si>
+    <t>Mock do LocalStorage</t>
+  </si>
+  <si>
+    <t>Mock do useSelector</t>
+  </si>
+  <si>
+    <t>Mock do useDispatch</t>
+  </si>
+  <si>
+    <t>Testando reducers</t>
+  </si>
+  <si>
+    <t>Testando sagas</t>
+  </si>
+  <si>
+    <t>Mock do axios</t>
+  </si>
+  <si>
+    <t>Testes no React Native</t>
+  </si>
+  <si>
+    <t>Deploy de ReactJS (Web)</t>
+  </si>
+  <si>
+    <t>Configurações visuais no Android</t>
+  </si>
+  <si>
+    <t>Configurações visuais no iOS</t>
+  </si>
+  <si>
+    <t>Configurando Code Push</t>
+  </si>
+  <si>
+    <t>Configurando One Signal</t>
+  </si>
+  <si>
+    <t>Enviando notificações push</t>
+  </si>
+  <si>
+    <t>Configurando Appcenter</t>
+  </si>
+  <si>
+    <t>Configurando ambiente no Android</t>
+  </si>
+  <si>
+    <t>Configurando ambiente no iOS</t>
+  </si>
+  <si>
+    <t>Subindo ao Github</t>
+  </si>
+  <si>
+    <t>Distribuindo Staging Android</t>
+  </si>
+  <si>
+    <t>Distribuindo Staging iOS</t>
+  </si>
+  <si>
+    <t>Enviando alteração via CodePush</t>
+  </si>
+  <si>
+    <t>Publicando app Android</t>
+  </si>
+  <si>
+    <t>Publicando app iOS</t>
+  </si>
+  <si>
+    <t>Conceitos de Patterns</t>
+  </si>
+  <si>
+    <t>Abstraindo validações</t>
+  </si>
+  <si>
+    <t>Abstraindo agendamento</t>
+  </si>
+  <si>
+    <t>Abstraindo controllers</t>
+  </si>
+  <si>
+    <t>Estrutura de cache</t>
+  </si>
+  <si>
+    <t>Cache de prestadores</t>
+  </si>
+  <si>
+    <t>Estratégias de cache</t>
+  </si>
+  <si>
+    <t>Utilizando Express Brute</t>
+  </si>
+  <si>
+    <t>Utilizando Helmet</t>
+  </si>
+  <si>
+    <t>Utilizando Rate Limit</t>
+  </si>
+  <si>
+    <t>Utilizando CORS</t>
+  </si>
+  <si>
+    <t>Github e Greenkeeper</t>
   </si>
 </sst>
 </file>
@@ -924,9 +1546,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +1567,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -976,7 +1605,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1147,11 +1776,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1231,14 +1955,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1246,6 +2030,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF66FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1541,10 +2330,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="D4:O307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1558,10 +2350,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="30" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="29"/>
+      <c r="O4" s="30"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" s="21" t="s">
@@ -5465,4 +6257,4818 @@
     <ignoredError sqref="G11:H11 G34:H34 G43:H43 G186:H186 G278:H278 G257:H257 G225:H225 G203:H203 G166:H166" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+  </sheetPr>
+  <dimension ref="C3:R303"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="54" style="1" customWidth="1"/>
+    <col min="5" max="6" width="6.7109375" style="1" customWidth="1"/>
+    <col min="7" max="8" width="7.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="13" max="18" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="34"/>
+    </row>
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="35"/>
+      <c r="D5" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="38"/>
+    </row>
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="35"/>
+      <c r="D6" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="46">
+        <v>7</v>
+      </c>
+      <c r="F6" s="47">
+        <v>47</v>
+      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="38"/>
+    </row>
+    <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="35"/>
+      <c r="D7" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="48">
+        <v>6</v>
+      </c>
+      <c r="F7" s="49">
+        <v>23</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="38"/>
+    </row>
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C8" s="35"/>
+      <c r="D8" s="48" t="s">
+        <v>301</v>
+      </c>
+      <c r="E8" s="48">
+        <v>9</v>
+      </c>
+      <c r="F8" s="49">
+        <v>44</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+    </row>
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C9" s="35"/>
+      <c r="D9" s="48" t="s">
+        <v>302</v>
+      </c>
+      <c r="E9" s="48">
+        <v>4</v>
+      </c>
+      <c r="F9" s="49">
+        <v>15</v>
+      </c>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="38"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q9" s="44"/>
+      <c r="R9" s="38"/>
+    </row>
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C10" s="35"/>
+      <c r="D10" s="48" t="s">
+        <v>303</v>
+      </c>
+      <c r="E10" s="48">
+        <v>6</v>
+      </c>
+      <c r="F10" s="49">
+        <v>20</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="R10" s="38"/>
+    </row>
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C11" s="35"/>
+      <c r="D11" s="48" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="48">
+        <v>2</v>
+      </c>
+      <c r="F11" s="49">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="38"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="27">
+        <f>SUM(I:I)/60</f>
+        <v>27.686388888888889</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>35</v>
+      </c>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="35"/>
+      <c r="D12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="48">
+        <v>9</v>
+      </c>
+      <c r="F12" s="49">
+        <v>8</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="38"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C13" s="35"/>
+      <c r="D13" s="48" t="s">
+        <v>305</v>
+      </c>
+      <c r="E13" s="48">
+        <v>4</v>
+      </c>
+      <c r="F13" s="49">
+        <v>20</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C14" s="35"/>
+      <c r="D14" s="48" t="s">
+        <v>306</v>
+      </c>
+      <c r="E14" s="48">
+        <v>5</v>
+      </c>
+      <c r="F14" s="49">
+        <v>28</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="38"/>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C15" s="35"/>
+      <c r="D15" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="48">
+        <v>2</v>
+      </c>
+      <c r="F15" s="49">
+        <v>55</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K15" s="38"/>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="C16" s="35"/>
+      <c r="D16" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="50">
+        <v>2</v>
+      </c>
+      <c r="F16" s="51">
+        <v>55</v>
+      </c>
+      <c r="G16" s="7">
+        <f>SUM(E6:E16)</f>
+        <v>56</v>
+      </c>
+      <c r="H16" s="2">
+        <f>SUM(F6:F16)</f>
+        <v>316</v>
+      </c>
+      <c r="I16" s="6">
+        <f>G16+(H16/60)</f>
+        <v>61.266666666666666</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="38"/>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="35"/>
+      <c r="D17" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="35"/>
+      <c r="D18" s="54" t="s">
+        <v>310</v>
+      </c>
+      <c r="E18" s="54">
+        <v>1</v>
+      </c>
+      <c r="F18" s="55">
+        <v>52</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="38"/>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="35"/>
+      <c r="D19" s="54" t="s">
+        <v>311</v>
+      </c>
+      <c r="E19" s="54">
+        <v>12</v>
+      </c>
+      <c r="F19" s="55">
+        <v>24</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="35"/>
+      <c r="D20" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="E20" s="13">
+        <v>13</v>
+      </c>
+      <c r="F20" s="19">
+        <v>20</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="38"/>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="35"/>
+      <c r="D21" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="13">
+        <v>9</v>
+      </c>
+      <c r="F21" s="19">
+        <v>25</v>
+      </c>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="38"/>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="35"/>
+      <c r="D22" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="13">
+        <v>4</v>
+      </c>
+      <c r="F22" s="19">
+        <v>1</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
+      <c r="D23" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3</v>
+      </c>
+      <c r="F23" s="19">
+        <v>52</v>
+      </c>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="38"/>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="35"/>
+      <c r="D24" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>54</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="38"/>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="35"/>
+      <c r="D25" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="13">
+        <v>8</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0</v>
+      </c>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="35"/>
+      <c r="D26" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="13">
+        <v>12</v>
+      </c>
+      <c r="F26" s="19">
+        <v>19</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="38"/>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="35"/>
+      <c r="D27" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E27" s="14">
+        <v>4</v>
+      </c>
+      <c r="F27" s="20">
+        <v>43</v>
+      </c>
+      <c r="G27" s="7">
+        <f>SUM(E17:E27)</f>
+        <v>67</v>
+      </c>
+      <c r="H27" s="2">
+        <f>SUM(F17:F27)</f>
+        <v>290</v>
+      </c>
+      <c r="I27" s="6">
+        <f>G27+(H27/60)</f>
+        <v>71.833333333333329</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1</v>
+      </c>
+      <c r="K27" s="38"/>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="35"/>
+      <c r="D28" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16">
+        <v>49</v>
+      </c>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="35"/>
+      <c r="D29" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E29" s="10">
+        <v>7</v>
+      </c>
+      <c r="F29" s="16">
+        <v>31</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="38"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="35"/>
+      <c r="D30" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" s="10">
+        <v>7</v>
+      </c>
+      <c r="F30" s="16">
+        <v>6</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
+      <c r="D31" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" s="10">
+        <v>11</v>
+      </c>
+      <c r="F31" s="16">
+        <v>17</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="38"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="35"/>
+      <c r="D32" s="10" t="s">
+        <v>322</v>
+      </c>
+      <c r="E32" s="10">
+        <v>15</v>
+      </c>
+      <c r="F32" s="16">
+        <v>15</v>
+      </c>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="38"/>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="35"/>
+      <c r="D33" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E33" s="10">
+        <v>13</v>
+      </c>
+      <c r="F33" s="16">
+        <v>27</v>
+      </c>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="38"/>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="35"/>
+      <c r="D34" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" s="10">
+        <v>5</v>
+      </c>
+      <c r="F34" s="16">
+        <v>27</v>
+      </c>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="38"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="35"/>
+      <c r="D35" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="E35" s="10">
+        <v>5</v>
+      </c>
+      <c r="F35" s="16">
+        <v>29</v>
+      </c>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="38"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="35"/>
+      <c r="D36" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E36" s="10">
+        <v>2</v>
+      </c>
+      <c r="F36" s="16">
+        <v>47</v>
+      </c>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="38"/>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="35"/>
+      <c r="D37" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E37" s="10">
+        <v>6</v>
+      </c>
+      <c r="F37" s="16">
+        <v>22</v>
+      </c>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="38"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="35"/>
+      <c r="D38" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="10">
+        <v>6</v>
+      </c>
+      <c r="F38" s="16">
+        <v>15</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="35"/>
+      <c r="D39" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="10">
+        <v>5</v>
+      </c>
+      <c r="F39" s="16">
+        <v>22</v>
+      </c>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="38"/>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="35"/>
+      <c r="D40" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4</v>
+      </c>
+      <c r="F40" s="16">
+        <v>4</v>
+      </c>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="38"/>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="35"/>
+      <c r="D41" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="E41" s="10">
+        <v>9</v>
+      </c>
+      <c r="F41" s="16">
+        <v>16</v>
+      </c>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="38"/>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="35"/>
+      <c r="D42" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="E42" s="10">
+        <v>12</v>
+      </c>
+      <c r="F42" s="16">
+        <v>4</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="35"/>
+      <c r="D43" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E43" s="10">
+        <v>5</v>
+      </c>
+      <c r="F43" s="16">
+        <v>16</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J43" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K43" s="38"/>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="35"/>
+      <c r="D44" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="E44" s="11">
+        <v>11</v>
+      </c>
+      <c r="F44" s="17">
+        <v>7</v>
+      </c>
+      <c r="G44" s="7">
+        <f>SUM(E28:E44)</f>
+        <v>124</v>
+      </c>
+      <c r="H44" s="2">
+        <f>SUM(F28:F44)</f>
+        <v>354</v>
+      </c>
+      <c r="I44" s="6">
+        <f>G44+(H44/60)</f>
+        <v>129.9</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K44" s="38"/>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="35"/>
+      <c r="D45" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E45" s="12">
+        <v>12</v>
+      </c>
+      <c r="F45" s="18">
+        <v>58</v>
+      </c>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="38"/>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="35"/>
+      <c r="D46" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" s="13">
+        <v>12</v>
+      </c>
+      <c r="F46" s="19">
+        <v>52</v>
+      </c>
+      <c r="G46" s="36"/>
+      <c r="H46" s="36"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="38"/>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="35"/>
+      <c r="D47" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="E47" s="13">
+        <v>7</v>
+      </c>
+      <c r="F47" s="19">
+        <v>58</v>
+      </c>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="38"/>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="35"/>
+      <c r="D48" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" s="13">
+        <v>5</v>
+      </c>
+      <c r="F48" s="19">
+        <v>20</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="38"/>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="35"/>
+      <c r="D49" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="E49" s="13">
+        <v>7</v>
+      </c>
+      <c r="F49" s="19">
+        <v>44</v>
+      </c>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="38"/>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="35"/>
+      <c r="D50" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="13">
+        <v>5</v>
+      </c>
+      <c r="F50" s="19">
+        <v>22</v>
+      </c>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="35"/>
+      <c r="D51" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" s="13">
+        <v>4</v>
+      </c>
+      <c r="F51" s="19">
+        <v>27</v>
+      </c>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="38"/>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="35"/>
+      <c r="D52" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="19">
+        <v>55</v>
+      </c>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="38"/>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="35"/>
+      <c r="D53" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="E53" s="13">
+        <v>9</v>
+      </c>
+      <c r="F53" s="19">
+        <v>35</v>
+      </c>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="38"/>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="35"/>
+      <c r="D54" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E54" s="13">
+        <v>4</v>
+      </c>
+      <c r="F54" s="19">
+        <v>37</v>
+      </c>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="38"/>
+    </row>
+    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C55" s="35"/>
+      <c r="D55" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="E55" s="13">
+        <v>14</v>
+      </c>
+      <c r="F55" s="19">
+        <v>20</v>
+      </c>
+      <c r="G55" s="36"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="38"/>
+    </row>
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="35"/>
+      <c r="D56" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="13">
+        <v>5</v>
+      </c>
+      <c r="F56" s="19">
+        <v>56</v>
+      </c>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="38"/>
+    </row>
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="35"/>
+      <c r="D57" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E57" s="13">
+        <v>2</v>
+      </c>
+      <c r="F57" s="19">
+        <v>34</v>
+      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="38"/>
+    </row>
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="35"/>
+      <c r="D58" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="E58" s="13">
+        <v>5</v>
+      </c>
+      <c r="F58" s="19">
+        <v>26</v>
+      </c>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="38"/>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
+      <c r="D59" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="E59" s="13">
+        <v>11</v>
+      </c>
+      <c r="F59" s="19">
+        <v>13</v>
+      </c>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="38"/>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="35"/>
+      <c r="D60" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="E60" s="13">
+        <v>12</v>
+      </c>
+      <c r="F60" s="19">
+        <v>35</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="38"/>
+    </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="35"/>
+      <c r="D61" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="E61" s="13">
+        <v>21</v>
+      </c>
+      <c r="F61" s="19">
+        <v>36</v>
+      </c>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="38"/>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="35"/>
+      <c r="D62" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="E62" s="13">
+        <v>1</v>
+      </c>
+      <c r="F62" s="19">
+        <v>53</v>
+      </c>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="38"/>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="35"/>
+      <c r="D63" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="E63" s="13">
+        <v>16</v>
+      </c>
+      <c r="F63" s="19">
+        <v>39</v>
+      </c>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="38"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="35"/>
+      <c r="D64" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="E64" s="13">
+        <v>3</v>
+      </c>
+      <c r="F64" s="19">
+        <v>38</v>
+      </c>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="38"/>
+    </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="35"/>
+      <c r="D65" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E65" s="13">
+        <v>9</v>
+      </c>
+      <c r="F65" s="19">
+        <v>39</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H65" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J65" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K65" s="38"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="35"/>
+      <c r="D66" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="14">
+        <v>9</v>
+      </c>
+      <c r="F66" s="20">
+        <v>4</v>
+      </c>
+      <c r="G66" s="7">
+        <f>SUM(E45:E66)</f>
+        <v>174</v>
+      </c>
+      <c r="H66" s="2">
+        <f>SUM(F45:F66)</f>
+        <v>801</v>
+      </c>
+      <c r="I66" s="6">
+        <f>G66+(H66/60)</f>
+        <v>187.35</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K66" s="38"/>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="35"/>
+      <c r="D67" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E67" s="9">
+        <v>21</v>
+      </c>
+      <c r="F67" s="15">
+        <v>47</v>
+      </c>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="38"/>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="35"/>
+      <c r="D68" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" s="10">
+        <v>14</v>
+      </c>
+      <c r="F68" s="16">
+        <v>2</v>
+      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="38"/>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="35"/>
+      <c r="D69" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" s="10">
+        <v>3</v>
+      </c>
+      <c r="F69" s="16">
+        <v>47</v>
+      </c>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="38"/>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="35"/>
+      <c r="D70" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E70" s="10">
+        <v>2</v>
+      </c>
+      <c r="F70" s="16">
+        <v>43</v>
+      </c>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="38"/>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="35"/>
+      <c r="D71" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="E71" s="10">
+        <v>3</v>
+      </c>
+      <c r="F71" s="16">
+        <v>28</v>
+      </c>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="38"/>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="35"/>
+      <c r="D72" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="E72" s="10">
+        <v>6</v>
+      </c>
+      <c r="F72" s="16">
+        <v>17</v>
+      </c>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="38"/>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="35"/>
+      <c r="D73" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" s="10">
+        <v>12</v>
+      </c>
+      <c r="F73" s="16">
+        <v>50</v>
+      </c>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="35"/>
+      <c r="D74" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="10">
+        <v>3</v>
+      </c>
+      <c r="F74" s="16">
+        <v>20</v>
+      </c>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="38"/>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="35"/>
+      <c r="D75" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="E75" s="10">
+        <v>6</v>
+      </c>
+      <c r="F75" s="16">
+        <v>42</v>
+      </c>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="37"/>
+      <c r="K75" s="38"/>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="35"/>
+      <c r="D76" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" s="10">
+        <v>4</v>
+      </c>
+      <c r="F76" s="16">
+        <v>44</v>
+      </c>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="37"/>
+      <c r="K76" s="38"/>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="35"/>
+      <c r="D77" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="10">
+        <v>8</v>
+      </c>
+      <c r="F77" s="16">
+        <v>44</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H77" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J77" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K77" s="38"/>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="35"/>
+      <c r="D78" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" s="11">
+        <v>2</v>
+      </c>
+      <c r="F78" s="17">
+        <v>12</v>
+      </c>
+      <c r="G78" s="7">
+        <f>SUM(E67:E78)</f>
+        <v>84</v>
+      </c>
+      <c r="H78" s="2">
+        <f>SUM(F67:F78)</f>
+        <v>396</v>
+      </c>
+      <c r="I78" s="6">
+        <f>G78+(H78/60)</f>
+        <v>90.6</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K78" s="38"/>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="35"/>
+      <c r="D79" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E79" s="12">
+        <v>5</v>
+      </c>
+      <c r="F79" s="18">
+        <v>16</v>
+      </c>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="37"/>
+      <c r="K79" s="38"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="35"/>
+      <c r="D80" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="13">
+        <v>5</v>
+      </c>
+      <c r="F80" s="19">
+        <v>47</v>
+      </c>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="38"/>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="35"/>
+      <c r="D81" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="E81" s="13">
+        <v>7</v>
+      </c>
+      <c r="F81" s="19">
+        <v>21</v>
+      </c>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="38"/>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" s="35"/>
+      <c r="D82" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="E82" s="13">
+        <v>6</v>
+      </c>
+      <c r="F82" s="19">
+        <v>50</v>
+      </c>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="38"/>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" s="35"/>
+      <c r="D83" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="13">
+        <v>5</v>
+      </c>
+      <c r="F83" s="19">
+        <v>7</v>
+      </c>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="38"/>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="35"/>
+      <c r="D84" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="E84" s="13">
+        <v>11</v>
+      </c>
+      <c r="F84" s="19">
+        <v>7</v>
+      </c>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="38"/>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="35"/>
+      <c r="D85" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="E85" s="13">
+        <v>18</v>
+      </c>
+      <c r="F85" s="19">
+        <v>7</v>
+      </c>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="37"/>
+      <c r="K85" s="38"/>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="35"/>
+      <c r="D86" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E86" s="13">
+        <v>4</v>
+      </c>
+      <c r="F86" s="19">
+        <v>9</v>
+      </c>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="38"/>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" s="35"/>
+      <c r="D87" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="E87" s="13">
+        <v>1</v>
+      </c>
+      <c r="F87" s="19">
+        <v>59</v>
+      </c>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="37"/>
+      <c r="K87" s="38"/>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" s="35"/>
+      <c r="D88" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="E88" s="13">
+        <v>4</v>
+      </c>
+      <c r="F88" s="19">
+        <v>42</v>
+      </c>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="37"/>
+      <c r="K88" s="38"/>
+    </row>
+    <row r="89" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C89" s="35"/>
+      <c r="D89" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="E89" s="13">
+        <v>8</v>
+      </c>
+      <c r="F89" s="19">
+        <v>8</v>
+      </c>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="38"/>
+    </row>
+    <row r="90" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C90" s="35"/>
+      <c r="D90" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E90" s="13">
+        <v>1</v>
+      </c>
+      <c r="F90" s="19">
+        <v>28</v>
+      </c>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="37"/>
+      <c r="K90" s="38"/>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="35"/>
+      <c r="D91" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="E91" s="13">
+        <v>8</v>
+      </c>
+      <c r="F91" s="19">
+        <v>55</v>
+      </c>
+      <c r="G91" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J91" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K91" s="38"/>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="35"/>
+      <c r="D92" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="E92" s="14">
+        <v>10</v>
+      </c>
+      <c r="F92" s="20">
+        <v>1</v>
+      </c>
+      <c r="G92" s="7">
+        <f>SUM(E79:E92)</f>
+        <v>93</v>
+      </c>
+      <c r="H92" s="2">
+        <f>SUM(F79:F92)</f>
+        <v>357</v>
+      </c>
+      <c r="I92" s="6">
+        <f>G92+(H92/60)</f>
+        <v>98.95</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K92" s="38"/>
+    </row>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" s="35"/>
+      <c r="D93" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E93" s="9">
+        <v>8</v>
+      </c>
+      <c r="F93" s="15">
+        <v>37</v>
+      </c>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="37"/>
+      <c r="K93" s="38"/>
+    </row>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C94" s="35"/>
+      <c r="D94" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E94" s="10">
+        <v>4</v>
+      </c>
+      <c r="F94" s="16">
+        <v>2</v>
+      </c>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="37"/>
+      <c r="K94" s="38"/>
+    </row>
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" s="35"/>
+      <c r="D95" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E95" s="10">
+        <v>9</v>
+      </c>
+      <c r="F95" s="16">
+        <v>20</v>
+      </c>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="37"/>
+      <c r="K95" s="38"/>
+    </row>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" s="35"/>
+      <c r="D96" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E96" s="10">
+        <v>7</v>
+      </c>
+      <c r="F96" s="16">
+        <v>12</v>
+      </c>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="37"/>
+      <c r="K96" s="38"/>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="35"/>
+      <c r="D97" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="E97" s="10">
+        <v>7</v>
+      </c>
+      <c r="F97" s="16">
+        <v>30</v>
+      </c>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="37"/>
+      <c r="K97" s="38"/>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" s="35"/>
+      <c r="D98" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="E98" s="10">
+        <v>10</v>
+      </c>
+      <c r="F98" s="16">
+        <v>57</v>
+      </c>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="38"/>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="35"/>
+      <c r="D99" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
+      <c r="F99" s="16">
+        <v>24</v>
+      </c>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="38"/>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="35"/>
+      <c r="D100" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" s="10">
+        <v>3</v>
+      </c>
+      <c r="F100" s="16">
+        <v>37</v>
+      </c>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="38"/>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="35"/>
+      <c r="D101" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="E101" s="10">
+        <v>11</v>
+      </c>
+      <c r="F101" s="16">
+        <v>50</v>
+      </c>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="38"/>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="35"/>
+      <c r="D102" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="E102" s="10">
+        <v>7</v>
+      </c>
+      <c r="F102" s="16">
+        <v>34</v>
+      </c>
+      <c r="G102" s="36"/>
+      <c r="H102" s="36"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="37"/>
+      <c r="K102" s="38"/>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="35"/>
+      <c r="D103" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="E103" s="10">
+        <v>10</v>
+      </c>
+      <c r="F103" s="16">
+        <v>29</v>
+      </c>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="38"/>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="35"/>
+      <c r="D104" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
+      <c r="F104" s="16">
+        <v>52</v>
+      </c>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="38"/>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="35"/>
+      <c r="D105" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E105" s="10">
+        <v>3</v>
+      </c>
+      <c r="F105" s="16">
+        <v>43</v>
+      </c>
+      <c r="G105" s="36"/>
+      <c r="H105" s="36"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="38"/>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="35"/>
+      <c r="D106" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E106" s="10">
+        <v>4</v>
+      </c>
+      <c r="F106" s="16">
+        <v>40</v>
+      </c>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="38"/>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="35"/>
+      <c r="D107" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E107" s="10">
+        <v>5</v>
+      </c>
+      <c r="F107" s="16">
+        <v>12</v>
+      </c>
+      <c r="G107" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H107" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J107" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K107" s="38"/>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="35"/>
+      <c r="D108" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E108" s="11">
+        <v>9</v>
+      </c>
+      <c r="F108" s="17">
+        <v>44</v>
+      </c>
+      <c r="G108" s="7">
+        <f>SUM(E93:E108)</f>
+        <v>99</v>
+      </c>
+      <c r="H108" s="2">
+        <f>SUM(F93:F108)</f>
+        <v>523</v>
+      </c>
+      <c r="I108" s="6">
+        <f>G108+(H108/60)</f>
+        <v>107.71666666666667</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K108" s="38"/>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="35"/>
+      <c r="D109" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="E109" s="12">
+        <v>13</v>
+      </c>
+      <c r="F109" s="18">
+        <v>27</v>
+      </c>
+      <c r="G109" s="36"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="38"/>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="35"/>
+      <c r="D110" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="E110" s="13">
+        <v>2</v>
+      </c>
+      <c r="F110" s="19">
+        <v>14</v>
+      </c>
+      <c r="G110" s="36"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="38"/>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="35"/>
+      <c r="D111" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E111" s="13">
+        <v>3</v>
+      </c>
+      <c r="F111" s="19">
+        <v>56</v>
+      </c>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="38"/>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="35"/>
+      <c r="D112" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E112" s="13">
+        <v>4</v>
+      </c>
+      <c r="F112" s="19">
+        <v>23</v>
+      </c>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="38"/>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="35"/>
+      <c r="D113" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="13">
+        <v>5</v>
+      </c>
+      <c r="F113" s="19">
+        <v>31</v>
+      </c>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="38"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" s="35"/>
+      <c r="D114" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E114" s="13">
+        <v>9</v>
+      </c>
+      <c r="F114" s="19">
+        <v>31</v>
+      </c>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="38"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" s="35"/>
+      <c r="D115" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="E115" s="13">
+        <v>10</v>
+      </c>
+      <c r="F115" s="19">
+        <v>47</v>
+      </c>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="37"/>
+      <c r="K115" s="38"/>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" s="35"/>
+      <c r="D116" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="E116" s="13">
+        <v>3</v>
+      </c>
+      <c r="F116" s="19">
+        <v>36</v>
+      </c>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="38"/>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" s="35"/>
+      <c r="D117" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="E117" s="13">
+        <v>5</v>
+      </c>
+      <c r="F117" s="19">
+        <v>57</v>
+      </c>
+      <c r="G117" s="36"/>
+      <c r="H117" s="36"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="38"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" s="35"/>
+      <c r="D118" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E118" s="13">
+        <v>4</v>
+      </c>
+      <c r="F118" s="19">
+        <v>38</v>
+      </c>
+      <c r="G118" s="36"/>
+      <c r="H118" s="36"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="37"/>
+      <c r="K118" s="38"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" s="35"/>
+      <c r="D119" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="E119" s="13">
+        <v>12</v>
+      </c>
+      <c r="F119" s="19">
+        <v>14</v>
+      </c>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="37"/>
+      <c r="K119" s="38"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" s="35"/>
+      <c r="D120" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E120" s="13">
+        <v>6</v>
+      </c>
+      <c r="F120" s="19">
+        <v>16</v>
+      </c>
+      <c r="G120" s="36"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="37"/>
+      <c r="K120" s="38"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" s="35"/>
+      <c r="D121" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="E121" s="13">
+        <v>3</v>
+      </c>
+      <c r="F121" s="19">
+        <v>35</v>
+      </c>
+      <c r="G121" s="36"/>
+      <c r="H121" s="36"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="37"/>
+      <c r="K121" s="38"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" s="35"/>
+      <c r="D122" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" s="13">
+        <v>5</v>
+      </c>
+      <c r="F122" s="19">
+        <v>14</v>
+      </c>
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="37"/>
+      <c r="K122" s="38"/>
+    </row>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C123" s="35"/>
+      <c r="D123" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="E123" s="13">
+        <v>2</v>
+      </c>
+      <c r="F123" s="19">
+        <v>29</v>
+      </c>
+      <c r="G123" s="36"/>
+      <c r="H123" s="36"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="37"/>
+      <c r="K123" s="38"/>
+    </row>
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C124" s="35"/>
+      <c r="D124" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="E124" s="13">
+        <v>6</v>
+      </c>
+      <c r="F124" s="19">
+        <v>32</v>
+      </c>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="37"/>
+      <c r="K124" s="38"/>
+    </row>
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C125" s="35"/>
+      <c r="D125" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="E125" s="13">
+        <v>5</v>
+      </c>
+      <c r="F125" s="19">
+        <v>14</v>
+      </c>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
+      <c r="I125" s="37"/>
+      <c r="J125" s="37"/>
+      <c r="K125" s="38"/>
+    </row>
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C126" s="35"/>
+      <c r="D126" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="E126" s="13">
+        <v>4</v>
+      </c>
+      <c r="F126" s="19">
+        <v>32</v>
+      </c>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
+      <c r="I126" s="37"/>
+      <c r="J126" s="37"/>
+      <c r="K126" s="38"/>
+    </row>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C127" s="35"/>
+      <c r="D127" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" s="13">
+        <v>4</v>
+      </c>
+      <c r="F127" s="19">
+        <v>1</v>
+      </c>
+      <c r="G127" s="36"/>
+      <c r="H127" s="36"/>
+      <c r="I127" s="37"/>
+      <c r="J127" s="37"/>
+      <c r="K127" s="38"/>
+    </row>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C128" s="35"/>
+      <c r="D128" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="E128" s="13">
+        <v>15</v>
+      </c>
+      <c r="F128" s="19">
+        <v>13</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="36"/>
+      <c r="I128" s="37"/>
+      <c r="J128" s="37"/>
+      <c r="K128" s="38"/>
+    </row>
+    <row r="129" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C129" s="35"/>
+      <c r="D129" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="E129" s="13">
+        <v>3</v>
+      </c>
+      <c r="F129" s="19">
+        <v>36</v>
+      </c>
+      <c r="G129" s="36"/>
+      <c r="H129" s="36"/>
+      <c r="I129" s="37"/>
+      <c r="J129" s="37"/>
+      <c r="K129" s="38"/>
+    </row>
+    <row r="130" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C130" s="35"/>
+      <c r="D130" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="E130" s="13">
+        <v>5</v>
+      </c>
+      <c r="F130" s="19">
+        <v>6</v>
+      </c>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="37"/>
+      <c r="J130" s="37"/>
+      <c r="K130" s="38"/>
+    </row>
+    <row r="131" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C131" s="35"/>
+      <c r="D131" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="E131" s="13">
+        <v>2</v>
+      </c>
+      <c r="F131" s="19">
+        <v>52</v>
+      </c>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="37"/>
+      <c r="J131" s="37"/>
+      <c r="K131" s="38"/>
+    </row>
+    <row r="132" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C132" s="35"/>
+      <c r="D132" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="E132" s="13">
+        <v>2</v>
+      </c>
+      <c r="F132" s="19">
+        <v>52</v>
+      </c>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="37"/>
+      <c r="J132" s="37"/>
+      <c r="K132" s="38"/>
+    </row>
+    <row r="133" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C133" s="35"/>
+      <c r="D133" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="E133" s="13">
+        <v>6</v>
+      </c>
+      <c r="F133" s="19">
+        <v>20</v>
+      </c>
+      <c r="G133" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H133" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J133" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K133" s="38"/>
+    </row>
+    <row r="134" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C134" s="35"/>
+      <c r="D134" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="E134" s="14">
+        <v>4</v>
+      </c>
+      <c r="F134" s="20">
+        <v>59</v>
+      </c>
+      <c r="G134" s="7">
+        <f>SUM(E109:E134)</f>
+        <v>142</v>
+      </c>
+      <c r="H134" s="2">
+        <f>SUM(F109:F134)</f>
+        <v>785</v>
+      </c>
+      <c r="I134" s="6">
+        <f>G134+(H134/60)</f>
+        <v>155.08333333333334</v>
+      </c>
+      <c r="J134" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K134" s="38"/>
+    </row>
+    <row r="135" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C135" s="35"/>
+      <c r="D135" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E135" s="9">
+        <v>1</v>
+      </c>
+      <c r="F135" s="15">
+        <v>49</v>
+      </c>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
+      <c r="I135" s="37"/>
+      <c r="J135" s="37"/>
+      <c r="K135" s="38"/>
+    </row>
+    <row r="136" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C136" s="35"/>
+      <c r="D136" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="E136" s="10">
+        <v>7</v>
+      </c>
+      <c r="F136" s="16">
+        <v>23</v>
+      </c>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="37"/>
+      <c r="J136" s="37"/>
+      <c r="K136" s="38"/>
+    </row>
+    <row r="137" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C137" s="35"/>
+      <c r="D137" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E137" s="10">
+        <v>6</v>
+      </c>
+      <c r="F137" s="16">
+        <v>8</v>
+      </c>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="37"/>
+      <c r="J137" s="37"/>
+      <c r="K137" s="38"/>
+    </row>
+    <row r="138" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C138" s="35"/>
+      <c r="D138" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" s="10">
+        <v>2</v>
+      </c>
+      <c r="F138" s="16">
+        <v>49</v>
+      </c>
+      <c r="G138" s="36"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="38"/>
+    </row>
+    <row r="139" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C139" s="35"/>
+      <c r="D139" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E139" s="10">
+        <v>2</v>
+      </c>
+      <c r="F139" s="16">
+        <v>41</v>
+      </c>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="37"/>
+      <c r="J139" s="37"/>
+      <c r="K139" s="38"/>
+    </row>
+    <row r="140" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C140" s="35"/>
+      <c r="D140" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="E140" s="10">
+        <v>5</v>
+      </c>
+      <c r="F140" s="16">
+        <v>25</v>
+      </c>
+      <c r="G140" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H140" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J140" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K140" s="38"/>
+    </row>
+    <row r="141" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C141" s="35"/>
+      <c r="D141" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E141" s="11">
+        <v>7</v>
+      </c>
+      <c r="F141" s="17">
+        <v>6</v>
+      </c>
+      <c r="G141" s="7">
+        <f>SUM(E135:E141)</f>
+        <v>30</v>
+      </c>
+      <c r="H141" s="2">
+        <f>SUM(F135:F141)</f>
+        <v>201</v>
+      </c>
+      <c r="I141" s="6">
+        <f>G141+(H141/60)</f>
+        <v>33.35</v>
+      </c>
+      <c r="J141" s="5">
+        <v>1</v>
+      </c>
+      <c r="K141" s="38"/>
+    </row>
+    <row r="142" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C142" s="35"/>
+      <c r="D142" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="E142" s="12">
+        <v>3</v>
+      </c>
+      <c r="F142" s="18">
+        <v>22</v>
+      </c>
+      <c r="G142" s="36"/>
+      <c r="H142" s="36"/>
+      <c r="I142" s="37"/>
+      <c r="J142" s="37"/>
+      <c r="K142" s="38"/>
+    </row>
+    <row r="143" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C143" s="35"/>
+      <c r="D143" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="E143" s="13">
+        <v>7</v>
+      </c>
+      <c r="F143" s="19">
+        <v>48</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="36"/>
+      <c r="I143" s="37"/>
+      <c r="J143" s="37"/>
+      <c r="K143" s="38"/>
+    </row>
+    <row r="144" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C144" s="39"/>
+      <c r="D144" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="E144" s="13">
+        <v>3</v>
+      </c>
+      <c r="F144" s="19">
+        <v>56</v>
+      </c>
+      <c r="G144" s="36"/>
+      <c r="H144" s="36"/>
+      <c r="I144" s="37"/>
+      <c r="J144" s="37"/>
+      <c r="K144" s="38"/>
+      <c r="N144"/>
+      <c r="O144"/>
+      <c r="P144"/>
+      <c r="Q144"/>
+    </row>
+    <row r="145" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C145" s="39"/>
+      <c r="D145" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E145" s="13">
+        <v>2</v>
+      </c>
+      <c r="F145" s="19">
+        <v>4</v>
+      </c>
+      <c r="G145" s="36"/>
+      <c r="H145" s="36"/>
+      <c r="I145" s="37"/>
+      <c r="J145" s="37"/>
+      <c r="K145" s="38"/>
+      <c r="N145"/>
+      <c r="O145"/>
+      <c r="P145"/>
+      <c r="Q145"/>
+    </row>
+    <row r="146" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C146" s="39"/>
+      <c r="D146" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E146" s="13">
+        <v>8</v>
+      </c>
+      <c r="F146" s="19">
+        <v>11</v>
+      </c>
+      <c r="G146" s="36"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="37"/>
+      <c r="J146" s="37"/>
+      <c r="K146" s="38"/>
+      <c r="N146"/>
+      <c r="O146"/>
+      <c r="P146"/>
+      <c r="Q146"/>
+    </row>
+    <row r="147" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C147" s="39"/>
+      <c r="D147" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E147" s="13">
+        <v>6</v>
+      </c>
+      <c r="F147" s="19">
+        <v>49</v>
+      </c>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="37"/>
+      <c r="J147" s="37"/>
+      <c r="K147" s="38"/>
+      <c r="N147"/>
+      <c r="O147"/>
+      <c r="P147"/>
+      <c r="Q147"/>
+    </row>
+    <row r="148" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C148" s="39"/>
+      <c r="D148" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" s="13">
+        <v>3</v>
+      </c>
+      <c r="F148" s="19">
+        <v>4</v>
+      </c>
+      <c r="G148" s="36"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="37"/>
+      <c r="J148" s="37"/>
+      <c r="K148" s="38"/>
+      <c r="N148"/>
+      <c r="O148"/>
+      <c r="P148"/>
+      <c r="Q148"/>
+    </row>
+    <row r="149" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C149" s="39"/>
+      <c r="D149" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="E149" s="13">
+        <v>7</v>
+      </c>
+      <c r="F149" s="19">
+        <v>43</v>
+      </c>
+      <c r="G149" s="36"/>
+      <c r="H149" s="36"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="38"/>
+      <c r="N149"/>
+      <c r="O149"/>
+      <c r="P149"/>
+      <c r="Q149"/>
+    </row>
+    <row r="150" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C150" s="39"/>
+      <c r="D150" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="E150" s="13">
+        <v>7</v>
+      </c>
+      <c r="F150" s="19">
+        <v>41</v>
+      </c>
+      <c r="G150" s="36"/>
+      <c r="H150" s="36"/>
+      <c r="I150" s="37"/>
+      <c r="J150" s="37"/>
+      <c r="K150" s="38"/>
+      <c r="N150"/>
+      <c r="O150"/>
+      <c r="P150"/>
+      <c r="Q150"/>
+    </row>
+    <row r="151" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C151" s="39"/>
+      <c r="D151" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="13">
+        <v>2</v>
+      </c>
+      <c r="F151" s="19">
+        <v>58</v>
+      </c>
+      <c r="G151" s="36"/>
+      <c r="H151" s="36"/>
+      <c r="I151" s="37"/>
+      <c r="J151" s="37"/>
+      <c r="K151" s="38"/>
+      <c r="N151"/>
+      <c r="O151"/>
+      <c r="P151"/>
+      <c r="Q151"/>
+    </row>
+    <row r="152" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C152" s="39"/>
+      <c r="D152" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="E152" s="13">
+        <v>4</v>
+      </c>
+      <c r="F152" s="19">
+        <v>29</v>
+      </c>
+      <c r="G152" s="36"/>
+      <c r="H152" s="36"/>
+      <c r="I152" s="37"/>
+      <c r="J152" s="37"/>
+      <c r="K152" s="38"/>
+      <c r="N152"/>
+      <c r="O152"/>
+      <c r="P152"/>
+      <c r="Q152"/>
+    </row>
+    <row r="153" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C153" s="39"/>
+      <c r="D153" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="E153" s="13">
+        <v>10</v>
+      </c>
+      <c r="F153" s="19">
+        <v>57</v>
+      </c>
+      <c r="G153" s="36"/>
+      <c r="H153" s="36"/>
+      <c r="I153" s="37"/>
+      <c r="J153" s="37"/>
+      <c r="K153" s="38"/>
+      <c r="N153"/>
+      <c r="O153"/>
+      <c r="P153"/>
+      <c r="Q153"/>
+    </row>
+    <row r="154" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C154" s="39"/>
+      <c r="D154" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="E154" s="13">
+        <v>11</v>
+      </c>
+      <c r="F154" s="19">
+        <v>53</v>
+      </c>
+      <c r="G154" s="36"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="37"/>
+      <c r="J154" s="37"/>
+      <c r="K154" s="38"/>
+      <c r="N154"/>
+      <c r="O154"/>
+      <c r="P154"/>
+      <c r="Q154"/>
+    </row>
+    <row r="155" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C155" s="39"/>
+      <c r="D155" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="E155" s="13">
+        <v>3</v>
+      </c>
+      <c r="F155" s="19">
+        <v>5</v>
+      </c>
+      <c r="G155" s="36"/>
+      <c r="H155" s="36"/>
+      <c r="I155" s="37"/>
+      <c r="J155" s="37"/>
+      <c r="K155" s="38"/>
+      <c r="N155"/>
+      <c r="O155"/>
+      <c r="P155"/>
+      <c r="Q155"/>
+    </row>
+    <row r="156" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C156" s="39"/>
+      <c r="D156" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="E156" s="13">
+        <v>7</v>
+      </c>
+      <c r="F156" s="19">
+        <v>14</v>
+      </c>
+      <c r="G156" s="36"/>
+      <c r="H156" s="36"/>
+      <c r="I156" s="37"/>
+      <c r="J156" s="37"/>
+      <c r="K156" s="38"/>
+      <c r="N156"/>
+      <c r="O156"/>
+      <c r="P156"/>
+      <c r="Q156"/>
+    </row>
+    <row r="157" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C157" s="39"/>
+      <c r="D157" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="E157" s="13">
+        <v>4</v>
+      </c>
+      <c r="F157" s="19">
+        <v>48</v>
+      </c>
+      <c r="G157" s="36"/>
+      <c r="H157" s="36"/>
+      <c r="I157" s="37"/>
+      <c r="J157" s="37"/>
+      <c r="K157" s="38"/>
+      <c r="N157"/>
+      <c r="O157"/>
+      <c r="P157"/>
+      <c r="Q157"/>
+    </row>
+    <row r="158" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C158" s="39"/>
+      <c r="D158" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="E158" s="13">
+        <v>2</v>
+      </c>
+      <c r="F158" s="19">
+        <v>5</v>
+      </c>
+      <c r="G158" s="36"/>
+      <c r="H158" s="36"/>
+      <c r="I158" s="37"/>
+      <c r="J158" s="37"/>
+      <c r="K158" s="38"/>
+      <c r="N158"/>
+      <c r="O158"/>
+      <c r="P158"/>
+      <c r="Q158"/>
+    </row>
+    <row r="159" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C159" s="39"/>
+      <c r="D159" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E159" s="13">
+        <v>3</v>
+      </c>
+      <c r="F159" s="19">
+        <v>42</v>
+      </c>
+      <c r="G159" s="36"/>
+      <c r="H159" s="36"/>
+      <c r="I159" s="37"/>
+      <c r="J159" s="37"/>
+      <c r="K159" s="38"/>
+      <c r="N159"/>
+      <c r="O159"/>
+      <c r="P159"/>
+      <c r="Q159"/>
+    </row>
+    <row r="160" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C160" s="35"/>
+      <c r="D160" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="E160" s="13">
+        <v>6</v>
+      </c>
+      <c r="F160" s="19">
+        <v>26</v>
+      </c>
+      <c r="G160" s="36"/>
+      <c r="H160" s="36"/>
+      <c r="I160" s="37"/>
+      <c r="J160" s="37"/>
+      <c r="K160" s="38"/>
+    </row>
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C161" s="35"/>
+      <c r="D161" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="E161" s="13">
+        <v>8</v>
+      </c>
+      <c r="F161" s="19">
+        <v>36</v>
+      </c>
+      <c r="G161" s="36"/>
+      <c r="H161" s="36"/>
+      <c r="I161" s="37"/>
+      <c r="J161" s="37"/>
+      <c r="K161" s="38"/>
+    </row>
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C162" s="35"/>
+      <c r="D162" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E162" s="13">
+        <v>14</v>
+      </c>
+      <c r="F162" s="19">
+        <v>25</v>
+      </c>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
+      <c r="J162" s="37"/>
+      <c r="K162" s="38"/>
+    </row>
+    <row r="163" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C163" s="35"/>
+      <c r="D163" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="E163" s="13">
+        <v>14</v>
+      </c>
+      <c r="F163" s="19">
+        <v>41</v>
+      </c>
+      <c r="G163" s="36"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="37"/>
+      <c r="J163" s="37"/>
+      <c r="K163" s="38"/>
+    </row>
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C164" s="35"/>
+      <c r="D164" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E164" s="13">
+        <v>6</v>
+      </c>
+      <c r="F164" s="19">
+        <v>51</v>
+      </c>
+      <c r="G164" s="36"/>
+      <c r="H164" s="36"/>
+      <c r="I164" s="37"/>
+      <c r="J164" s="37"/>
+      <c r="K164" s="38"/>
+    </row>
+    <row r="165" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C165" s="35"/>
+      <c r="D165" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="E165" s="13">
+        <v>7</v>
+      </c>
+      <c r="F165" s="19">
+        <v>4</v>
+      </c>
+      <c r="G165" s="36"/>
+      <c r="H165" s="36"/>
+      <c r="I165" s="37"/>
+      <c r="J165" s="37"/>
+      <c r="K165" s="38"/>
+    </row>
+    <row r="166" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C166" s="35"/>
+      <c r="D166" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="E166" s="13">
+        <v>11</v>
+      </c>
+      <c r="F166" s="19">
+        <v>5</v>
+      </c>
+      <c r="G166" s="36"/>
+      <c r="H166" s="36"/>
+      <c r="I166" s="37"/>
+      <c r="J166" s="37"/>
+      <c r="K166" s="38"/>
+    </row>
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C167" s="35"/>
+      <c r="D167" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="E167" s="13">
+        <v>1</v>
+      </c>
+      <c r="F167" s="19">
+        <v>26</v>
+      </c>
+      <c r="G167" s="36"/>
+      <c r="H167" s="36"/>
+      <c r="I167" s="37"/>
+      <c r="J167" s="37"/>
+      <c r="K167" s="38"/>
+    </row>
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C168" s="35"/>
+      <c r="D168" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="E168" s="13">
+        <v>2</v>
+      </c>
+      <c r="F168" s="19">
+        <v>11</v>
+      </c>
+      <c r="G168" s="36"/>
+      <c r="H168" s="36"/>
+      <c r="I168" s="37"/>
+      <c r="J168" s="37"/>
+      <c r="K168" s="38"/>
+    </row>
+    <row r="169" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C169" s="35"/>
+      <c r="D169" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="E169" s="13">
+        <v>7</v>
+      </c>
+      <c r="F169" s="19">
+        <v>25</v>
+      </c>
+      <c r="G169" s="36"/>
+      <c r="H169" s="36"/>
+      <c r="I169" s="37"/>
+      <c r="J169" s="37"/>
+      <c r="K169" s="38"/>
+    </row>
+    <row r="170" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C170" s="35"/>
+      <c r="D170" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="E170" s="13">
+        <v>3</v>
+      </c>
+      <c r="F170" s="19">
+        <v>14</v>
+      </c>
+      <c r="G170" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H170" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J170" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K170" s="38"/>
+    </row>
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C171" s="35"/>
+      <c r="D171" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="E171" s="14">
+        <v>11</v>
+      </c>
+      <c r="F171" s="20">
+        <v>8</v>
+      </c>
+      <c r="G171" s="7">
+        <f>SUM(E142:E171)</f>
+        <v>182</v>
+      </c>
+      <c r="H171" s="2">
+        <f>SUM(F142:F171)</f>
+        <v>861</v>
+      </c>
+      <c r="I171" s="6">
+        <f>G171+(H171/60)</f>
+        <v>196.35</v>
+      </c>
+      <c r="J171" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="K171" s="38"/>
+    </row>
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C172" s="35"/>
+      <c r="D172" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E172" s="9">
+        <v>3</v>
+      </c>
+      <c r="F172" s="15">
+        <v>22</v>
+      </c>
+      <c r="G172" s="36"/>
+      <c r="H172" s="36"/>
+      <c r="I172" s="37"/>
+      <c r="J172" s="37"/>
+      <c r="K172" s="38"/>
+    </row>
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C173" s="35"/>
+      <c r="D173" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="E173" s="10">
+        <v>2</v>
+      </c>
+      <c r="F173" s="16">
+        <v>40</v>
+      </c>
+      <c r="G173" s="36"/>
+      <c r="H173" s="36"/>
+      <c r="I173" s="37"/>
+      <c r="J173" s="37"/>
+      <c r="K173" s="38"/>
+    </row>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C174" s="35"/>
+      <c r="D174" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="E174" s="10">
+        <v>4</v>
+      </c>
+      <c r="F174" s="16">
+        <v>46</v>
+      </c>
+      <c r="G174" s="36"/>
+      <c r="H174" s="36"/>
+      <c r="I174" s="37"/>
+      <c r="J174" s="37"/>
+      <c r="K174" s="38"/>
+    </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C175" s="35"/>
+      <c r="D175" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="E175" s="10">
+        <v>3</v>
+      </c>
+      <c r="F175" s="16">
+        <v>51</v>
+      </c>
+      <c r="G175" s="36"/>
+      <c r="H175" s="36"/>
+      <c r="I175" s="37"/>
+      <c r="J175" s="37"/>
+      <c r="K175" s="38"/>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C176" s="35"/>
+      <c r="D176" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E176" s="10">
+        <v>12</v>
+      </c>
+      <c r="F176" s="16">
+        <v>4</v>
+      </c>
+      <c r="G176" s="36"/>
+      <c r="H176" s="36"/>
+      <c r="I176" s="37"/>
+      <c r="J176" s="37"/>
+      <c r="K176" s="38"/>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C177" s="35"/>
+      <c r="D177" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="E177" s="10">
+        <v>7</v>
+      </c>
+      <c r="F177" s="16">
+        <v>12</v>
+      </c>
+      <c r="G177" s="36"/>
+      <c r="H177" s="36"/>
+      <c r="I177" s="37"/>
+      <c r="J177" s="37"/>
+      <c r="K177" s="38"/>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C178" s="35"/>
+      <c r="D178" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="E178" s="10">
+        <v>1</v>
+      </c>
+      <c r="F178" s="16">
+        <v>28</v>
+      </c>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="37"/>
+      <c r="J178" s="37"/>
+      <c r="K178" s="38"/>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C179" s="35"/>
+      <c r="D179" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E179" s="10">
+        <v>0</v>
+      </c>
+      <c r="F179" s="16">
+        <v>37</v>
+      </c>
+      <c r="G179" s="36"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="37"/>
+      <c r="J179" s="37"/>
+      <c r="K179" s="38"/>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C180" s="35"/>
+      <c r="D180" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="E180" s="10">
+        <v>3</v>
+      </c>
+      <c r="F180" s="16">
+        <v>1</v>
+      </c>
+      <c r="G180" s="36"/>
+      <c r="H180" s="36"/>
+      <c r="I180" s="37"/>
+      <c r="J180" s="37"/>
+      <c r="K180" s="38"/>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="35"/>
+      <c r="D181" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="E181" s="10">
+        <v>2</v>
+      </c>
+      <c r="F181" s="16">
+        <v>59</v>
+      </c>
+      <c r="G181" s="36"/>
+      <c r="H181" s="36"/>
+      <c r="I181" s="37"/>
+      <c r="J181" s="37"/>
+      <c r="K181" s="38"/>
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="35"/>
+      <c r="D182" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="E182" s="10">
+        <v>9</v>
+      </c>
+      <c r="F182" s="16">
+        <v>4</v>
+      </c>
+      <c r="G182" s="36"/>
+      <c r="H182" s="36"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="38"/>
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C183" s="35"/>
+      <c r="D183" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="E183" s="10">
+        <v>9</v>
+      </c>
+      <c r="F183" s="16">
+        <v>2</v>
+      </c>
+      <c r="G183" s="36"/>
+      <c r="H183" s="36"/>
+      <c r="I183" s="37"/>
+      <c r="J183" s="37"/>
+      <c r="K183" s="38"/>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C184" s="35"/>
+      <c r="D184" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="E184" s="10">
+        <v>6</v>
+      </c>
+      <c r="F184" s="16">
+        <v>55</v>
+      </c>
+      <c r="G184" s="36"/>
+      <c r="H184" s="36"/>
+      <c r="I184" s="37"/>
+      <c r="J184" s="37"/>
+      <c r="K184" s="38"/>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C185" s="35"/>
+      <c r="D185" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="E185" s="10">
+        <v>5</v>
+      </c>
+      <c r="F185" s="16">
+        <v>14</v>
+      </c>
+      <c r="G185" s="36"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="37"/>
+      <c r="J185" s="37"/>
+      <c r="K185" s="38"/>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C186" s="35"/>
+      <c r="D186" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="E186" s="10">
+        <v>9</v>
+      </c>
+      <c r="F186" s="16">
+        <v>46</v>
+      </c>
+      <c r="G186" s="36"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="37"/>
+      <c r="J186" s="37"/>
+      <c r="K186" s="38"/>
+    </row>
+    <row r="187" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C187" s="35"/>
+      <c r="D187" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E187" s="10">
+        <v>12</v>
+      </c>
+      <c r="F187" s="16">
+        <v>30</v>
+      </c>
+      <c r="G187" s="36"/>
+      <c r="H187" s="36"/>
+      <c r="I187" s="37"/>
+      <c r="J187" s="37"/>
+      <c r="K187" s="38"/>
+    </row>
+    <row r="188" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C188" s="35"/>
+      <c r="D188" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="E188" s="10">
+        <v>12</v>
+      </c>
+      <c r="F188" s="16">
+        <v>23</v>
+      </c>
+      <c r="G188" s="36"/>
+      <c r="H188" s="36"/>
+      <c r="I188" s="37"/>
+      <c r="J188" s="37"/>
+      <c r="K188" s="38"/>
+    </row>
+    <row r="189" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C189" s="35"/>
+      <c r="D189" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E189" s="10">
+        <v>2</v>
+      </c>
+      <c r="F189" s="16">
+        <v>29</v>
+      </c>
+      <c r="G189" s="36"/>
+      <c r="H189" s="36"/>
+      <c r="I189" s="37"/>
+      <c r="J189" s="37"/>
+      <c r="K189" s="38"/>
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C190" s="35"/>
+      <c r="D190" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E190" s="10">
+        <v>9</v>
+      </c>
+      <c r="F190" s="16">
+        <v>39</v>
+      </c>
+      <c r="G190" s="36"/>
+      <c r="H190" s="36"/>
+      <c r="I190" s="37"/>
+      <c r="J190" s="37"/>
+      <c r="K190" s="38"/>
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C191" s="35"/>
+      <c r="D191" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E191" s="10">
+        <v>8</v>
+      </c>
+      <c r="F191" s="16">
+        <v>25</v>
+      </c>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="37"/>
+      <c r="J191" s="37"/>
+      <c r="K191" s="38"/>
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C192" s="35"/>
+      <c r="D192" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E192" s="10">
+        <v>16</v>
+      </c>
+      <c r="F192" s="16">
+        <v>4</v>
+      </c>
+      <c r="G192" s="36"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="37"/>
+      <c r="J192" s="37"/>
+      <c r="K192" s="38"/>
+    </row>
+    <row r="193" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C193" s="35"/>
+      <c r="D193" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="E193" s="10">
+        <v>7</v>
+      </c>
+      <c r="F193" s="16">
+        <v>40</v>
+      </c>
+      <c r="G193" s="36"/>
+      <c r="H193" s="36"/>
+      <c r="I193" s="37"/>
+      <c r="J193" s="37"/>
+      <c r="K193" s="38"/>
+    </row>
+    <row r="194" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C194" s="35"/>
+      <c r="D194" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="E194" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G194" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H194" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J194" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K194" s="38"/>
+    </row>
+    <row r="195" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C195" s="35"/>
+      <c r="D195" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="E195" s="11">
+        <v>3</v>
+      </c>
+      <c r="F195" s="17">
+        <v>9</v>
+      </c>
+      <c r="G195" s="7">
+        <f>SUM(E172:E195)</f>
+        <v>144</v>
+      </c>
+      <c r="H195" s="2">
+        <f>SUM(F172:F195)</f>
+        <v>620</v>
+      </c>
+      <c r="I195" s="6">
+        <f>G195+(H195/60)</f>
+        <v>154.33333333333334</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K195" s="38"/>
+    </row>
+    <row r="196" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C196" s="35"/>
+      <c r="D196" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="E196" s="12">
+        <v>10</v>
+      </c>
+      <c r="F196" s="18">
+        <v>11</v>
+      </c>
+      <c r="G196" s="36"/>
+      <c r="H196" s="36"/>
+      <c r="I196" s="37"/>
+      <c r="J196" s="37"/>
+      <c r="K196" s="38"/>
+    </row>
+    <row r="197" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C197" s="35"/>
+      <c r="D197" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="E197" s="13">
+        <v>3</v>
+      </c>
+      <c r="F197" s="19">
+        <v>49</v>
+      </c>
+      <c r="G197" s="36"/>
+      <c r="H197" s="36"/>
+      <c r="I197" s="37"/>
+      <c r="J197" s="37"/>
+      <c r="K197" s="38"/>
+    </row>
+    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C198" s="35"/>
+      <c r="D198" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E198" s="13">
+        <v>12</v>
+      </c>
+      <c r="F198" s="19">
+        <v>47</v>
+      </c>
+      <c r="G198" s="36"/>
+      <c r="H198" s="36"/>
+      <c r="I198" s="37"/>
+      <c r="J198" s="37"/>
+      <c r="K198" s="38"/>
+    </row>
+    <row r="199" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C199" s="35"/>
+      <c r="D199" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E199" s="13">
+        <v>5</v>
+      </c>
+      <c r="F199" s="19">
+        <v>34</v>
+      </c>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+      <c r="I199" s="37"/>
+      <c r="J199" s="37"/>
+      <c r="K199" s="38"/>
+    </row>
+    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C200" s="35"/>
+      <c r="D200" s="13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E200" s="13">
+        <v>15</v>
+      </c>
+      <c r="F200" s="19">
+        <v>29</v>
+      </c>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
+      <c r="I200" s="37"/>
+      <c r="J200" s="37"/>
+      <c r="K200" s="38"/>
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C201" s="35"/>
+      <c r="D201" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="E201" s="13">
+        <v>6</v>
+      </c>
+      <c r="F201" s="19">
+        <v>50</v>
+      </c>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+      <c r="I201" s="37"/>
+      <c r="J201" s="37"/>
+      <c r="K201" s="38"/>
+    </row>
+    <row r="202" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C202" s="35"/>
+      <c r="D202" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E202" s="13">
+        <v>3</v>
+      </c>
+      <c r="F202" s="19">
+        <v>47</v>
+      </c>
+      <c r="G202" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H202" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J202" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K202" s="38"/>
+    </row>
+    <row r="203" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C203" s="35"/>
+      <c r="D203" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="E203" s="14">
+        <v>5</v>
+      </c>
+      <c r="F203" s="20">
+        <v>23</v>
+      </c>
+      <c r="G203" s="7">
+        <f>SUM(E196:E203)</f>
+        <v>59</v>
+      </c>
+      <c r="H203" s="2">
+        <f>SUM(F196:F203)</f>
+        <v>290</v>
+      </c>
+      <c r="I203" s="6">
+        <f>G203+(H203/60)</f>
+        <v>63.833333333333336</v>
+      </c>
+      <c r="J203" s="5">
+        <v>1</v>
+      </c>
+      <c r="K203" s="38"/>
+    </row>
+    <row r="204" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C204" s="35"/>
+      <c r="D204" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E204" s="9">
+        <v>4</v>
+      </c>
+      <c r="F204" s="15">
+        <v>36</v>
+      </c>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="37"/>
+      <c r="J204" s="37"/>
+      <c r="K204" s="38"/>
+    </row>
+    <row r="205" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C205" s="35"/>
+      <c r="D205" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E205" s="10">
+        <v>5</v>
+      </c>
+      <c r="F205" s="16">
+        <v>5</v>
+      </c>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="37"/>
+      <c r="J205" s="37"/>
+      <c r="K205" s="38"/>
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C206" s="35"/>
+      <c r="D206" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E206" s="10">
+        <v>2</v>
+      </c>
+      <c r="F206" s="16">
+        <v>33</v>
+      </c>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+      <c r="I206" s="37"/>
+      <c r="J206" s="37"/>
+      <c r="K206" s="38"/>
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C207" s="35"/>
+      <c r="D207" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="E207" s="10">
+        <v>5</v>
+      </c>
+      <c r="F207" s="16">
+        <v>57</v>
+      </c>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+      <c r="I207" s="37"/>
+      <c r="J207" s="37"/>
+      <c r="K207" s="38"/>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C208" s="35"/>
+      <c r="D208" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="E208" s="10">
+        <v>6</v>
+      </c>
+      <c r="F208" s="16">
+        <v>1</v>
+      </c>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+      <c r="I208" s="37"/>
+      <c r="J208" s="37"/>
+      <c r="K208" s="38"/>
+    </row>
+    <row r="209" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C209" s="35"/>
+      <c r="D209" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="E209" s="10">
+        <v>1</v>
+      </c>
+      <c r="F209" s="16">
+        <v>49</v>
+      </c>
+      <c r="G209" s="36"/>
+      <c r="H209" s="36"/>
+      <c r="I209" s="37"/>
+      <c r="J209" s="37"/>
+      <c r="K209" s="38"/>
+    </row>
+    <row r="210" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C210" s="35"/>
+      <c r="D210" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E210" s="10">
+        <v>6</v>
+      </c>
+      <c r="F210" s="16">
+        <v>25</v>
+      </c>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="37"/>
+      <c r="J210" s="37"/>
+      <c r="K210" s="38"/>
+    </row>
+    <row r="211" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C211" s="35"/>
+      <c r="D211" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E211" s="10">
+        <v>3</v>
+      </c>
+      <c r="F211" s="16">
+        <v>1</v>
+      </c>
+      <c r="G211" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H211" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J211" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="K211" s="38"/>
+    </row>
+    <row r="212" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C212" s="35"/>
+      <c r="D212" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="E212" s="11">
+        <v>8</v>
+      </c>
+      <c r="F212" s="17">
+        <v>43</v>
+      </c>
+      <c r="G212" s="7">
+        <f>SUM(E204:E212)</f>
+        <v>40</v>
+      </c>
+      <c r="H212" s="2">
+        <f>SUM(F204:F212)</f>
+        <v>250</v>
+      </c>
+      <c r="I212" s="6">
+        <f>G212+(H212/60)</f>
+        <v>44.166666666666664</v>
+      </c>
+      <c r="J212" s="5">
+        <v>1</v>
+      </c>
+      <c r="K212" s="38"/>
+    </row>
+    <row r="213" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C213" s="35"/>
+      <c r="D213" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E213" s="12">
+        <v>10</v>
+      </c>
+      <c r="F213" s="18">
+        <v>43</v>
+      </c>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+      <c r="I213" s="37"/>
+      <c r="J213" s="37"/>
+      <c r="K213" s="38"/>
+    </row>
+    <row r="214" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C214" s="35"/>
+      <c r="D214" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="E214" s="13">
+        <v>10</v>
+      </c>
+      <c r="F214" s="19">
+        <v>18</v>
+      </c>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+      <c r="I214" s="37"/>
+      <c r="J214" s="37"/>
+      <c r="K214" s="38"/>
+    </row>
+    <row r="215" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C215" s="35"/>
+      <c r="D215" s="13" t="s">
+        <v>473</v>
+      </c>
+      <c r="E215" s="13">
+        <v>5</v>
+      </c>
+      <c r="F215" s="19">
+        <v>20</v>
+      </c>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+      <c r="I215" s="37"/>
+      <c r="J215" s="37"/>
+      <c r="K215" s="38"/>
+    </row>
+    <row r="216" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C216" s="35"/>
+      <c r="D216" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E216" s="13">
+        <v>8</v>
+      </c>
+      <c r="F216" s="19">
+        <v>25</v>
+      </c>
+      <c r="G216" s="36"/>
+      <c r="H216" s="36"/>
+      <c r="I216" s="37"/>
+      <c r="J216" s="37"/>
+      <c r="K216" s="38"/>
+    </row>
+    <row r="217" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C217" s="35"/>
+      <c r="D217" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="E217" s="13">
+        <v>9</v>
+      </c>
+      <c r="F217" s="19">
+        <v>25</v>
+      </c>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+      <c r="I217" s="37"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="38"/>
+    </row>
+    <row r="218" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C218" s="35"/>
+      <c r="D218" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="E218" s="13">
+        <v>5</v>
+      </c>
+      <c r="F218" s="19">
+        <v>22</v>
+      </c>
+      <c r="G218" s="36"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="37"/>
+      <c r="J218" s="37"/>
+      <c r="K218" s="38"/>
+    </row>
+    <row r="219" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C219" s="35"/>
+      <c r="D219" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="E219" s="13">
+        <v>5</v>
+      </c>
+      <c r="F219" s="19">
+        <v>28</v>
+      </c>
+      <c r="G219" s="36"/>
+      <c r="H219" s="36"/>
+      <c r="I219" s="37"/>
+      <c r="J219" s="37"/>
+      <c r="K219" s="38"/>
+    </row>
+    <row r="220" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C220" s="35"/>
+      <c r="D220" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="E220" s="13">
+        <v>7</v>
+      </c>
+      <c r="F220" s="19">
+        <v>53</v>
+      </c>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+      <c r="I220" s="37"/>
+      <c r="J220" s="37"/>
+      <c r="K220" s="38"/>
+    </row>
+    <row r="221" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C221" s="35"/>
+      <c r="D221" s="13" t="s">
+        <v>479</v>
+      </c>
+      <c r="E221" s="13">
+        <v>4</v>
+      </c>
+      <c r="F221" s="19">
+        <v>21</v>
+      </c>
+      <c r="G221" s="36"/>
+      <c r="H221" s="36"/>
+      <c r="I221" s="37"/>
+      <c r="J221" s="37"/>
+      <c r="K221" s="38"/>
+    </row>
+    <row r="222" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C222" s="35"/>
+      <c r="D222" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E222" s="13">
+        <v>4</v>
+      </c>
+      <c r="F222" s="19">
+        <v>59</v>
+      </c>
+      <c r="G222" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H222" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J222" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K222" s="38"/>
+    </row>
+    <row r="223" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C223" s="35"/>
+      <c r="D223" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="E223" s="14">
+        <v>11</v>
+      </c>
+      <c r="F223" s="20">
+        <v>52</v>
+      </c>
+      <c r="G223" s="7">
+        <f>SUM(E213:E223)</f>
+        <v>78</v>
+      </c>
+      <c r="H223" s="2">
+        <f>SUM(F213:F223)</f>
+        <v>366</v>
+      </c>
+      <c r="I223" s="6">
+        <f>G223+(H223/60)</f>
+        <v>84.1</v>
+      </c>
+      <c r="J223" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K223" s="38"/>
+    </row>
+    <row r="224" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C224" s="35"/>
+      <c r="D224" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E224" s="9">
+        <v>9</v>
+      </c>
+      <c r="F224" s="15">
+        <v>8</v>
+      </c>
+      <c r="G224" s="36"/>
+      <c r="H224" s="36"/>
+      <c r="I224" s="37"/>
+      <c r="J224" s="37"/>
+      <c r="K224" s="38"/>
+    </row>
+    <row r="225" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C225" s="35"/>
+      <c r="D225" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="E225" s="10">
+        <v>7</v>
+      </c>
+      <c r="F225" s="16">
+        <v>39</v>
+      </c>
+      <c r="G225" s="36"/>
+      <c r="H225" s="36"/>
+      <c r="I225" s="37"/>
+      <c r="J225" s="37"/>
+      <c r="K225" s="38"/>
+    </row>
+    <row r="226" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C226" s="35"/>
+      <c r="D226" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E226" s="10">
+        <v>4</v>
+      </c>
+      <c r="F226" s="16">
+        <v>48</v>
+      </c>
+      <c r="G226" s="36"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="37"/>
+      <c r="J226" s="37"/>
+      <c r="K226" s="38"/>
+    </row>
+    <row r="227" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C227" s="35"/>
+      <c r="D227" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="E227" s="10">
+        <v>5</v>
+      </c>
+      <c r="F227" s="16">
+        <v>5</v>
+      </c>
+      <c r="G227" s="36"/>
+      <c r="H227" s="36"/>
+      <c r="I227" s="37"/>
+      <c r="J227" s="37"/>
+      <c r="K227" s="38"/>
+    </row>
+    <row r="228" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C228" s="35"/>
+      <c r="D228" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="E228" s="10">
+        <v>6</v>
+      </c>
+      <c r="F228" s="16">
+        <v>29</v>
+      </c>
+      <c r="G228" s="36"/>
+      <c r="H228" s="36"/>
+      <c r="I228" s="37"/>
+      <c r="J228" s="37"/>
+      <c r="K228" s="38"/>
+    </row>
+    <row r="229" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C229" s="35"/>
+      <c r="D229" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E229" s="10">
+        <v>6</v>
+      </c>
+      <c r="F229" s="16">
+        <v>10</v>
+      </c>
+      <c r="G229" s="36"/>
+      <c r="H229" s="36"/>
+      <c r="I229" s="37"/>
+      <c r="J229" s="37"/>
+      <c r="K229" s="38"/>
+    </row>
+    <row r="230" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C230" s="35"/>
+      <c r="D230" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E230" s="10">
+        <v>2</v>
+      </c>
+      <c r="F230" s="16">
+        <v>49</v>
+      </c>
+      <c r="G230" s="36"/>
+      <c r="H230" s="36"/>
+      <c r="I230" s="37"/>
+      <c r="J230" s="37"/>
+      <c r="K230" s="38"/>
+    </row>
+    <row r="231" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C231" s="35"/>
+      <c r="D231" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="E231" s="10">
+        <v>4</v>
+      </c>
+      <c r="F231" s="16">
+        <v>44</v>
+      </c>
+      <c r="G231" s="36"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="37"/>
+      <c r="J231" s="37"/>
+      <c r="K231" s="38"/>
+    </row>
+    <row r="232" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C232" s="35"/>
+      <c r="D232" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E232" s="10">
+        <v>9</v>
+      </c>
+      <c r="F232" s="16">
+        <v>53</v>
+      </c>
+      <c r="G232" s="36"/>
+      <c r="H232" s="36"/>
+      <c r="I232" s="37"/>
+      <c r="J232" s="37"/>
+      <c r="K232" s="38"/>
+    </row>
+    <row r="233" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C233" s="35"/>
+      <c r="D233" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E233" s="10">
+        <v>2</v>
+      </c>
+      <c r="F233" s="16">
+        <v>25</v>
+      </c>
+      <c r="G233" s="36"/>
+      <c r="H233" s="36"/>
+      <c r="I233" s="37"/>
+      <c r="J233" s="37"/>
+      <c r="K233" s="38"/>
+    </row>
+    <row r="234" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C234" s="35"/>
+      <c r="D234" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="E234" s="10">
+        <v>6</v>
+      </c>
+      <c r="F234" s="16">
+        <v>4</v>
+      </c>
+      <c r="G234" s="36"/>
+      <c r="H234" s="36"/>
+      <c r="I234" s="37"/>
+      <c r="J234" s="37"/>
+      <c r="K234" s="38"/>
+    </row>
+    <row r="235" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C235" s="35"/>
+      <c r="D235" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E235" s="10">
+        <v>3</v>
+      </c>
+      <c r="F235" s="16">
+        <v>17</v>
+      </c>
+      <c r="G235" s="36"/>
+      <c r="H235" s="36"/>
+      <c r="I235" s="37"/>
+      <c r="J235" s="37"/>
+      <c r="K235" s="38"/>
+    </row>
+    <row r="236" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C236" s="35"/>
+      <c r="D236" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="E236" s="10">
+        <v>4</v>
+      </c>
+      <c r="F236" s="16">
+        <v>26</v>
+      </c>
+      <c r="G236" s="36"/>
+      <c r="H236" s="36"/>
+      <c r="I236" s="37"/>
+      <c r="J236" s="37"/>
+      <c r="K236" s="38"/>
+    </row>
+    <row r="237" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C237" s="35"/>
+      <c r="D237" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="E237" s="10">
+        <v>10</v>
+      </c>
+      <c r="F237" s="16">
+        <v>38</v>
+      </c>
+      <c r="G237" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H237" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J237" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K237" s="38"/>
+    </row>
+    <row r="238" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C238" s="35"/>
+      <c r="D238" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="E238" s="11">
+        <v>11</v>
+      </c>
+      <c r="F238" s="17">
+        <v>24</v>
+      </c>
+      <c r="G238" s="7">
+        <f>SUM(E224:E238)</f>
+        <v>88</v>
+      </c>
+      <c r="H238" s="2">
+        <f>SUM(F224:F238)</f>
+        <v>419</v>
+      </c>
+      <c r="I238" s="6">
+        <f>G238+(H238/60)</f>
+        <v>94.983333333333334</v>
+      </c>
+      <c r="J238" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="K238" s="38"/>
+    </row>
+    <row r="239" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C239" s="35"/>
+      <c r="D239" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="E239" s="12">
+        <v>14</v>
+      </c>
+      <c r="F239" s="18">
+        <v>37</v>
+      </c>
+      <c r="G239" s="36"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="37"/>
+      <c r="J239" s="37"/>
+      <c r="K239" s="38"/>
+    </row>
+    <row r="240" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C240" s="35"/>
+      <c r="D240" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="E240" s="13">
+        <v>8</v>
+      </c>
+      <c r="F240" s="19">
+        <v>59</v>
+      </c>
+      <c r="G240" s="36"/>
+      <c r="H240" s="36"/>
+      <c r="I240" s="37"/>
+      <c r="J240" s="37"/>
+      <c r="K240" s="38"/>
+    </row>
+    <row r="241" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C241" s="35"/>
+      <c r="D241" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="E241" s="13">
+        <v>10</v>
+      </c>
+      <c r="F241" s="19">
+        <v>42</v>
+      </c>
+      <c r="G241" s="36"/>
+      <c r="H241" s="36"/>
+      <c r="I241" s="37"/>
+      <c r="J241" s="37"/>
+      <c r="K241" s="38"/>
+    </row>
+    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C242" s="35"/>
+      <c r="D242" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="E242" s="13">
+        <v>9</v>
+      </c>
+      <c r="F242" s="19">
+        <v>47</v>
+      </c>
+      <c r="G242" s="36"/>
+      <c r="H242" s="36"/>
+      <c r="I242" s="37"/>
+      <c r="J242" s="37"/>
+      <c r="K242" s="38"/>
+    </row>
+    <row r="243" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C243" s="35"/>
+      <c r="D243" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="E243" s="13">
+        <v>7</v>
+      </c>
+      <c r="F243" s="19">
+        <v>18</v>
+      </c>
+      <c r="G243" s="36"/>
+      <c r="H243" s="36"/>
+      <c r="I243" s="37"/>
+      <c r="J243" s="37"/>
+      <c r="K243" s="38"/>
+    </row>
+    <row r="244" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C244" s="35"/>
+      <c r="D244" s="13" t="s">
+        <v>501</v>
+      </c>
+      <c r="E244" s="13">
+        <v>5</v>
+      </c>
+      <c r="F244" s="19">
+        <v>40</v>
+      </c>
+      <c r="G244" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H244" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J244" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K244" s="38"/>
+    </row>
+    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C245" s="35"/>
+      <c r="D245" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="E245" s="14">
+        <v>8</v>
+      </c>
+      <c r="F245" s="20">
+        <v>26</v>
+      </c>
+      <c r="G245" s="7">
+        <f>SUM(E239:E245)</f>
+        <v>61</v>
+      </c>
+      <c r="H245" s="2">
+        <f>SUM(F239:F245)</f>
+        <v>269</v>
+      </c>
+      <c r="I245" s="6">
+        <f>G245+(H245/60)</f>
+        <v>65.483333333333334</v>
+      </c>
+      <c r="J245" s="5">
+        <v>1</v>
+      </c>
+      <c r="K245" s="38"/>
+    </row>
+    <row r="246" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C246" s="35"/>
+      <c r="D246" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="E246" s="9">
+        <v>7</v>
+      </c>
+      <c r="F246" s="15">
+        <v>30</v>
+      </c>
+      <c r="G246" s="36"/>
+      <c r="H246" s="36"/>
+      <c r="I246" s="37"/>
+      <c r="J246" s="37"/>
+      <c r="K246" s="38"/>
+    </row>
+    <row r="247" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C247" s="35"/>
+      <c r="D247" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E247" s="10">
+        <v>1</v>
+      </c>
+      <c r="F247" s="16">
+        <v>49</v>
+      </c>
+      <c r="G247" s="36"/>
+      <c r="H247" s="36"/>
+      <c r="I247" s="37"/>
+      <c r="J247" s="37"/>
+      <c r="K247" s="38"/>
+    </row>
+    <row r="248" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C248" s="35"/>
+      <c r="D248" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="E248" s="10">
+        <v>5</v>
+      </c>
+      <c r="F248" s="16">
+        <v>58</v>
+      </c>
+      <c r="G248" s="36"/>
+      <c r="H248" s="36"/>
+      <c r="I248" s="37"/>
+      <c r="J248" s="37"/>
+      <c r="K248" s="38"/>
+    </row>
+    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C249" s="35"/>
+      <c r="D249" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="E249" s="10">
+        <v>2</v>
+      </c>
+      <c r="F249" s="16">
+        <v>33</v>
+      </c>
+      <c r="G249" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H249" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="J249" s="29" t="s">
+        <v>295</v>
+      </c>
+      <c r="K249" s="38"/>
+    </row>
+    <row r="250" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C250" s="35"/>
+      <c r="D250" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="E250" s="11">
+        <v>4</v>
+      </c>
+      <c r="F250" s="17">
+        <v>3</v>
+      </c>
+      <c r="G250" s="7">
+        <f>SUM(E246:E250)</f>
+        <v>19</v>
+      </c>
+      <c r="H250" s="2">
+        <f>SUM(F246:F250)</f>
+        <v>173</v>
+      </c>
+      <c r="I250" s="6">
+        <f>G250+(H250/60)</f>
+        <v>21.883333333333333</v>
+      </c>
+      <c r="J250" s="5">
+        <v>1</v>
+      </c>
+      <c r="K250" s="38"/>
+    </row>
+    <row r="251" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C251" s="40"/>
+      <c r="D251" s="41"/>
+      <c r="E251" s="41"/>
+      <c r="F251" s="41"/>
+      <c r="G251" s="41"/>
+      <c r="H251" s="41"/>
+      <c r="I251" s="42"/>
+      <c r="J251" s="42"/>
+      <c r="K251" s="43"/>
+    </row>
+    <row r="288" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I288"/>
+      <c r="J288"/>
+      <c r="K288"/>
+      <c r="N288"/>
+      <c r="O288"/>
+      <c r="P288"/>
+      <c r="Q288"/>
+    </row>
+    <row r="289" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I289"/>
+      <c r="J289"/>
+      <c r="K289"/>
+      <c r="N289"/>
+      <c r="O289"/>
+      <c r="P289"/>
+      <c r="Q289"/>
+    </row>
+    <row r="290" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I290"/>
+      <c r="J290"/>
+      <c r="K290"/>
+      <c r="N290"/>
+      <c r="O290"/>
+      <c r="P290"/>
+      <c r="Q290"/>
+    </row>
+    <row r="291" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I291"/>
+      <c r="J291"/>
+      <c r="K291"/>
+      <c r="N291"/>
+      <c r="O291"/>
+      <c r="P291"/>
+      <c r="Q291"/>
+    </row>
+    <row r="292" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I292"/>
+      <c r="J292"/>
+      <c r="K292"/>
+      <c r="N292"/>
+      <c r="O292"/>
+      <c r="P292"/>
+      <c r="Q292"/>
+    </row>
+    <row r="293" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I293"/>
+      <c r="J293"/>
+      <c r="K293"/>
+      <c r="N293"/>
+      <c r="O293"/>
+      <c r="P293"/>
+      <c r="Q293"/>
+    </row>
+    <row r="294" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I294"/>
+      <c r="J294"/>
+      <c r="K294"/>
+      <c r="N294"/>
+      <c r="O294"/>
+      <c r="P294"/>
+      <c r="Q294"/>
+    </row>
+    <row r="295" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I295"/>
+      <c r="J295"/>
+      <c r="K295"/>
+      <c r="N295"/>
+      <c r="O295"/>
+      <c r="P295"/>
+      <c r="Q295"/>
+    </row>
+    <row r="296" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I296"/>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="N296"/>
+      <c r="O296"/>
+      <c r="P296"/>
+      <c r="Q296"/>
+    </row>
+    <row r="297" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I297"/>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
+    </row>
+    <row r="298" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I298"/>
+      <c r="J298"/>
+      <c r="K298"/>
+      <c r="N298"/>
+      <c r="O298"/>
+      <c r="P298"/>
+      <c r="Q298"/>
+    </row>
+    <row r="299" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I299"/>
+      <c r="J299"/>
+      <c r="K299"/>
+      <c r="N299"/>
+      <c r="O299"/>
+      <c r="P299"/>
+      <c r="Q299"/>
+    </row>
+    <row r="300" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I300"/>
+      <c r="J300"/>
+      <c r="K300"/>
+      <c r="N300"/>
+      <c r="O300"/>
+      <c r="P300"/>
+      <c r="Q300"/>
+    </row>
+    <row r="301" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I301"/>
+      <c r="J301"/>
+      <c r="K301"/>
+      <c r="N301"/>
+      <c r="O301"/>
+      <c r="P301"/>
+      <c r="Q301"/>
+    </row>
+    <row r="302" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I302"/>
+      <c r="J302"/>
+      <c r="K302"/>
+      <c r="N302"/>
+      <c r="O302"/>
+      <c r="P302"/>
+      <c r="Q302"/>
+    </row>
+    <row r="303" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I303"/>
+      <c r="J303"/>
+      <c r="K303"/>
+      <c r="N303"/>
+      <c r="O303"/>
+      <c r="P303"/>
+      <c r="Q303"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P9:Q9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="G44:H44 G66:H66 G78:H78 G92:H92 G108:H108 G134:H134 G141:H141 G171:H171 G203:H203 G212:H212 G223:H223 G238:H238 G245:H245 G250:H250" formulaRange="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/class-control.xlsx
+++ b/class-control.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F174110E-FC36-45C1-AC9B-B5FB8DFE89E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7410" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="old-GoStack" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -1544,7 +1545,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -1579,7 +1580,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1601,6 +1602,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,7 +1882,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1964,9 +1971,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,9 +1992,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2024,6 +2025,21 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2039,6 +2055,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2046,7 +2065,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2084,9 +2103,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2119,9 +2138,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2154,9 +2190,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2329,7 +2382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2350,10 +2403,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="N4" s="30" t="s">
+      <c r="N4" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="30"/>
+      <c r="O4" s="54"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" s="21" t="s">
@@ -6260,14 +6313,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6282,18 +6335,18 @@
   <sheetData>
     <row r="3" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="33"/>
     </row>
     <row r="5" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C5" s="35"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="21" t="s">
         <v>0</v>
       </c>
@@ -6303,219 +6356,219 @@
       <c r="F5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="38"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
     </row>
     <row r="6" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C6" s="35"/>
-      <c r="D6" s="46" t="s">
+      <c r="C6" s="34"/>
+      <c r="D6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="44">
         <v>7</v>
       </c>
-      <c r="F6" s="47">
+      <c r="F6" s="45">
         <v>47</v>
       </c>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
     </row>
     <row r="7" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="35"/>
-      <c r="D7" s="48" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="48">
+      <c r="E7" s="46">
         <v>6</v>
       </c>
-      <c r="F7" s="49">
+      <c r="F7" s="47">
         <v>23</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="38"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
     </row>
     <row r="8" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C8" s="35"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="34"/>
+      <c r="D8" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="46">
         <v>9</v>
       </c>
-      <c r="F8" s="49">
+      <c r="F8" s="47">
         <v>44</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="38"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="33"/>
     </row>
     <row r="9" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C9" s="35"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="34"/>
+      <c r="D9" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="E9" s="48">
+      <c r="E9" s="46">
         <v>4</v>
       </c>
-      <c r="F9" s="49">
+      <c r="F9" s="47">
         <v>15</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="44" t="s">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="38"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="37"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C10" s="35"/>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="34"/>
+      <c r="D10" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="46">
         <v>6</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="47">
         <v>20</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="38"/>
-      <c r="M10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="M10" s="34"/>
       <c r="N10" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="O10" s="37"/>
-      <c r="P10" s="45" t="s">
+      <c r="O10" s="36"/>
+      <c r="P10" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="45" t="s">
+      <c r="Q10" s="43" t="s">
         <v>300</v>
       </c>
-      <c r="R10" s="38"/>
+      <c r="R10" s="37"/>
     </row>
     <row r="11" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C11" s="35"/>
-      <c r="D11" s="48" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="46">
         <v>2</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="47">
         <v>1</v>
       </c>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="38"/>
-      <c r="M11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="M11" s="34"/>
       <c r="N11" s="27">
         <f>SUM(I:I)/60</f>
         <v>27.686388888888889</v>
       </c>
-      <c r="O11" s="37"/>
+      <c r="O11" s="36"/>
       <c r="P11" s="2">
         <v>25</v>
       </c>
       <c r="Q11" s="2">
         <v>35</v>
       </c>
-      <c r="R11" s="38"/>
+      <c r="R11" s="37"/>
     </row>
     <row r="12" spans="3:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="35"/>
-      <c r="D12" s="48" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="46">
         <v>9</v>
       </c>
-      <c r="F12" s="49">
+      <c r="F12" s="47">
         <v>8</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="43"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="42"/>
     </row>
     <row r="13" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C13" s="35"/>
-      <c r="D13" s="48" t="s">
+      <c r="C13" s="34"/>
+      <c r="D13" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="46">
         <v>4</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="47">
         <v>20</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="38"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
     </row>
     <row r="14" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C14" s="35"/>
-      <c r="D14" s="48" t="s">
+      <c r="C14" s="34"/>
+      <c r="D14" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="46">
         <v>5</v>
       </c>
-      <c r="F14" s="49">
+      <c r="F14" s="47">
         <v>28</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="38"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
     </row>
     <row r="15" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C15" s="35"/>
-      <c r="D15" s="48" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="46">
         <v>2</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="47">
         <v>55</v>
       </c>
       <c r="G15" s="24" t="s">
@@ -6530,17 +6583,17 @@
       <c r="J15" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K15" s="38"/>
+      <c r="K15" s="37"/>
     </row>
     <row r="16" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="C16" s="35"/>
-      <c r="D16" s="50" t="s">
+      <c r="C16" s="34"/>
+      <c r="D16" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="E16" s="50">
+      <c r="E16" s="48">
         <v>2</v>
       </c>
-      <c r="F16" s="51">
+      <c r="F16" s="49">
         <v>55</v>
       </c>
       <c r="G16" s="7">
@@ -6555,173 +6608,173 @@
         <f>G16+(H16/60)</f>
         <v>61.266666666666666</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="58">
         <v>1</v>
       </c>
-      <c r="K16" s="38"/>
+      <c r="K16" s="37"/>
     </row>
     <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" s="35"/>
-      <c r="D17" s="52" t="s">
+      <c r="C17" s="34"/>
+      <c r="D17" s="50" t="s">
         <v>309</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="53" t="s">
+      <c r="F17" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="35"/>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="52" t="s">
         <v>310</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="52">
         <v>1</v>
       </c>
-      <c r="F18" s="55">
+      <c r="F18" s="53">
         <v>52</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" s="35"/>
-      <c r="D19" s="54" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="E19" s="54">
+      <c r="E19" s="52">
         <v>12</v>
       </c>
-      <c r="F19" s="55">
+      <c r="F19" s="53">
         <v>24</v>
       </c>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="38"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="52">
         <v>13</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="53">
         <v>20</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="38"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
     </row>
     <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" s="35"/>
-      <c r="D21" s="13" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="52">
         <v>9</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="53">
         <v>25</v>
       </c>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" s="35"/>
-      <c r="D22" s="13" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="52" t="s">
         <v>314</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="52">
         <v>4</v>
       </c>
-      <c r="F22" s="19">
+      <c r="F22" s="53">
         <v>1</v>
       </c>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="38"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" s="35"/>
-      <c r="D23" s="13" t="s">
+      <c r="C23" s="34"/>
+      <c r="D23" s="52" t="s">
         <v>315</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="52">
         <v>3</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="53">
         <v>52</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="35"/>
-      <c r="D24" s="13" t="s">
+      <c r="C24" s="34"/>
+      <c r="D24" s="52" t="s">
         <v>316</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="52">
         <v>1</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="53">
         <v>54</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="38"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="35"/>
-      <c r="D25" s="13" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="52" t="s">
         <v>317</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="52">
         <v>8</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="53">
         <v>0</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="38"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="35"/>
-      <c r="D26" s="13" t="s">
+      <c r="C26" s="34"/>
+      <c r="D26" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="52">
         <v>12</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="53">
         <v>19</v>
       </c>
       <c r="G26" s="24" t="s">
@@ -6736,17 +6789,17 @@
       <c r="J26" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K26" s="38"/>
+      <c r="K26" s="37"/>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="35"/>
-      <c r="D27" s="14" t="s">
+      <c r="C27" s="34"/>
+      <c r="D27" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="56">
         <v>4</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="57">
         <v>43</v>
       </c>
       <c r="G27" s="7">
@@ -6761,13 +6814,13 @@
         <f>G27+(H27/60)</f>
         <v>71.833333333333329</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="58">
         <v>1</v>
       </c>
-      <c r="K27" s="38"/>
+      <c r="K27" s="37"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" s="35"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="10" t="s">
         <v>54</v>
       </c>
@@ -6777,14 +6830,14 @@
       <c r="F28" s="16">
         <v>49</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="38"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="37"/>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="35"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="10" t="s">
         <v>319</v>
       </c>
@@ -6794,14 +6847,14 @@
       <c r="F29" s="16">
         <v>31</v>
       </c>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="38"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="37"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" s="35"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="10" t="s">
         <v>320</v>
       </c>
@@ -6811,14 +6864,14 @@
       <c r="F30" s="16">
         <v>6</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="38"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="37"/>
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="35"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="10" t="s">
         <v>321</v>
       </c>
@@ -6828,14 +6881,14 @@
       <c r="F31" s="16">
         <v>17</v>
       </c>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="37"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="35"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="10" t="s">
         <v>322</v>
       </c>
@@ -6845,14 +6898,14 @@
       <c r="F32" s="16">
         <v>15</v>
       </c>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="38"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="37"/>
     </row>
     <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" s="35"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="10" t="s">
         <v>323</v>
       </c>
@@ -6862,14 +6915,14 @@
       <c r="F33" s="16">
         <v>27</v>
       </c>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="38"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="37"/>
     </row>
     <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="35"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="10" t="s">
         <v>324</v>
       </c>
@@ -6879,14 +6932,14 @@
       <c r="F34" s="16">
         <v>27</v>
       </c>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="38"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="35"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="10" t="s">
         <v>325</v>
       </c>
@@ -6896,14 +6949,14 @@
       <c r="F35" s="16">
         <v>29</v>
       </c>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="38"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="37"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="35"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="10" t="s">
         <v>326</v>
       </c>
@@ -6913,14 +6966,14 @@
       <c r="F36" s="16">
         <v>47</v>
       </c>
-      <c r="G36" s="36"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="38"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="37"/>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" s="35"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="10" t="s">
         <v>327</v>
       </c>
@@ -6930,14 +6983,14 @@
       <c r="F37" s="16">
         <v>22</v>
       </c>
-      <c r="G37" s="36"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
-      <c r="K37" s="38"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="37"/>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="35"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="10" t="s">
         <v>328</v>
       </c>
@@ -6947,14 +7000,14 @@
       <c r="F38" s="16">
         <v>15</v>
       </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="38"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="37"/>
     </row>
     <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="35"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="10" t="s">
         <v>329</v>
       </c>
@@ -6964,14 +7017,14 @@
       <c r="F39" s="16">
         <v>22</v>
       </c>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="38"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="37"/>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="35"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="10" t="s">
         <v>79</v>
       </c>
@@ -6981,14 +7034,14 @@
       <c r="F40" s="16">
         <v>4</v>
       </c>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="38"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="37"/>
     </row>
     <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="35"/>
+      <c r="C41" s="34"/>
       <c r="D41" s="10" t="s">
         <v>330</v>
       </c>
@@ -6998,14 +7051,14 @@
       <c r="F41" s="16">
         <v>16</v>
       </c>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="38"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="37"/>
     </row>
     <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" s="35"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="10" t="s">
         <v>331</v>
       </c>
@@ -7015,14 +7068,14 @@
       <c r="F42" s="16">
         <v>4</v>
       </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="38"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="37"/>
     </row>
     <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" s="35"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="10" t="s">
         <v>332</v>
       </c>
@@ -7044,10 +7097,10 @@
       <c r="J43" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K43" s="38"/>
+      <c r="K43" s="37"/>
     </row>
     <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="35"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="11" t="s">
         <v>333</v>
       </c>
@@ -7072,10 +7125,10 @@
       <c r="J44" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K44" s="38"/>
+      <c r="K44" s="37"/>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="35"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="12" t="s">
         <v>334</v>
       </c>
@@ -7085,14 +7138,14 @@
       <c r="F45" s="18">
         <v>58</v>
       </c>
-      <c r="G45" s="36"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="38"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="37"/>
     </row>
     <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="35"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="13" t="s">
         <v>335</v>
       </c>
@@ -7102,14 +7155,14 @@
       <c r="F46" s="19">
         <v>52</v>
       </c>
-      <c r="G46" s="36"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="38"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="37"/>
     </row>
     <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" s="35"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="13" t="s">
         <v>336</v>
       </c>
@@ -7119,14 +7172,14 @@
       <c r="F47" s="19">
         <v>58</v>
       </c>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="38"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="37"/>
     </row>
     <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" s="35"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="13" t="s">
         <v>337</v>
       </c>
@@ -7136,14 +7189,14 @@
       <c r="F48" s="19">
         <v>20</v>
       </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="38"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="36"/>
+      <c r="J48" s="36"/>
+      <c r="K48" s="37"/>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" s="35"/>
+      <c r="C49" s="34"/>
       <c r="D49" s="13" t="s">
         <v>338</v>
       </c>
@@ -7153,14 +7206,14 @@
       <c r="F49" s="19">
         <v>44</v>
       </c>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="38"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="37"/>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="13" t="s">
         <v>339</v>
       </c>
@@ -7170,14 +7223,14 @@
       <c r="F50" s="19">
         <v>22</v>
       </c>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="38"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="37"/>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" s="35"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="13" t="s">
         <v>340</v>
       </c>
@@ -7187,14 +7240,14 @@
       <c r="F51" s="19">
         <v>27</v>
       </c>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="37"/>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" s="35"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="13" t="s">
         <v>341</v>
       </c>
@@ -7204,14 +7257,14 @@
       <c r="F52" s="19">
         <v>55</v>
       </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="38"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="37"/>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" s="35"/>
+      <c r="C53" s="34"/>
       <c r="D53" s="13" t="s">
         <v>342</v>
       </c>
@@ -7221,14 +7274,14 @@
       <c r="F53" s="19">
         <v>35</v>
       </c>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
-      <c r="K53" s="38"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="37"/>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" s="35"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="13" t="s">
         <v>181</v>
       </c>
@@ -7238,14 +7291,14 @@
       <c r="F54" s="19">
         <v>37</v>
       </c>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
-      <c r="K54" s="38"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="37"/>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" s="35"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="13" t="s">
         <v>343</v>
       </c>
@@ -7255,14 +7308,14 @@
       <c r="F55" s="19">
         <v>20</v>
       </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="36"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="38"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="36"/>
+      <c r="J55" s="36"/>
+      <c r="K55" s="37"/>
     </row>
     <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" s="35"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="13" t="s">
         <v>344</v>
       </c>
@@ -7272,14 +7325,14 @@
       <c r="F56" s="19">
         <v>56</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
-      <c r="K56" s="38"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="36"/>
+      <c r="K56" s="37"/>
     </row>
     <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" s="35"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13" t="s">
         <v>345</v>
       </c>
@@ -7289,14 +7342,14 @@
       <c r="F57" s="19">
         <v>34</v>
       </c>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
-      <c r="K57" s="38"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="37"/>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" s="35"/>
+      <c r="C58" s="34"/>
       <c r="D58" s="13" t="s">
         <v>346</v>
       </c>
@@ -7306,14 +7359,14 @@
       <c r="F58" s="19">
         <v>26</v>
       </c>
-      <c r="G58" s="36"/>
-      <c r="H58" s="36"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="38"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="36"/>
+      <c r="J58" s="36"/>
+      <c r="K58" s="37"/>
     </row>
     <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" s="35"/>
+      <c r="C59" s="34"/>
       <c r="D59" s="13" t="s">
         <v>347</v>
       </c>
@@ -7323,14 +7376,14 @@
       <c r="F59" s="19">
         <v>13</v>
       </c>
-      <c r="G59" s="36"/>
-      <c r="H59" s="36"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
-      <c r="K59" s="38"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="37"/>
     </row>
     <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" s="35"/>
+      <c r="C60" s="34"/>
       <c r="D60" s="13" t="s">
         <v>348</v>
       </c>
@@ -7340,14 +7393,14 @@
       <c r="F60" s="19">
         <v>35</v>
       </c>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="38"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="36"/>
+      <c r="K60" s="37"/>
     </row>
     <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" s="35"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="13" t="s">
         <v>349</v>
       </c>
@@ -7357,14 +7410,14 @@
       <c r="F61" s="19">
         <v>36</v>
       </c>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
-      <c r="K61" s="38"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="37"/>
     </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" s="35"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="13" t="s">
         <v>350</v>
       </c>
@@ -7374,14 +7427,14 @@
       <c r="F62" s="19">
         <v>53</v>
       </c>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
-      <c r="K62" s="38"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="37"/>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" s="35"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="13" t="s">
         <v>175</v>
       </c>
@@ -7391,14 +7444,14 @@
       <c r="F63" s="19">
         <v>39</v>
       </c>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
-      <c r="K63" s="38"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="36"/>
+      <c r="J63" s="36"/>
+      <c r="K63" s="37"/>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" s="35"/>
+      <c r="C64" s="34"/>
       <c r="D64" s="13" t="s">
         <v>351</v>
       </c>
@@ -7408,14 +7461,14 @@
       <c r="F64" s="19">
         <v>38</v>
       </c>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="38"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="37"/>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="35"/>
+      <c r="C65" s="34"/>
       <c r="D65" s="13" t="s">
         <v>352</v>
       </c>
@@ -7437,10 +7490,10 @@
       <c r="J65" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K65" s="38"/>
+      <c r="K65" s="37"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" s="35"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="14" t="s">
         <v>186</v>
       </c>
@@ -7465,10 +7518,10 @@
       <c r="J66" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K66" s="38"/>
+      <c r="K66" s="37"/>
     </row>
     <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" s="35"/>
+      <c r="C67" s="34"/>
       <c r="D67" s="9" t="s">
         <v>353</v>
       </c>
@@ -7478,14 +7531,14 @@
       <c r="F67" s="15">
         <v>47</v>
       </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="38"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="37"/>
     </row>
     <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" s="35"/>
+      <c r="C68" s="34"/>
       <c r="D68" s="10" t="s">
         <v>54</v>
       </c>
@@ -7495,14 +7548,14 @@
       <c r="F68" s="16">
         <v>2</v>
       </c>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="38"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="37"/>
     </row>
     <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" s="35"/>
+      <c r="C69" s="34"/>
       <c r="D69" s="10" t="s">
         <v>354</v>
       </c>
@@ -7512,14 +7565,14 @@
       <c r="F69" s="16">
         <v>47</v>
       </c>
-      <c r="G69" s="36"/>
-      <c r="H69" s="36"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="38"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="37"/>
     </row>
     <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" s="35"/>
+      <c r="C70" s="34"/>
       <c r="D70" s="10" t="s">
         <v>355</v>
       </c>
@@ -7529,14 +7582,14 @@
       <c r="F70" s="16">
         <v>43</v>
       </c>
-      <c r="G70" s="36"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="38"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="37"/>
     </row>
     <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" s="35"/>
+      <c r="C71" s="34"/>
       <c r="D71" s="10" t="s">
         <v>356</v>
       </c>
@@ -7546,14 +7599,14 @@
       <c r="F71" s="16">
         <v>28</v>
       </c>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="38"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="37"/>
     </row>
     <row r="72" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C72" s="35"/>
+      <c r="C72" s="34"/>
       <c r="D72" s="10" t="s">
         <v>357</v>
       </c>
@@ -7563,14 +7616,14 @@
       <c r="F72" s="16">
         <v>17</v>
       </c>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="38"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="37"/>
     </row>
     <row r="73" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C73" s="35"/>
+      <c r="C73" s="34"/>
       <c r="D73" s="10" t="s">
         <v>358</v>
       </c>
@@ -7580,14 +7633,14 @@
       <c r="F73" s="16">
         <v>50</v>
       </c>
-      <c r="G73" s="36"/>
-      <c r="H73" s="36"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="38"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="37"/>
     </row>
     <row r="74" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C74" s="35"/>
+      <c r="C74" s="34"/>
       <c r="D74" s="10" t="s">
         <v>359</v>
       </c>
@@ -7597,14 +7650,14 @@
       <c r="F74" s="16">
         <v>20</v>
       </c>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="38"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="37"/>
     </row>
     <row r="75" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C75" s="35"/>
+      <c r="C75" s="34"/>
       <c r="D75" s="10" t="s">
         <v>360</v>
       </c>
@@ -7614,14 +7667,14 @@
       <c r="F75" s="16">
         <v>42</v>
       </c>
-      <c r="G75" s="36"/>
-      <c r="H75" s="36"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
-      <c r="K75" s="38"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="36"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="37"/>
     </row>
     <row r="76" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C76" s="35"/>
+      <c r="C76" s="34"/>
       <c r="D76" s="10" t="s">
         <v>361</v>
       </c>
@@ -7631,14 +7684,14 @@
       <c r="F76" s="16">
         <v>44</v>
       </c>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="38"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="37"/>
     </row>
     <row r="77" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C77" s="35"/>
+      <c r="C77" s="34"/>
       <c r="D77" s="10" t="s">
         <v>362</v>
       </c>
@@ -7660,10 +7713,10 @@
       <c r="J77" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K77" s="38"/>
+      <c r="K77" s="37"/>
     </row>
     <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" s="35"/>
+      <c r="C78" s="34"/>
       <c r="D78" s="11" t="s">
         <v>363</v>
       </c>
@@ -7688,10 +7741,10 @@
       <c r="J78" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K78" s="38"/>
+      <c r="K78" s="37"/>
     </row>
     <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" s="35"/>
+      <c r="C79" s="34"/>
       <c r="D79" s="12" t="s">
         <v>364</v>
       </c>
@@ -7701,14 +7754,14 @@
       <c r="F79" s="18">
         <v>16</v>
       </c>
-      <c r="G79" s="36"/>
-      <c r="H79" s="36"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
-      <c r="K79" s="38"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="37"/>
     </row>
     <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" s="35"/>
+      <c r="C80" s="34"/>
       <c r="D80" s="13" t="s">
         <v>323</v>
       </c>
@@ -7718,14 +7771,14 @@
       <c r="F80" s="19">
         <v>47</v>
       </c>
-      <c r="G80" s="36"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
-      <c r="K80" s="38"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="36"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="37"/>
     </row>
     <row r="81" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C81" s="35"/>
+      <c r="C81" s="34"/>
       <c r="D81" s="13" t="s">
         <v>365</v>
       </c>
@@ -7735,14 +7788,14 @@
       <c r="F81" s="19">
         <v>21</v>
       </c>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="38"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="37"/>
     </row>
     <row r="82" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C82" s="35"/>
+      <c r="C82" s="34"/>
       <c r="D82" s="13" t="s">
         <v>366</v>
       </c>
@@ -7752,14 +7805,14 @@
       <c r="F82" s="19">
         <v>50</v>
       </c>
-      <c r="G82" s="36"/>
-      <c r="H82" s="36"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="38"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="36"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="37"/>
     </row>
     <row r="83" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C83" s="35"/>
+      <c r="C83" s="34"/>
       <c r="D83" s="13" t="s">
         <v>100</v>
       </c>
@@ -7769,14 +7822,14 @@
       <c r="F83" s="19">
         <v>7</v>
       </c>
-      <c r="G83" s="36"/>
-      <c r="H83" s="36"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
-      <c r="K83" s="38"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="36"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="37"/>
     </row>
     <row r="84" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C84" s="35"/>
+      <c r="C84" s="34"/>
       <c r="D84" s="13" t="s">
         <v>367</v>
       </c>
@@ -7786,14 +7839,14 @@
       <c r="F84" s="19">
         <v>7</v>
       </c>
-      <c r="G84" s="36"/>
-      <c r="H84" s="36"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="38"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="37"/>
     </row>
     <row r="85" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C85" s="35"/>
+      <c r="C85" s="34"/>
       <c r="D85" s="13" t="s">
         <v>368</v>
       </c>
@@ -7803,14 +7856,14 @@
       <c r="F85" s="19">
         <v>7</v>
       </c>
-      <c r="G85" s="36"/>
-      <c r="H85" s="36"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="38"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="36"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="37"/>
     </row>
     <row r="86" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C86" s="35"/>
+      <c r="C86" s="34"/>
       <c r="D86" s="13" t="s">
         <v>369</v>
       </c>
@@ -7820,14 +7873,14 @@
       <c r="F86" s="19">
         <v>9</v>
       </c>
-      <c r="G86" s="36"/>
-      <c r="H86" s="36"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="38"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="36"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="37"/>
     </row>
     <row r="87" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C87" s="35"/>
+      <c r="C87" s="34"/>
       <c r="D87" s="13" t="s">
         <v>370</v>
       </c>
@@ -7837,14 +7890,14 @@
       <c r="F87" s="19">
         <v>59</v>
       </c>
-      <c r="G87" s="36"/>
-      <c r="H87" s="36"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="38"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="37"/>
     </row>
     <row r="88" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C88" s="35"/>
+      <c r="C88" s="34"/>
       <c r="D88" s="13" t="s">
         <v>371</v>
       </c>
@@ -7854,14 +7907,14 @@
       <c r="F88" s="19">
         <v>42</v>
       </c>
-      <c r="G88" s="36"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="38"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="37"/>
     </row>
     <row r="89" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C89" s="35"/>
+      <c r="C89" s="34"/>
       <c r="D89" s="13" t="s">
         <v>372</v>
       </c>
@@ -7871,14 +7924,14 @@
       <c r="F89" s="19">
         <v>8</v>
       </c>
-      <c r="G89" s="36"/>
-      <c r="H89" s="36"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="38"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="36"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="37"/>
     </row>
     <row r="90" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C90" s="35"/>
+      <c r="C90" s="34"/>
       <c r="D90" s="13" t="s">
         <v>373</v>
       </c>
@@ -7888,14 +7941,14 @@
       <c r="F90" s="19">
         <v>28</v>
       </c>
-      <c r="G90" s="36"/>
-      <c r="H90" s="36"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="38"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="36"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="37"/>
     </row>
     <row r="91" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C91" s="35"/>
+      <c r="C91" s="34"/>
       <c r="D91" s="13" t="s">
         <v>374</v>
       </c>
@@ -7917,10 +7970,10 @@
       <c r="J91" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K91" s="38"/>
+      <c r="K91" s="37"/>
     </row>
     <row r="92" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C92" s="35"/>
+      <c r="C92" s="34"/>
       <c r="D92" s="14" t="s">
         <v>375</v>
       </c>
@@ -7945,10 +7998,10 @@
       <c r="J92" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K92" s="38"/>
+      <c r="K92" s="37"/>
     </row>
     <row r="93" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C93" s="35"/>
+      <c r="C93" s="34"/>
       <c r="D93" s="9" t="s">
         <v>376</v>
       </c>
@@ -7958,14 +8011,14 @@
       <c r="F93" s="15">
         <v>37</v>
       </c>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
-      <c r="K93" s="38"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="37"/>
     </row>
     <row r="94" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C94" s="35"/>
+      <c r="C94" s="34"/>
       <c r="D94" s="10" t="s">
         <v>377</v>
       </c>
@@ -7975,14 +8028,14 @@
       <c r="F94" s="16">
         <v>2</v>
       </c>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
-      <c r="K94" s="38"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="37"/>
     </row>
     <row r="95" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C95" s="35"/>
+      <c r="C95" s="34"/>
       <c r="D95" s="10" t="s">
         <v>88</v>
       </c>
@@ -7992,14 +8045,14 @@
       <c r="F95" s="16">
         <v>20</v>
       </c>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
-      <c r="K95" s="38"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="37"/>
     </row>
     <row r="96" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C96" s="35"/>
+      <c r="C96" s="34"/>
       <c r="D96" s="10" t="s">
         <v>323</v>
       </c>
@@ -8009,14 +8062,14 @@
       <c r="F96" s="16">
         <v>12</v>
       </c>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
-      <c r="K96" s="38"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="37"/>
     </row>
     <row r="97" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C97" s="35"/>
+      <c r="C97" s="34"/>
       <c r="D97" s="10" t="s">
         <v>378</v>
       </c>
@@ -8026,14 +8079,14 @@
       <c r="F97" s="16">
         <v>30</v>
       </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
-      <c r="K97" s="38"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="37"/>
     </row>
     <row r="98" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C98" s="35"/>
+      <c r="C98" s="34"/>
       <c r="D98" s="10" t="s">
         <v>379</v>
       </c>
@@ -8043,14 +8096,14 @@
       <c r="F98" s="16">
         <v>57</v>
       </c>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
-      <c r="K98" s="38"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="37"/>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C99" s="35"/>
+      <c r="C99" s="34"/>
       <c r="D99" s="10" t="s">
         <v>124</v>
       </c>
@@ -8060,14 +8113,14 @@
       <c r="F99" s="16">
         <v>24</v>
       </c>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="38"/>
+      <c r="G99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="36"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="37"/>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C100" s="35"/>
+      <c r="C100" s="34"/>
       <c r="D100" s="10" t="s">
         <v>366</v>
       </c>
@@ -8077,14 +8130,14 @@
       <c r="F100" s="16">
         <v>37</v>
       </c>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="38"/>
+      <c r="G100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="37"/>
     </row>
     <row r="101" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C101" s="35"/>
+      <c r="C101" s="34"/>
       <c r="D101" s="10" t="s">
         <v>380</v>
       </c>
@@ -8094,14 +8147,14 @@
       <c r="F101" s="16">
         <v>50</v>
       </c>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="38"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="37"/>
     </row>
     <row r="102" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C102" s="35"/>
+      <c r="C102" s="34"/>
       <c r="D102" s="10" t="s">
         <v>381</v>
       </c>
@@ -8111,14 +8164,14 @@
       <c r="F102" s="16">
         <v>34</v>
       </c>
-      <c r="G102" s="36"/>
-      <c r="H102" s="36"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
-      <c r="K102" s="38"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="36"/>
+      <c r="J102" s="36"/>
+      <c r="K102" s="37"/>
     </row>
     <row r="103" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C103" s="35"/>
+      <c r="C103" s="34"/>
       <c r="D103" s="10" t="s">
         <v>382</v>
       </c>
@@ -8128,14 +8181,14 @@
       <c r="F103" s="16">
         <v>29</v>
       </c>
-      <c r="G103" s="36"/>
-      <c r="H103" s="36"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
-      <c r="K103" s="38"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="37"/>
     </row>
     <row r="104" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C104" s="35"/>
+      <c r="C104" s="34"/>
       <c r="D104" s="10" t="s">
         <v>383</v>
       </c>
@@ -8145,14 +8198,14 @@
       <c r="F104" s="16">
         <v>52</v>
       </c>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
-      <c r="K104" s="38"/>
+      <c r="G104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="37"/>
     </row>
     <row r="105" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C105" s="35"/>
+      <c r="C105" s="34"/>
       <c r="D105" s="10" t="s">
         <v>384</v>
       </c>
@@ -8162,14 +8215,14 @@
       <c r="F105" s="16">
         <v>43</v>
       </c>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
-      <c r="K105" s="38"/>
+      <c r="G105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="36"/>
+      <c r="J105" s="36"/>
+      <c r="K105" s="37"/>
     </row>
     <row r="106" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C106" s="35"/>
+      <c r="C106" s="34"/>
       <c r="D106" s="10" t="s">
         <v>385</v>
       </c>
@@ -8179,14 +8232,14 @@
       <c r="F106" s="16">
         <v>40</v>
       </c>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
-      <c r="K106" s="38"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="37"/>
     </row>
     <row r="107" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C107" s="35"/>
+      <c r="C107" s="34"/>
       <c r="D107" s="10" t="s">
         <v>386</v>
       </c>
@@ -8208,10 +8261,10 @@
       <c r="J107" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K107" s="38"/>
+      <c r="K107" s="37"/>
     </row>
     <row r="108" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C108" s="35"/>
+      <c r="C108" s="34"/>
       <c r="D108" s="11" t="s">
         <v>387</v>
       </c>
@@ -8236,10 +8289,10 @@
       <c r="J108" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K108" s="38"/>
+      <c r="K108" s="37"/>
     </row>
     <row r="109" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C109" s="35"/>
+      <c r="C109" s="34"/>
       <c r="D109" s="12" t="s">
         <v>388</v>
       </c>
@@ -8249,14 +8302,14 @@
       <c r="F109" s="18">
         <v>27</v>
       </c>
-      <c r="G109" s="36"/>
-      <c r="H109" s="36"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
-      <c r="K109" s="38"/>
+      <c r="G109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="37"/>
     </row>
     <row r="110" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C110" s="35"/>
+      <c r="C110" s="34"/>
       <c r="D110" s="13" t="s">
         <v>389</v>
       </c>
@@ -8266,14 +8319,14 @@
       <c r="F110" s="19">
         <v>14</v>
       </c>
-      <c r="G110" s="36"/>
-      <c r="H110" s="36"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
-      <c r="K110" s="38"/>
+      <c r="G110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="36"/>
+      <c r="J110" s="36"/>
+      <c r="K110" s="37"/>
     </row>
     <row r="111" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C111" s="35"/>
+      <c r="C111" s="34"/>
       <c r="D111" s="13" t="s">
         <v>390</v>
       </c>
@@ -8283,14 +8336,14 @@
       <c r="F111" s="19">
         <v>56</v>
       </c>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
-      <c r="K111" s="38"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="37"/>
     </row>
     <row r="112" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C112" s="35"/>
+      <c r="C112" s="34"/>
       <c r="D112" s="13" t="s">
         <v>100</v>
       </c>
@@ -8300,14 +8353,14 @@
       <c r="F112" s="19">
         <v>23</v>
       </c>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="38"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="37"/>
     </row>
     <row r="113" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C113" s="35"/>
+      <c r="C113" s="34"/>
       <c r="D113" s="13" t="s">
         <v>206</v>
       </c>
@@ -8317,14 +8370,14 @@
       <c r="F113" s="19">
         <v>31</v>
       </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="38"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36"/>
+      <c r="K113" s="37"/>
     </row>
     <row r="114" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C114" s="35"/>
+      <c r="C114" s="34"/>
       <c r="D114" s="13" t="s">
         <v>391</v>
       </c>
@@ -8334,14 +8387,14 @@
       <c r="F114" s="19">
         <v>31</v>
       </c>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="38"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="37"/>
     </row>
     <row r="115" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C115" s="35"/>
+      <c r="C115" s="34"/>
       <c r="D115" s="13" t="s">
         <v>392</v>
       </c>
@@ -8351,14 +8404,14 @@
       <c r="F115" s="19">
         <v>47</v>
       </c>
-      <c r="G115" s="36"/>
-      <c r="H115" s="36"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
-      <c r="K115" s="38"/>
+      <c r="G115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="37"/>
     </row>
     <row r="116" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C116" s="35"/>
+      <c r="C116" s="34"/>
       <c r="D116" s="13" t="s">
         <v>393</v>
       </c>
@@ -8368,14 +8421,14 @@
       <c r="F116" s="19">
         <v>36</v>
       </c>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
-      <c r="K116" s="38"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="37"/>
     </row>
     <row r="117" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C117" s="35"/>
+      <c r="C117" s="34"/>
       <c r="D117" s="13" t="s">
         <v>394</v>
       </c>
@@ -8385,14 +8438,14 @@
       <c r="F117" s="19">
         <v>57</v>
       </c>
-      <c r="G117" s="36"/>
-      <c r="H117" s="36"/>
-      <c r="I117" s="37"/>
-      <c r="J117" s="37"/>
-      <c r="K117" s="38"/>
+      <c r="G117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="37"/>
     </row>
     <row r="118" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C118" s="35"/>
+      <c r="C118" s="34"/>
       <c r="D118" s="13" t="s">
         <v>395</v>
       </c>
@@ -8402,14 +8455,14 @@
       <c r="F118" s="19">
         <v>38</v>
       </c>
-      <c r="G118" s="36"/>
-      <c r="H118" s="36"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="38"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="37"/>
     </row>
     <row r="119" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C119" s="35"/>
+      <c r="C119" s="34"/>
       <c r="D119" s="13" t="s">
         <v>396</v>
       </c>
@@ -8419,14 +8472,14 @@
       <c r="F119" s="19">
         <v>14</v>
       </c>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
-      <c r="K119" s="38"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="37"/>
     </row>
     <row r="120" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C120" s="35"/>
+      <c r="C120" s="34"/>
       <c r="D120" s="13" t="s">
         <v>397</v>
       </c>
@@ -8436,14 +8489,14 @@
       <c r="F120" s="19">
         <v>16</v>
       </c>
-      <c r="G120" s="36"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
-      <c r="K120" s="38"/>
+      <c r="G120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36"/>
+      <c r="K120" s="37"/>
     </row>
     <row r="121" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C121" s="35"/>
+      <c r="C121" s="34"/>
       <c r="D121" s="13" t="s">
         <v>398</v>
       </c>
@@ -8453,14 +8506,14 @@
       <c r="F121" s="19">
         <v>35</v>
       </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="36"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
-      <c r="K121" s="38"/>
+      <c r="G121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="36"/>
+      <c r="J121" s="36"/>
+      <c r="K121" s="37"/>
     </row>
     <row r="122" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C122" s="35"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="13" t="s">
         <v>399</v>
       </c>
@@ -8470,14 +8523,14 @@
       <c r="F122" s="19">
         <v>14</v>
       </c>
-      <c r="G122" s="36"/>
-      <c r="H122" s="36"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
-      <c r="K122" s="38"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="37"/>
     </row>
     <row r="123" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C123" s="35"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="13" t="s">
         <v>400</v>
       </c>
@@ -8487,14 +8540,14 @@
       <c r="F123" s="19">
         <v>29</v>
       </c>
-      <c r="G123" s="36"/>
-      <c r="H123" s="36"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
-      <c r="K123" s="38"/>
+      <c r="G123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="36"/>
+      <c r="J123" s="36"/>
+      <c r="K123" s="37"/>
     </row>
     <row r="124" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C124" s="35"/>
+      <c r="C124" s="34"/>
       <c r="D124" s="13" t="s">
         <v>401</v>
       </c>
@@ -8504,14 +8557,14 @@
       <c r="F124" s="19">
         <v>32</v>
       </c>
-      <c r="G124" s="36"/>
-      <c r="H124" s="36"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
-      <c r="K124" s="38"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="37"/>
     </row>
     <row r="125" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C125" s="35"/>
+      <c r="C125" s="34"/>
       <c r="D125" s="13" t="s">
         <v>402</v>
       </c>
@@ -8521,14 +8574,14 @@
       <c r="F125" s="19">
         <v>14</v>
       </c>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
-      <c r="K125" s="38"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="36"/>
+      <c r="J125" s="36"/>
+      <c r="K125" s="37"/>
     </row>
     <row r="126" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C126" s="35"/>
+      <c r="C126" s="34"/>
       <c r="D126" s="13" t="s">
         <v>403</v>
       </c>
@@ -8538,14 +8591,14 @@
       <c r="F126" s="19">
         <v>32</v>
       </c>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
-      <c r="K126" s="38"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="37"/>
     </row>
     <row r="127" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C127" s="35"/>
+      <c r="C127" s="34"/>
       <c r="D127" s="13" t="s">
         <v>404</v>
       </c>
@@ -8555,14 +8608,14 @@
       <c r="F127" s="19">
         <v>1</v>
       </c>
-      <c r="G127" s="36"/>
-      <c r="H127" s="36"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
-      <c r="K127" s="38"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="36"/>
+      <c r="K127" s="37"/>
     </row>
     <row r="128" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C128" s="35"/>
+      <c r="C128" s="34"/>
       <c r="D128" s="13" t="s">
         <v>405</v>
       </c>
@@ -8572,14 +8625,14 @@
       <c r="F128" s="19">
         <v>13</v>
       </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
-      <c r="K128" s="38"/>
+      <c r="G128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="36"/>
+      <c r="J128" s="36"/>
+      <c r="K128" s="37"/>
     </row>
     <row r="129" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C129" s="35"/>
+      <c r="C129" s="34"/>
       <c r="D129" s="13" t="s">
         <v>406</v>
       </c>
@@ -8589,14 +8642,14 @@
       <c r="F129" s="19">
         <v>36</v>
       </c>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
-      <c r="K129" s="38"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="36"/>
+      <c r="J129" s="36"/>
+      <c r="K129" s="37"/>
     </row>
     <row r="130" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C130" s="35"/>
+      <c r="C130" s="34"/>
       <c r="D130" s="13" t="s">
         <v>407</v>
       </c>
@@ -8606,14 +8659,14 @@
       <c r="F130" s="19">
         <v>6</v>
       </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
-      <c r="K130" s="38"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="36"/>
+      <c r="J130" s="36"/>
+      <c r="K130" s="37"/>
     </row>
     <row r="131" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C131" s="35"/>
+      <c r="C131" s="34"/>
       <c r="D131" s="13" t="s">
         <v>408</v>
       </c>
@@ -8623,14 +8676,14 @@
       <c r="F131" s="19">
         <v>52</v>
       </c>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
-      <c r="K131" s="38"/>
+      <c r="G131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="37"/>
     </row>
     <row r="132" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C132" s="35"/>
+      <c r="C132" s="34"/>
       <c r="D132" s="13" t="s">
         <v>409</v>
       </c>
@@ -8640,14 +8693,14 @@
       <c r="F132" s="19">
         <v>52</v>
       </c>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
-      <c r="I132" s="37"/>
-      <c r="J132" s="37"/>
-      <c r="K132" s="38"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="37"/>
     </row>
     <row r="133" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C133" s="35"/>
+      <c r="C133" s="34"/>
       <c r="D133" s="13" t="s">
         <v>410</v>
       </c>
@@ -8669,10 +8722,10 @@
       <c r="J133" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K133" s="38"/>
+      <c r="K133" s="37"/>
     </row>
     <row r="134" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C134" s="35"/>
+      <c r="C134" s="34"/>
       <c r="D134" s="14" t="s">
         <v>411</v>
       </c>
@@ -8697,10 +8750,10 @@
       <c r="J134" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K134" s="38"/>
+      <c r="K134" s="37"/>
     </row>
     <row r="135" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C135" s="35"/>
+      <c r="C135" s="34"/>
       <c r="D135" s="9" t="s">
         <v>54</v>
       </c>
@@ -8710,14 +8763,14 @@
       <c r="F135" s="15">
         <v>49</v>
       </c>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
-      <c r="K135" s="38"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="36"/>
+      <c r="J135" s="36"/>
+      <c r="K135" s="37"/>
     </row>
     <row r="136" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C136" s="35"/>
+      <c r="C136" s="34"/>
       <c r="D136" s="10" t="s">
         <v>412</v>
       </c>
@@ -8727,14 +8780,14 @@
       <c r="F136" s="16">
         <v>23</v>
       </c>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
-      <c r="K136" s="38"/>
+      <c r="G136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="36"/>
+      <c r="K136" s="37"/>
     </row>
     <row r="137" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C137" s="35"/>
+      <c r="C137" s="34"/>
       <c r="D137" s="10" t="s">
         <v>413</v>
       </c>
@@ -8744,14 +8797,14 @@
       <c r="F137" s="16">
         <v>8</v>
       </c>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
-      <c r="K137" s="38"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="37"/>
     </row>
     <row r="138" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C138" s="35"/>
+      <c r="C138" s="34"/>
       <c r="D138" s="10" t="s">
         <v>414</v>
       </c>
@@ -8761,14 +8814,14 @@
       <c r="F138" s="16">
         <v>49</v>
       </c>
-      <c r="G138" s="36"/>
-      <c r="H138" s="36"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
-      <c r="K138" s="38"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="37"/>
     </row>
     <row r="139" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C139" s="35"/>
+      <c r="C139" s="34"/>
       <c r="D139" s="10" t="s">
         <v>415</v>
       </c>
@@ -8778,14 +8831,14 @@
       <c r="F139" s="16">
         <v>41</v>
       </c>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
-      <c r="K139" s="38"/>
+      <c r="G139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="36"/>
+      <c r="J139" s="36"/>
+      <c r="K139" s="37"/>
     </row>
     <row r="140" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C140" s="35"/>
+      <c r="C140" s="34"/>
       <c r="D140" s="10" t="s">
         <v>416</v>
       </c>
@@ -8807,10 +8860,10 @@
       <c r="J140" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K140" s="38"/>
+      <c r="K140" s="37"/>
     </row>
     <row r="141" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C141" s="35"/>
+      <c r="C141" s="34"/>
       <c r="D141" s="11" t="s">
         <v>417</v>
       </c>
@@ -8835,10 +8888,10 @@
       <c r="J141" s="5">
         <v>1</v>
       </c>
-      <c r="K141" s="38"/>
+      <c r="K141" s="37"/>
     </row>
     <row r="142" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C142" s="35"/>
+      <c r="C142" s="34"/>
       <c r="D142" s="12" t="s">
         <v>418</v>
       </c>
@@ -8848,14 +8901,14 @@
       <c r="F142" s="18">
         <v>22</v>
       </c>
-      <c r="G142" s="36"/>
-      <c r="H142" s="36"/>
-      <c r="I142" s="37"/>
-      <c r="J142" s="37"/>
-      <c r="K142" s="38"/>
+      <c r="G142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="36"/>
+      <c r="J142" s="36"/>
+      <c r="K142" s="37"/>
     </row>
     <row r="143" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C143" s="35"/>
+      <c r="C143" s="34"/>
       <c r="D143" s="13" t="s">
         <v>419</v>
       </c>
@@ -8865,14 +8918,14 @@
       <c r="F143" s="19">
         <v>48</v>
       </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="36"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
-      <c r="K143" s="38"/>
+      <c r="G143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="36"/>
+      <c r="J143" s="36"/>
+      <c r="K143" s="37"/>
     </row>
     <row r="144" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C144" s="39"/>
+      <c r="C144" s="38"/>
       <c r="D144" s="13" t="s">
         <v>390</v>
       </c>
@@ -8882,18 +8935,18 @@
       <c r="F144" s="19">
         <v>56</v>
       </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
-      <c r="K144" s="38"/>
+      <c r="G144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="36"/>
+      <c r="J144" s="36"/>
+      <c r="K144" s="37"/>
       <c r="N144"/>
       <c r="O144"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
     <row r="145" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C145" s="39"/>
+      <c r="C145" s="38"/>
       <c r="D145" s="13" t="s">
         <v>378</v>
       </c>
@@ -8903,18 +8956,18 @@
       <c r="F145" s="19">
         <v>4</v>
       </c>
-      <c r="G145" s="36"/>
-      <c r="H145" s="36"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
-      <c r="K145" s="38"/>
+      <c r="G145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="36"/>
+      <c r="J145" s="36"/>
+      <c r="K145" s="37"/>
       <c r="N145"/>
       <c r="O145"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
     <row r="146" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C146" s="39"/>
+      <c r="C146" s="38"/>
       <c r="D146" s="13" t="s">
         <v>137</v>
       </c>
@@ -8924,18 +8977,18 @@
       <c r="F146" s="19">
         <v>11</v>
       </c>
-      <c r="G146" s="36"/>
-      <c r="H146" s="36"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
-      <c r="K146" s="38"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="36"/>
+      <c r="J146" s="36"/>
+      <c r="K146" s="37"/>
       <c r="N146"/>
       <c r="O146"/>
       <c r="P146"/>
       <c r="Q146"/>
     </row>
     <row r="147" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C147" s="39"/>
+      <c r="C147" s="38"/>
       <c r="D147" s="13" t="s">
         <v>420</v>
       </c>
@@ -8945,18 +8998,18 @@
       <c r="F147" s="19">
         <v>49</v>
       </c>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
-      <c r="K147" s="38"/>
+      <c r="G147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36"/>
+      <c r="K147" s="37"/>
       <c r="N147"/>
       <c r="O147"/>
       <c r="P147"/>
       <c r="Q147"/>
     </row>
     <row r="148" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C148" s="39"/>
+      <c r="C148" s="38"/>
       <c r="D148" s="13" t="s">
         <v>100</v>
       </c>
@@ -8966,18 +9019,18 @@
       <c r="F148" s="19">
         <v>4</v>
       </c>
-      <c r="G148" s="36"/>
-      <c r="H148" s="36"/>
-      <c r="I148" s="37"/>
-      <c r="J148" s="37"/>
-      <c r="K148" s="38"/>
+      <c r="G148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="36"/>
+      <c r="J148" s="36"/>
+      <c r="K148" s="37"/>
       <c r="N148"/>
       <c r="O148"/>
       <c r="P148"/>
       <c r="Q148"/>
     </row>
     <row r="149" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C149" s="39"/>
+      <c r="C149" s="38"/>
       <c r="D149" s="13" t="s">
         <v>421</v>
       </c>
@@ -8987,18 +9040,18 @@
       <c r="F149" s="19">
         <v>43</v>
       </c>
-      <c r="G149" s="36"/>
-      <c r="H149" s="36"/>
-      <c r="I149" s="37"/>
-      <c r="J149" s="37"/>
-      <c r="K149" s="38"/>
+      <c r="G149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="36"/>
+      <c r="J149" s="36"/>
+      <c r="K149" s="37"/>
       <c r="N149"/>
       <c r="O149"/>
       <c r="P149"/>
       <c r="Q149"/>
     </row>
     <row r="150" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C150" s="39"/>
+      <c r="C150" s="38"/>
       <c r="D150" s="13" t="s">
         <v>422</v>
       </c>
@@ -9008,18 +9061,18 @@
       <c r="F150" s="19">
         <v>41</v>
       </c>
-      <c r="G150" s="36"/>
-      <c r="H150" s="36"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="38"/>
+      <c r="G150" s="35"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="36"/>
+      <c r="J150" s="36"/>
+      <c r="K150" s="37"/>
       <c r="N150"/>
       <c r="O150"/>
       <c r="P150"/>
       <c r="Q150"/>
     </row>
     <row r="151" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C151" s="39"/>
+      <c r="C151" s="38"/>
       <c r="D151" s="13" t="s">
         <v>104</v>
       </c>
@@ -9029,18 +9082,18 @@
       <c r="F151" s="19">
         <v>58</v>
       </c>
-      <c r="G151" s="36"/>
-      <c r="H151" s="36"/>
-      <c r="I151" s="37"/>
-      <c r="J151" s="37"/>
-      <c r="K151" s="38"/>
+      <c r="G151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="36"/>
+      <c r="J151" s="36"/>
+      <c r="K151" s="37"/>
       <c r="N151"/>
       <c r="O151"/>
       <c r="P151"/>
       <c r="Q151"/>
     </row>
     <row r="152" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C152" s="39"/>
+      <c r="C152" s="38"/>
       <c r="D152" s="13" t="s">
         <v>423</v>
       </c>
@@ -9050,18 +9103,18 @@
       <c r="F152" s="19">
         <v>29</v>
       </c>
-      <c r="G152" s="36"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="37"/>
-      <c r="J152" s="37"/>
-      <c r="K152" s="38"/>
+      <c r="G152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="36"/>
+      <c r="J152" s="36"/>
+      <c r="K152" s="37"/>
       <c r="N152"/>
       <c r="O152"/>
       <c r="P152"/>
       <c r="Q152"/>
     </row>
     <row r="153" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C153" s="39"/>
+      <c r="C153" s="38"/>
       <c r="D153" s="13" t="s">
         <v>424</v>
       </c>
@@ -9071,18 +9124,18 @@
       <c r="F153" s="19">
         <v>57</v>
       </c>
-      <c r="G153" s="36"/>
-      <c r="H153" s="36"/>
-      <c r="I153" s="37"/>
-      <c r="J153" s="37"/>
-      <c r="K153" s="38"/>
+      <c r="G153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="36"/>
+      <c r="J153" s="36"/>
+      <c r="K153" s="37"/>
       <c r="N153"/>
       <c r="O153"/>
       <c r="P153"/>
       <c r="Q153"/>
     </row>
     <row r="154" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C154" s="39"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="13" t="s">
         <v>425</v>
       </c>
@@ -9092,18 +9145,18 @@
       <c r="F154" s="19">
         <v>53</v>
       </c>
-      <c r="G154" s="36"/>
-      <c r="H154" s="36"/>
-      <c r="I154" s="37"/>
-      <c r="J154" s="37"/>
-      <c r="K154" s="38"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="36"/>
+      <c r="J154" s="36"/>
+      <c r="K154" s="37"/>
       <c r="N154"/>
       <c r="O154"/>
       <c r="P154"/>
       <c r="Q154"/>
     </row>
     <row r="155" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C155" s="39"/>
+      <c r="C155" s="38"/>
       <c r="D155" s="13" t="s">
         <v>426</v>
       </c>
@@ -9113,18 +9166,18 @@
       <c r="F155" s="19">
         <v>5</v>
       </c>
-      <c r="G155" s="36"/>
-      <c r="H155" s="36"/>
-      <c r="I155" s="37"/>
-      <c r="J155" s="37"/>
-      <c r="K155" s="38"/>
+      <c r="G155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="36"/>
+      <c r="J155" s="36"/>
+      <c r="K155" s="37"/>
       <c r="N155"/>
       <c r="O155"/>
       <c r="P155"/>
       <c r="Q155"/>
     </row>
     <row r="156" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C156" s="39"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="13" t="s">
         <v>427</v>
       </c>
@@ -9134,18 +9187,18 @@
       <c r="F156" s="19">
         <v>14</v>
       </c>
-      <c r="G156" s="36"/>
-      <c r="H156" s="36"/>
-      <c r="I156" s="37"/>
-      <c r="J156" s="37"/>
-      <c r="K156" s="38"/>
+      <c r="G156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="36"/>
+      <c r="J156" s="36"/>
+      <c r="K156" s="37"/>
       <c r="N156"/>
       <c r="O156"/>
       <c r="P156"/>
       <c r="Q156"/>
     </row>
     <row r="157" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C157" s="39"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="13" t="s">
         <v>428</v>
       </c>
@@ -9155,18 +9208,18 @@
       <c r="F157" s="19">
         <v>48</v>
       </c>
-      <c r="G157" s="36"/>
-      <c r="H157" s="36"/>
-      <c r="I157" s="37"/>
-      <c r="J157" s="37"/>
-      <c r="K157" s="38"/>
+      <c r="G157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="36"/>
+      <c r="J157" s="36"/>
+      <c r="K157" s="37"/>
       <c r="N157"/>
       <c r="O157"/>
       <c r="P157"/>
       <c r="Q157"/>
     </row>
     <row r="158" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C158" s="39"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="13" t="s">
         <v>429</v>
       </c>
@@ -9176,18 +9229,18 @@
       <c r="F158" s="19">
         <v>5</v>
       </c>
-      <c r="G158" s="36"/>
-      <c r="H158" s="36"/>
-      <c r="I158" s="37"/>
-      <c r="J158" s="37"/>
-      <c r="K158" s="38"/>
+      <c r="G158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="36"/>
+      <c r="J158" s="36"/>
+      <c r="K158" s="37"/>
       <c r="N158"/>
       <c r="O158"/>
       <c r="P158"/>
       <c r="Q158"/>
     </row>
     <row r="159" spans="3:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C159" s="39"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="13" t="s">
         <v>135</v>
       </c>
@@ -9197,18 +9250,18 @@
       <c r="F159" s="19">
         <v>42</v>
       </c>
-      <c r="G159" s="36"/>
-      <c r="H159" s="36"/>
-      <c r="I159" s="37"/>
-      <c r="J159" s="37"/>
-      <c r="K159" s="38"/>
+      <c r="G159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="36"/>
+      <c r="J159" s="36"/>
+      <c r="K159" s="37"/>
       <c r="N159"/>
       <c r="O159"/>
       <c r="P159"/>
       <c r="Q159"/>
     </row>
     <row r="160" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C160" s="35"/>
+      <c r="C160" s="34"/>
       <c r="D160" s="13" t="s">
         <v>430</v>
       </c>
@@ -9218,14 +9271,14 @@
       <c r="F160" s="19">
         <v>26</v>
       </c>
-      <c r="G160" s="36"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="37"/>
-      <c r="J160" s="37"/>
-      <c r="K160" s="38"/>
+      <c r="G160" s="35"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="36"/>
+      <c r="J160" s="36"/>
+      <c r="K160" s="37"/>
     </row>
     <row r="161" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C161" s="35"/>
+      <c r="C161" s="34"/>
       <c r="D161" s="13" t="s">
         <v>431</v>
       </c>
@@ -9235,14 +9288,14 @@
       <c r="F161" s="19">
         <v>36</v>
       </c>
-      <c r="G161" s="36"/>
-      <c r="H161" s="36"/>
-      <c r="I161" s="37"/>
-      <c r="J161" s="37"/>
-      <c r="K161" s="38"/>
+      <c r="G161" s="35"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="36"/>
+      <c r="J161" s="36"/>
+      <c r="K161" s="37"/>
     </row>
     <row r="162" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C162" s="35"/>
+      <c r="C162" s="34"/>
       <c r="D162" s="13" t="s">
         <v>432</v>
       </c>
@@ -9252,14 +9305,14 @@
       <c r="F162" s="19">
         <v>25</v>
       </c>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="37"/>
-      <c r="J162" s="37"/>
-      <c r="K162" s="38"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="36"/>
+      <c r="J162" s="36"/>
+      <c r="K162" s="37"/>
     </row>
     <row r="163" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C163" s="35"/>
+      <c r="C163" s="34"/>
       <c r="D163" s="13" t="s">
         <v>433</v>
       </c>
@@ -9269,14 +9322,14 @@
       <c r="F163" s="19">
         <v>41</v>
       </c>
-      <c r="G163" s="36"/>
-      <c r="H163" s="36"/>
-      <c r="I163" s="37"/>
-      <c r="J163" s="37"/>
-      <c r="K163" s="38"/>
+      <c r="G163" s="35"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="36"/>
+      <c r="J163" s="36"/>
+      <c r="K163" s="37"/>
     </row>
     <row r="164" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C164" s="35"/>
+      <c r="C164" s="34"/>
       <c r="D164" s="13" t="s">
         <v>214</v>
       </c>
@@ -9286,14 +9339,14 @@
       <c r="F164" s="19">
         <v>51</v>
       </c>
-      <c r="G164" s="36"/>
-      <c r="H164" s="36"/>
-      <c r="I164" s="37"/>
-      <c r="J164" s="37"/>
-      <c r="K164" s="38"/>
+      <c r="G164" s="35"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="36"/>
+      <c r="J164" s="36"/>
+      <c r="K164" s="37"/>
     </row>
     <row r="165" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C165" s="35"/>
+      <c r="C165" s="34"/>
       <c r="D165" s="13" t="s">
         <v>434</v>
       </c>
@@ -9303,14 +9356,14 @@
       <c r="F165" s="19">
         <v>4</v>
       </c>
-      <c r="G165" s="36"/>
-      <c r="H165" s="36"/>
-      <c r="I165" s="37"/>
-      <c r="J165" s="37"/>
-      <c r="K165" s="38"/>
+      <c r="G165" s="35"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="36"/>
+      <c r="J165" s="36"/>
+      <c r="K165" s="37"/>
     </row>
     <row r="166" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C166" s="35"/>
+      <c r="C166" s="34"/>
       <c r="D166" s="13" t="s">
         <v>435</v>
       </c>
@@ -9320,14 +9373,14 @@
       <c r="F166" s="19">
         <v>5</v>
       </c>
-      <c r="G166" s="36"/>
-      <c r="H166" s="36"/>
-      <c r="I166" s="37"/>
-      <c r="J166" s="37"/>
-      <c r="K166" s="38"/>
+      <c r="G166" s="35"/>
+      <c r="H166" s="35"/>
+      <c r="I166" s="36"/>
+      <c r="J166" s="36"/>
+      <c r="K166" s="37"/>
     </row>
     <row r="167" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C167" s="35"/>
+      <c r="C167" s="34"/>
       <c r="D167" s="13" t="s">
         <v>436</v>
       </c>
@@ -9337,14 +9390,14 @@
       <c r="F167" s="19">
         <v>26</v>
       </c>
-      <c r="G167" s="36"/>
-      <c r="H167" s="36"/>
-      <c r="I167" s="37"/>
-      <c r="J167" s="37"/>
-      <c r="K167" s="38"/>
+      <c r="G167" s="35"/>
+      <c r="H167" s="35"/>
+      <c r="I167" s="36"/>
+      <c r="J167" s="36"/>
+      <c r="K167" s="37"/>
     </row>
     <row r="168" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C168" s="35"/>
+      <c r="C168" s="34"/>
       <c r="D168" s="13" t="s">
         <v>116</v>
       </c>
@@ -9354,14 +9407,14 @@
       <c r="F168" s="19">
         <v>11</v>
       </c>
-      <c r="G168" s="36"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="37"/>
-      <c r="J168" s="37"/>
-      <c r="K168" s="38"/>
+      <c r="G168" s="35"/>
+      <c r="H168" s="35"/>
+      <c r="I168" s="36"/>
+      <c r="J168" s="36"/>
+      <c r="K168" s="37"/>
     </row>
     <row r="169" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C169" s="35"/>
+      <c r="C169" s="34"/>
       <c r="D169" s="13" t="s">
         <v>437</v>
       </c>
@@ -9371,14 +9424,14 @@
       <c r="F169" s="19">
         <v>25</v>
       </c>
-      <c r="G169" s="36"/>
-      <c r="H169" s="36"/>
-      <c r="I169" s="37"/>
-      <c r="J169" s="37"/>
-      <c r="K169" s="38"/>
+      <c r="G169" s="35"/>
+      <c r="H169" s="35"/>
+      <c r="I169" s="36"/>
+      <c r="J169" s="36"/>
+      <c r="K169" s="37"/>
     </row>
     <row r="170" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C170" s="35"/>
+      <c r="C170" s="34"/>
       <c r="D170" s="13" t="s">
         <v>438</v>
       </c>
@@ -9400,10 +9453,10 @@
       <c r="J170" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K170" s="38"/>
+      <c r="K170" s="37"/>
     </row>
     <row r="171" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C171" s="35"/>
+      <c r="C171" s="34"/>
       <c r="D171" s="14" t="s">
         <v>439</v>
       </c>
@@ -9428,10 +9481,10 @@
       <c r="J171" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K171" s="38"/>
+      <c r="K171" s="37"/>
     </row>
     <row r="172" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C172" s="35"/>
+      <c r="C172" s="34"/>
       <c r="D172" s="9" t="s">
         <v>418</v>
       </c>
@@ -9441,14 +9494,14 @@
       <c r="F172" s="15">
         <v>22</v>
       </c>
-      <c r="G172" s="36"/>
-      <c r="H172" s="36"/>
-      <c r="I172" s="37"/>
-      <c r="J172" s="37"/>
-      <c r="K172" s="38"/>
+      <c r="G172" s="35"/>
+      <c r="H172" s="35"/>
+      <c r="I172" s="36"/>
+      <c r="J172" s="36"/>
+      <c r="K172" s="37"/>
     </row>
     <row r="173" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C173" s="35"/>
+      <c r="C173" s="34"/>
       <c r="D173" s="10" t="s">
         <v>440</v>
       </c>
@@ -9458,14 +9511,14 @@
       <c r="F173" s="16">
         <v>40</v>
       </c>
-      <c r="G173" s="36"/>
-      <c r="H173" s="36"/>
-      <c r="I173" s="37"/>
-      <c r="J173" s="37"/>
-      <c r="K173" s="38"/>
+      <c r="G173" s="35"/>
+      <c r="H173" s="35"/>
+      <c r="I173" s="36"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="37"/>
     </row>
     <row r="174" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C174" s="35"/>
+      <c r="C174" s="34"/>
       <c r="D174" s="10" t="s">
         <v>441</v>
       </c>
@@ -9475,14 +9528,14 @@
       <c r="F174" s="16">
         <v>46</v>
       </c>
-      <c r="G174" s="36"/>
-      <c r="H174" s="36"/>
-      <c r="I174" s="37"/>
-      <c r="J174" s="37"/>
-      <c r="K174" s="38"/>
+      <c r="G174" s="35"/>
+      <c r="H174" s="35"/>
+      <c r="I174" s="36"/>
+      <c r="J174" s="36"/>
+      <c r="K174" s="37"/>
     </row>
     <row r="175" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C175" s="35"/>
+      <c r="C175" s="34"/>
       <c r="D175" s="10" t="s">
         <v>442</v>
       </c>
@@ -9492,14 +9545,14 @@
       <c r="F175" s="16">
         <v>51</v>
       </c>
-      <c r="G175" s="36"/>
-      <c r="H175" s="36"/>
-      <c r="I175" s="37"/>
-      <c r="J175" s="37"/>
-      <c r="K175" s="38"/>
+      <c r="G175" s="35"/>
+      <c r="H175" s="35"/>
+      <c r="I175" s="36"/>
+      <c r="J175" s="36"/>
+      <c r="K175" s="37"/>
     </row>
     <row r="176" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C176" s="35"/>
+      <c r="C176" s="34"/>
       <c r="D176" s="10" t="s">
         <v>128</v>
       </c>
@@ -9509,14 +9562,14 @@
       <c r="F176" s="16">
         <v>4</v>
       </c>
-      <c r="G176" s="36"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="37"/>
-      <c r="J176" s="37"/>
-      <c r="K176" s="38"/>
+      <c r="G176" s="35"/>
+      <c r="H176" s="35"/>
+      <c r="I176" s="36"/>
+      <c r="J176" s="36"/>
+      <c r="K176" s="37"/>
     </row>
     <row r="177" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C177" s="35"/>
+      <c r="C177" s="34"/>
       <c r="D177" s="10" t="s">
         <v>443</v>
       </c>
@@ -9526,14 +9579,14 @@
       <c r="F177" s="16">
         <v>12</v>
       </c>
-      <c r="G177" s="36"/>
-      <c r="H177" s="36"/>
-      <c r="I177" s="37"/>
-      <c r="J177" s="37"/>
-      <c r="K177" s="38"/>
+      <c r="G177" s="35"/>
+      <c r="H177" s="35"/>
+      <c r="I177" s="36"/>
+      <c r="J177" s="36"/>
+      <c r="K177" s="37"/>
     </row>
     <row r="178" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C178" s="35"/>
+      <c r="C178" s="34"/>
       <c r="D178" s="10" t="s">
         <v>444</v>
       </c>
@@ -9543,14 +9596,14 @@
       <c r="F178" s="16">
         <v>28</v>
       </c>
-      <c r="G178" s="36"/>
-      <c r="H178" s="36"/>
-      <c r="I178" s="37"/>
-      <c r="J178" s="37"/>
-      <c r="K178" s="38"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="35"/>
+      <c r="I178" s="36"/>
+      <c r="J178" s="36"/>
+      <c r="K178" s="37"/>
     </row>
     <row r="179" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C179" s="35"/>
+      <c r="C179" s="34"/>
       <c r="D179" s="10" t="s">
         <v>124</v>
       </c>
@@ -9560,14 +9613,14 @@
       <c r="F179" s="16">
         <v>37</v>
       </c>
-      <c r="G179" s="36"/>
-      <c r="H179" s="36"/>
-      <c r="I179" s="37"/>
-      <c r="J179" s="37"/>
-      <c r="K179" s="38"/>
+      <c r="G179" s="35"/>
+      <c r="H179" s="35"/>
+      <c r="I179" s="36"/>
+      <c r="J179" s="36"/>
+      <c r="K179" s="37"/>
     </row>
     <row r="180" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C180" s="35"/>
+      <c r="C180" s="34"/>
       <c r="D180" s="10" t="s">
         <v>445</v>
       </c>
@@ -9577,14 +9630,14 @@
       <c r="F180" s="16">
         <v>1</v>
       </c>
-      <c r="G180" s="36"/>
-      <c r="H180" s="36"/>
-      <c r="I180" s="37"/>
-      <c r="J180" s="37"/>
-      <c r="K180" s="38"/>
+      <c r="G180" s="35"/>
+      <c r="H180" s="35"/>
+      <c r="I180" s="36"/>
+      <c r="J180" s="36"/>
+      <c r="K180" s="37"/>
     </row>
     <row r="181" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C181" s="35"/>
+      <c r="C181" s="34"/>
       <c r="D181" s="10" t="s">
         <v>446</v>
       </c>
@@ -9594,14 +9647,14 @@
       <c r="F181" s="16">
         <v>59</v>
       </c>
-      <c r="G181" s="36"/>
-      <c r="H181" s="36"/>
-      <c r="I181" s="37"/>
-      <c r="J181" s="37"/>
-      <c r="K181" s="38"/>
+      <c r="G181" s="35"/>
+      <c r="H181" s="35"/>
+      <c r="I181" s="36"/>
+      <c r="J181" s="36"/>
+      <c r="K181" s="37"/>
     </row>
     <row r="182" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C182" s="35"/>
+      <c r="C182" s="34"/>
       <c r="D182" s="10" t="s">
         <v>447</v>
       </c>
@@ -9611,14 +9664,14 @@
       <c r="F182" s="16">
         <v>4</v>
       </c>
-      <c r="G182" s="36"/>
-      <c r="H182" s="36"/>
-      <c r="I182" s="37"/>
-      <c r="J182" s="37"/>
-      <c r="K182" s="38"/>
+      <c r="G182" s="35"/>
+      <c r="H182" s="35"/>
+      <c r="I182" s="36"/>
+      <c r="J182" s="36"/>
+      <c r="K182" s="37"/>
     </row>
     <row r="183" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C183" s="35"/>
+      <c r="C183" s="34"/>
       <c r="D183" s="10" t="s">
         <v>448</v>
       </c>
@@ -9628,14 +9681,14 @@
       <c r="F183" s="16">
         <v>2</v>
       </c>
-      <c r="G183" s="36"/>
-      <c r="H183" s="36"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="38"/>
+      <c r="G183" s="35"/>
+      <c r="H183" s="35"/>
+      <c r="I183" s="36"/>
+      <c r="J183" s="36"/>
+      <c r="K183" s="37"/>
     </row>
     <row r="184" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C184" s="35"/>
+      <c r="C184" s="34"/>
       <c r="D184" s="10" t="s">
         <v>449</v>
       </c>
@@ -9645,14 +9698,14 @@
       <c r="F184" s="16">
         <v>55</v>
       </c>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="37"/>
-      <c r="J184" s="37"/>
-      <c r="K184" s="38"/>
+      <c r="G184" s="35"/>
+      <c r="H184" s="35"/>
+      <c r="I184" s="36"/>
+      <c r="J184" s="36"/>
+      <c r="K184" s="37"/>
     </row>
     <row r="185" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C185" s="35"/>
+      <c r="C185" s="34"/>
       <c r="D185" s="10" t="s">
         <v>450</v>
       </c>
@@ -9662,14 +9715,14 @@
       <c r="F185" s="16">
         <v>14</v>
       </c>
-      <c r="G185" s="36"/>
-      <c r="H185" s="36"/>
-      <c r="I185" s="37"/>
-      <c r="J185" s="37"/>
-      <c r="K185" s="38"/>
+      <c r="G185" s="35"/>
+      <c r="H185" s="35"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="37"/>
     </row>
     <row r="186" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C186" s="35"/>
+      <c r="C186" s="34"/>
       <c r="D186" s="10" t="s">
         <v>451</v>
       </c>
@@ -9679,14 +9732,14 @@
       <c r="F186" s="16">
         <v>46</v>
       </c>
-      <c r="G186" s="36"/>
-      <c r="H186" s="36"/>
-      <c r="I186" s="37"/>
-      <c r="J186" s="37"/>
-      <c r="K186" s="38"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="35"/>
+      <c r="I186" s="36"/>
+      <c r="J186" s="36"/>
+      <c r="K186" s="37"/>
     </row>
     <row r="187" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C187" s="35"/>
+      <c r="C187" s="34"/>
       <c r="D187" s="10" t="s">
         <v>211</v>
       </c>
@@ -9696,14 +9749,14 @@
       <c r="F187" s="16">
         <v>30</v>
       </c>
-      <c r="G187" s="36"/>
-      <c r="H187" s="36"/>
-      <c r="I187" s="37"/>
-      <c r="J187" s="37"/>
-      <c r="K187" s="38"/>
+      <c r="G187" s="35"/>
+      <c r="H187" s="35"/>
+      <c r="I187" s="36"/>
+      <c r="J187" s="36"/>
+      <c r="K187" s="37"/>
     </row>
     <row r="188" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C188" s="35"/>
+      <c r="C188" s="34"/>
       <c r="D188" s="10" t="s">
         <v>452</v>
       </c>
@@ -9713,14 +9766,14 @@
       <c r="F188" s="16">
         <v>23</v>
       </c>
-      <c r="G188" s="36"/>
-      <c r="H188" s="36"/>
-      <c r="I188" s="37"/>
-      <c r="J188" s="37"/>
-      <c r="K188" s="38"/>
+      <c r="G188" s="35"/>
+      <c r="H188" s="35"/>
+      <c r="I188" s="36"/>
+      <c r="J188" s="36"/>
+      <c r="K188" s="37"/>
     </row>
     <row r="189" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C189" s="35"/>
+      <c r="C189" s="34"/>
       <c r="D189" s="10" t="s">
         <v>453</v>
       </c>
@@ -9730,14 +9783,14 @@
       <c r="F189" s="16">
         <v>29</v>
       </c>
-      <c r="G189" s="36"/>
-      <c r="H189" s="36"/>
-      <c r="I189" s="37"/>
-      <c r="J189" s="37"/>
-      <c r="K189" s="38"/>
+      <c r="G189" s="35"/>
+      <c r="H189" s="35"/>
+      <c r="I189" s="36"/>
+      <c r="J189" s="36"/>
+      <c r="K189" s="37"/>
     </row>
     <row r="190" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C190" s="35"/>
+      <c r="C190" s="34"/>
       <c r="D190" s="10" t="s">
         <v>454</v>
       </c>
@@ -9747,14 +9800,14 @@
       <c r="F190" s="16">
         <v>39</v>
       </c>
-      <c r="G190" s="36"/>
-      <c r="H190" s="36"/>
-      <c r="I190" s="37"/>
-      <c r="J190" s="37"/>
-      <c r="K190" s="38"/>
+      <c r="G190" s="35"/>
+      <c r="H190" s="35"/>
+      <c r="I190" s="36"/>
+      <c r="J190" s="36"/>
+      <c r="K190" s="37"/>
     </row>
     <row r="191" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C191" s="35"/>
+      <c r="C191" s="34"/>
       <c r="D191" s="10" t="s">
         <v>172</v>
       </c>
@@ -9764,14 +9817,14 @@
       <c r="F191" s="16">
         <v>25</v>
       </c>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="37"/>
-      <c r="J191" s="37"/>
-      <c r="K191" s="38"/>
+      <c r="G191" s="35"/>
+      <c r="H191" s="35"/>
+      <c r="I191" s="36"/>
+      <c r="J191" s="36"/>
+      <c r="K191" s="37"/>
     </row>
     <row r="192" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C192" s="35"/>
+      <c r="C192" s="34"/>
       <c r="D192" s="10" t="s">
         <v>455</v>
       </c>
@@ -9781,14 +9834,14 @@
       <c r="F192" s="16">
         <v>4</v>
       </c>
-      <c r="G192" s="36"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="37"/>
-      <c r="J192" s="37"/>
-      <c r="K192" s="38"/>
+      <c r="G192" s="35"/>
+      <c r="H192" s="35"/>
+      <c r="I192" s="36"/>
+      <c r="J192" s="36"/>
+      <c r="K192" s="37"/>
     </row>
     <row r="193" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C193" s="35"/>
+      <c r="C193" s="34"/>
       <c r="D193" s="10" t="s">
         <v>456</v>
       </c>
@@ -9798,14 +9851,14 @@
       <c r="F193" s="16">
         <v>40</v>
       </c>
-      <c r="G193" s="36"/>
-      <c r="H193" s="36"/>
-      <c r="I193" s="37"/>
-      <c r="J193" s="37"/>
-      <c r="K193" s="38"/>
+      <c r="G193" s="35"/>
+      <c r="H193" s="35"/>
+      <c r="I193" s="36"/>
+      <c r="J193" s="36"/>
+      <c r="K193" s="37"/>
     </row>
     <row r="194" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C194" s="35"/>
+      <c r="C194" s="34"/>
       <c r="D194" s="10" t="s">
         <v>457</v>
       </c>
@@ -9827,10 +9880,10 @@
       <c r="J194" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K194" s="38"/>
+      <c r="K194" s="37"/>
     </row>
     <row r="195" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C195" s="35"/>
+      <c r="C195" s="34"/>
       <c r="D195" s="11" t="s">
         <v>458</v>
       </c>
@@ -9855,10 +9908,10 @@
       <c r="J195" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="K195" s="38"/>
+      <c r="K195" s="37"/>
     </row>
     <row r="196" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C196" s="35"/>
+      <c r="C196" s="34"/>
       <c r="D196" s="12" t="s">
         <v>459</v>
       </c>
@@ -9868,14 +9921,14 @@
       <c r="F196" s="18">
         <v>11</v>
       </c>
-      <c r="G196" s="36"/>
-      <c r="H196" s="36"/>
-      <c r="I196" s="37"/>
-      <c r="J196" s="37"/>
-      <c r="K196" s="38"/>
+      <c r="G196" s="35"/>
+      <c r="H196" s="35"/>
+      <c r="I196" s="36"/>
+      <c r="J196" s="36"/>
+      <c r="K196" s="37"/>
     </row>
     <row r="197" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C197" s="35"/>
+      <c r="C197" s="34"/>
       <c r="D197" s="13" t="s">
         <v>460</v>
       </c>
@@ -9885,14 +9938,14 @@
       <c r="F197" s="19">
         <v>49</v>
       </c>
-      <c r="G197" s="36"/>
-      <c r="H197" s="36"/>
-      <c r="I197" s="37"/>
-      <c r="J197" s="37"/>
-      <c r="K197" s="38"/>
+      <c r="G197" s="35"/>
+      <c r="H197" s="35"/>
+      <c r="I197" s="36"/>
+      <c r="J197" s="36"/>
+      <c r="K197" s="37"/>
     </row>
     <row r="198" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C198" s="35"/>
+      <c r="C198" s="34"/>
       <c r="D198" s="13" t="s">
         <v>150</v>
       </c>
@@ -9902,14 +9955,14 @@
       <c r="F198" s="19">
         <v>47</v>
       </c>
-      <c r="G198" s="36"/>
-      <c r="H198" s="36"/>
-      <c r="I198" s="37"/>
-      <c r="J198" s="37"/>
-      <c r="K198" s="38"/>
+      <c r="G198" s="35"/>
+      <c r="H198" s="35"/>
+      <c r="I198" s="36"/>
+      <c r="J198" s="36"/>
+      <c r="K198" s="37"/>
     </row>
     <row r="199" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C199" s="35"/>
+      <c r="C199" s="34"/>
       <c r="D199" s="13" t="s">
         <v>186</v>
       </c>
@@ -9919,14 +9972,14 @@
       <c r="F199" s="19">
         <v>34</v>
       </c>
-      <c r="G199" s="36"/>
-      <c r="H199" s="36"/>
-      <c r="I199" s="37"/>
-      <c r="J199" s="37"/>
-      <c r="K199" s="38"/>
+      <c r="G199" s="35"/>
+      <c r="H199" s="35"/>
+      <c r="I199" s="36"/>
+      <c r="J199" s="36"/>
+      <c r="K199" s="37"/>
     </row>
     <row r="200" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C200" s="35"/>
+      <c r="C200" s="34"/>
       <c r="D200" s="13" t="s">
         <v>461</v>
       </c>
@@ -9936,14 +9989,14 @@
       <c r="F200" s="19">
         <v>29</v>
       </c>
-      <c r="G200" s="36"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="37"/>
-      <c r="J200" s="37"/>
-      <c r="K200" s="38"/>
+      <c r="G200" s="35"/>
+      <c r="H200" s="35"/>
+      <c r="I200" s="36"/>
+      <c r="J200" s="36"/>
+      <c r="K200" s="37"/>
     </row>
     <row r="201" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C201" s="35"/>
+      <c r="C201" s="34"/>
       <c r="D201" s="13" t="s">
         <v>462</v>
       </c>
@@ -9953,14 +10006,14 @@
       <c r="F201" s="19">
         <v>50</v>
       </c>
-      <c r="G201" s="36"/>
-      <c r="H201" s="36"/>
-      <c r="I201" s="37"/>
-      <c r="J201" s="37"/>
-      <c r="K201" s="38"/>
+      <c r="G201" s="35"/>
+      <c r="H201" s="35"/>
+      <c r="I201" s="36"/>
+      <c r="J201" s="36"/>
+      <c r="K201" s="37"/>
     </row>
     <row r="202" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C202" s="35"/>
+      <c r="C202" s="34"/>
       <c r="D202" s="13" t="s">
         <v>78</v>
       </c>
@@ -9982,10 +10035,10 @@
       <c r="J202" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K202" s="38"/>
+      <c r="K202" s="37"/>
     </row>
     <row r="203" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C203" s="35"/>
+      <c r="C203" s="34"/>
       <c r="D203" s="14" t="s">
         <v>463</v>
       </c>
@@ -10010,10 +10063,10 @@
       <c r="J203" s="5">
         <v>1</v>
       </c>
-      <c r="K203" s="38"/>
+      <c r="K203" s="37"/>
     </row>
     <row r="204" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C204" s="35"/>
+      <c r="C204" s="34"/>
       <c r="D204" s="9" t="s">
         <v>464</v>
       </c>
@@ -10023,14 +10076,14 @@
       <c r="F204" s="15">
         <v>36</v>
       </c>
-      <c r="G204" s="36"/>
-      <c r="H204" s="36"/>
-      <c r="I204" s="37"/>
-      <c r="J204" s="37"/>
-      <c r="K204" s="38"/>
+      <c r="G204" s="35"/>
+      <c r="H204" s="35"/>
+      <c r="I204" s="36"/>
+      <c r="J204" s="36"/>
+      <c r="K204" s="37"/>
     </row>
     <row r="205" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C205" s="35"/>
+      <c r="C205" s="34"/>
       <c r="D205" s="10" t="s">
         <v>252</v>
       </c>
@@ -10040,14 +10093,14 @@
       <c r="F205" s="16">
         <v>5</v>
       </c>
-      <c r="G205" s="36"/>
-      <c r="H205" s="36"/>
-      <c r="I205" s="37"/>
-      <c r="J205" s="37"/>
-      <c r="K205" s="38"/>
+      <c r="G205" s="35"/>
+      <c r="H205" s="35"/>
+      <c r="I205" s="36"/>
+      <c r="J205" s="36"/>
+      <c r="K205" s="37"/>
     </row>
     <row r="206" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C206" s="35"/>
+      <c r="C206" s="34"/>
       <c r="D206" s="10" t="s">
         <v>465</v>
       </c>
@@ -10057,14 +10110,14 @@
       <c r="F206" s="16">
         <v>33</v>
       </c>
-      <c r="G206" s="36"/>
-      <c r="H206" s="36"/>
-      <c r="I206" s="37"/>
-      <c r="J206" s="37"/>
-      <c r="K206" s="38"/>
+      <c r="G206" s="35"/>
+      <c r="H206" s="35"/>
+      <c r="I206" s="36"/>
+      <c r="J206" s="36"/>
+      <c r="K206" s="37"/>
     </row>
     <row r="207" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C207" s="35"/>
+      <c r="C207" s="34"/>
       <c r="D207" s="10" t="s">
         <v>466</v>
       </c>
@@ -10074,14 +10127,14 @@
       <c r="F207" s="16">
         <v>57</v>
       </c>
-      <c r="G207" s="36"/>
-      <c r="H207" s="36"/>
-      <c r="I207" s="37"/>
-      <c r="J207" s="37"/>
-      <c r="K207" s="38"/>
+      <c r="G207" s="35"/>
+      <c r="H207" s="35"/>
+      <c r="I207" s="36"/>
+      <c r="J207" s="36"/>
+      <c r="K207" s="37"/>
     </row>
     <row r="208" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C208" s="35"/>
+      <c r="C208" s="34"/>
       <c r="D208" s="10" t="s">
         <v>467</v>
       </c>
@@ -10091,14 +10144,14 @@
       <c r="F208" s="16">
         <v>1</v>
       </c>
-      <c r="G208" s="36"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="37"/>
-      <c r="J208" s="37"/>
-      <c r="K208" s="38"/>
+      <c r="G208" s="35"/>
+      <c r="H208" s="35"/>
+      <c r="I208" s="36"/>
+      <c r="J208" s="36"/>
+      <c r="K208" s="37"/>
     </row>
     <row r="209" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C209" s="35"/>
+      <c r="C209" s="34"/>
       <c r="D209" s="10" t="s">
         <v>468</v>
       </c>
@@ -10108,14 +10161,14 @@
       <c r="F209" s="16">
         <v>49</v>
       </c>
-      <c r="G209" s="36"/>
-      <c r="H209" s="36"/>
-      <c r="I209" s="37"/>
-      <c r="J209" s="37"/>
-      <c r="K209" s="38"/>
+      <c r="G209" s="35"/>
+      <c r="H209" s="35"/>
+      <c r="I209" s="36"/>
+      <c r="J209" s="36"/>
+      <c r="K209" s="37"/>
     </row>
     <row r="210" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C210" s="35"/>
+      <c r="C210" s="34"/>
       <c r="D210" s="10" t="s">
         <v>469</v>
       </c>
@@ -10125,14 +10178,14 @@
       <c r="F210" s="16">
         <v>25</v>
       </c>
-      <c r="G210" s="36"/>
-      <c r="H210" s="36"/>
-      <c r="I210" s="37"/>
-      <c r="J210" s="37"/>
-      <c r="K210" s="38"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="35"/>
+      <c r="I210" s="36"/>
+      <c r="J210" s="36"/>
+      <c r="K210" s="37"/>
     </row>
     <row r="211" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C211" s="35"/>
+      <c r="C211" s="34"/>
       <c r="D211" s="10" t="s">
         <v>470</v>
       </c>
@@ -10154,10 +10207,10 @@
       <c r="J211" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="K211" s="38"/>
+      <c r="K211" s="37"/>
     </row>
     <row r="212" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C212" s="35"/>
+      <c r="C212" s="34"/>
       <c r="D212" s="11" t="s">
         <v>471</v>
       </c>
@@ -10182,10 +10235,10 @@
       <c r="J212" s="5">
         <v>1</v>
       </c>
-      <c r="K212" s="38"/>
+      <c r="K212" s="37"/>
     </row>
     <row r="213" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C213" s="35"/>
+      <c r="C213" s="34"/>
       <c r="D213" s="12" t="s">
         <v>246</v>
       </c>
@@ -10195,14 +10248,14 @@
       <c r="F213" s="18">
         <v>43</v>
       </c>
-      <c r="G213" s="36"/>
-      <c r="H213" s="36"/>
-      <c r="I213" s="37"/>
-      <c r="J213" s="37"/>
-      <c r="K213" s="38"/>
+      <c r="G213" s="35"/>
+      <c r="H213" s="35"/>
+      <c r="I213" s="36"/>
+      <c r="J213" s="36"/>
+      <c r="K213" s="37"/>
     </row>
     <row r="214" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C214" s="35"/>
+      <c r="C214" s="34"/>
       <c r="D214" s="13" t="s">
         <v>472</v>
       </c>
@@ -10212,14 +10265,14 @@
       <c r="F214" s="19">
         <v>18</v>
       </c>
-      <c r="G214" s="36"/>
-      <c r="H214" s="36"/>
-      <c r="I214" s="37"/>
-      <c r="J214" s="37"/>
-      <c r="K214" s="38"/>
+      <c r="G214" s="35"/>
+      <c r="H214" s="35"/>
+      <c r="I214" s="36"/>
+      <c r="J214" s="36"/>
+      <c r="K214" s="37"/>
     </row>
     <row r="215" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C215" s="35"/>
+      <c r="C215" s="34"/>
       <c r="D215" s="13" t="s">
         <v>473</v>
       </c>
@@ -10229,14 +10282,14 @@
       <c r="F215" s="19">
         <v>20</v>
       </c>
-      <c r="G215" s="36"/>
-      <c r="H215" s="36"/>
-      <c r="I215" s="37"/>
-      <c r="J215" s="37"/>
-      <c r="K215" s="38"/>
+      <c r="G215" s="35"/>
+      <c r="H215" s="35"/>
+      <c r="I215" s="36"/>
+      <c r="J215" s="36"/>
+      <c r="K215" s="37"/>
     </row>
     <row r="216" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C216" s="35"/>
+      <c r="C216" s="34"/>
       <c r="D216" s="13" t="s">
         <v>474</v>
       </c>
@@ -10246,14 +10299,14 @@
       <c r="F216" s="19">
         <v>25</v>
       </c>
-      <c r="G216" s="36"/>
-      <c r="H216" s="36"/>
-      <c r="I216" s="37"/>
-      <c r="J216" s="37"/>
-      <c r="K216" s="38"/>
+      <c r="G216" s="35"/>
+      <c r="H216" s="35"/>
+      <c r="I216" s="36"/>
+      <c r="J216" s="36"/>
+      <c r="K216" s="37"/>
     </row>
     <row r="217" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C217" s="35"/>
+      <c r="C217" s="34"/>
       <c r="D217" s="13" t="s">
         <v>475</v>
       </c>
@@ -10263,14 +10316,14 @@
       <c r="F217" s="19">
         <v>25</v>
       </c>
-      <c r="G217" s="36"/>
-      <c r="H217" s="36"/>
-      <c r="I217" s="37"/>
-      <c r="J217" s="37"/>
-      <c r="K217" s="38"/>
+      <c r="G217" s="35"/>
+      <c r="H217" s="35"/>
+      <c r="I217" s="36"/>
+      <c r="J217" s="36"/>
+      <c r="K217" s="37"/>
     </row>
     <row r="218" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C218" s="35"/>
+      <c r="C218" s="34"/>
       <c r="D218" s="13" t="s">
         <v>476</v>
       </c>
@@ -10280,14 +10333,14 @@
       <c r="F218" s="19">
         <v>22</v>
       </c>
-      <c r="G218" s="36"/>
-      <c r="H218" s="36"/>
-      <c r="I218" s="37"/>
-      <c r="J218" s="37"/>
-      <c r="K218" s="38"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="35"/>
+      <c r="I218" s="36"/>
+      <c r="J218" s="36"/>
+      <c r="K218" s="37"/>
     </row>
     <row r="219" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C219" s="35"/>
+      <c r="C219" s="34"/>
       <c r="D219" s="13" t="s">
         <v>477</v>
       </c>
@@ -10297,14 +10350,14 @@
       <c r="F219" s="19">
         <v>28</v>
       </c>
-      <c r="G219" s="36"/>
-      <c r="H219" s="36"/>
-      <c r="I219" s="37"/>
-      <c r="J219" s="37"/>
-      <c r="K219" s="38"/>
+      <c r="G219" s="35"/>
+      <c r="H219" s="35"/>
+      <c r="I219" s="36"/>
+      <c r="J219" s="36"/>
+      <c r="K219" s="37"/>
     </row>
     <row r="220" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C220" s="35"/>
+      <c r="C220" s="34"/>
       <c r="D220" s="13" t="s">
         <v>478</v>
       </c>
@@ -10314,14 +10367,14 @@
       <c r="F220" s="19">
         <v>53</v>
       </c>
-      <c r="G220" s="36"/>
-      <c r="H220" s="36"/>
-      <c r="I220" s="37"/>
-      <c r="J220" s="37"/>
-      <c r="K220" s="38"/>
+      <c r="G220" s="35"/>
+      <c r="H220" s="35"/>
+      <c r="I220" s="36"/>
+      <c r="J220" s="36"/>
+      <c r="K220" s="37"/>
     </row>
     <row r="221" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C221" s="35"/>
+      <c r="C221" s="34"/>
       <c r="D221" s="13" t="s">
         <v>479</v>
       </c>
@@ -10331,14 +10384,14 @@
       <c r="F221" s="19">
         <v>21</v>
       </c>
-      <c r="G221" s="36"/>
-      <c r="H221" s="36"/>
-      <c r="I221" s="37"/>
-      <c r="J221" s="37"/>
-      <c r="K221" s="38"/>
+      <c r="G221" s="35"/>
+      <c r="H221" s="35"/>
+      <c r="I221" s="36"/>
+      <c r="J221" s="36"/>
+      <c r="K221" s="37"/>
     </row>
     <row r="222" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C222" s="35"/>
+      <c r="C222" s="34"/>
       <c r="D222" s="13" t="s">
         <v>153</v>
       </c>
@@ -10360,10 +10413,10 @@
       <c r="J222" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K222" s="38"/>
+      <c r="K222" s="37"/>
     </row>
     <row r="223" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C223" s="35"/>
+      <c r="C223" s="34"/>
       <c r="D223" s="14" t="s">
         <v>480</v>
       </c>
@@ -10388,10 +10441,10 @@
       <c r="J223" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K223" s="38"/>
+      <c r="K223" s="37"/>
     </row>
     <row r="224" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C224" s="35"/>
+      <c r="C224" s="34"/>
       <c r="D224" s="9" t="s">
         <v>481</v>
       </c>
@@ -10401,14 +10454,14 @@
       <c r="F224" s="15">
         <v>8</v>
       </c>
-      <c r="G224" s="36"/>
-      <c r="H224" s="36"/>
-      <c r="I224" s="37"/>
-      <c r="J224" s="37"/>
-      <c r="K224" s="38"/>
+      <c r="G224" s="35"/>
+      <c r="H224" s="35"/>
+      <c r="I224" s="36"/>
+      <c r="J224" s="36"/>
+      <c r="K224" s="37"/>
     </row>
     <row r="225" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C225" s="35"/>
+      <c r="C225" s="34"/>
       <c r="D225" s="10" t="s">
         <v>482</v>
       </c>
@@ -10418,14 +10471,14 @@
       <c r="F225" s="16">
         <v>39</v>
       </c>
-      <c r="G225" s="36"/>
-      <c r="H225" s="36"/>
-      <c r="I225" s="37"/>
-      <c r="J225" s="37"/>
-      <c r="K225" s="38"/>
+      <c r="G225" s="35"/>
+      <c r="H225" s="35"/>
+      <c r="I225" s="36"/>
+      <c r="J225" s="36"/>
+      <c r="K225" s="37"/>
     </row>
     <row r="226" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C226" s="35"/>
+      <c r="C226" s="34"/>
       <c r="D226" s="10" t="s">
         <v>483</v>
       </c>
@@ -10435,14 +10488,14 @@
       <c r="F226" s="16">
         <v>48</v>
       </c>
-      <c r="G226" s="36"/>
-      <c r="H226" s="36"/>
-      <c r="I226" s="37"/>
-      <c r="J226" s="37"/>
-      <c r="K226" s="38"/>
+      <c r="G226" s="35"/>
+      <c r="H226" s="35"/>
+      <c r="I226" s="36"/>
+      <c r="J226" s="36"/>
+      <c r="K226" s="37"/>
     </row>
     <row r="227" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C227" s="35"/>
+      <c r="C227" s="34"/>
       <c r="D227" s="10" t="s">
         <v>484</v>
       </c>
@@ -10452,14 +10505,14 @@
       <c r="F227" s="16">
         <v>5</v>
       </c>
-      <c r="G227" s="36"/>
-      <c r="H227" s="36"/>
-      <c r="I227" s="37"/>
-      <c r="J227" s="37"/>
-      <c r="K227" s="38"/>
+      <c r="G227" s="35"/>
+      <c r="H227" s="35"/>
+      <c r="I227" s="36"/>
+      <c r="J227" s="36"/>
+      <c r="K227" s="37"/>
     </row>
     <row r="228" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C228" s="35"/>
+      <c r="C228" s="34"/>
       <c r="D228" s="10" t="s">
         <v>485</v>
       </c>
@@ -10469,14 +10522,14 @@
       <c r="F228" s="16">
         <v>29</v>
       </c>
-      <c r="G228" s="36"/>
-      <c r="H228" s="36"/>
-      <c r="I228" s="37"/>
-      <c r="J228" s="37"/>
-      <c r="K228" s="38"/>
+      <c r="G228" s="35"/>
+      <c r="H228" s="35"/>
+      <c r="I228" s="36"/>
+      <c r="J228" s="36"/>
+      <c r="K228" s="37"/>
     </row>
     <row r="229" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C229" s="35"/>
+      <c r="C229" s="34"/>
       <c r="D229" s="10" t="s">
         <v>486</v>
       </c>
@@ -10486,14 +10539,14 @@
       <c r="F229" s="16">
         <v>10</v>
       </c>
-      <c r="G229" s="36"/>
-      <c r="H229" s="36"/>
-      <c r="I229" s="37"/>
-      <c r="J229" s="37"/>
-      <c r="K229" s="38"/>
+      <c r="G229" s="35"/>
+      <c r="H229" s="35"/>
+      <c r="I229" s="36"/>
+      <c r="J229" s="36"/>
+      <c r="K229" s="37"/>
     </row>
     <row r="230" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C230" s="35"/>
+      <c r="C230" s="34"/>
       <c r="D230" s="10" t="s">
         <v>487</v>
       </c>
@@ -10503,14 +10556,14 @@
       <c r="F230" s="16">
         <v>49</v>
       </c>
-      <c r="G230" s="36"/>
-      <c r="H230" s="36"/>
-      <c r="I230" s="37"/>
-      <c r="J230" s="37"/>
-      <c r="K230" s="38"/>
+      <c r="G230" s="35"/>
+      <c r="H230" s="35"/>
+      <c r="I230" s="36"/>
+      <c r="J230" s="36"/>
+      <c r="K230" s="37"/>
     </row>
     <row r="231" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C231" s="35"/>
+      <c r="C231" s="34"/>
       <c r="D231" s="10" t="s">
         <v>488</v>
       </c>
@@ -10520,14 +10573,14 @@
       <c r="F231" s="16">
         <v>44</v>
       </c>
-      <c r="G231" s="36"/>
-      <c r="H231" s="36"/>
-      <c r="I231" s="37"/>
-      <c r="J231" s="37"/>
-      <c r="K231" s="38"/>
+      <c r="G231" s="35"/>
+      <c r="H231" s="35"/>
+      <c r="I231" s="36"/>
+      <c r="J231" s="36"/>
+      <c r="K231" s="37"/>
     </row>
     <row r="232" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C232" s="35"/>
+      <c r="C232" s="34"/>
       <c r="D232" s="10" t="s">
         <v>489</v>
       </c>
@@ -10537,14 +10590,14 @@
       <c r="F232" s="16">
         <v>53</v>
       </c>
-      <c r="G232" s="36"/>
-      <c r="H232" s="36"/>
-      <c r="I232" s="37"/>
-      <c r="J232" s="37"/>
-      <c r="K232" s="38"/>
+      <c r="G232" s="35"/>
+      <c r="H232" s="35"/>
+      <c r="I232" s="36"/>
+      <c r="J232" s="36"/>
+      <c r="K232" s="37"/>
     </row>
     <row r="233" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C233" s="35"/>
+      <c r="C233" s="34"/>
       <c r="D233" s="10" t="s">
         <v>490</v>
       </c>
@@ -10554,14 +10607,14 @@
       <c r="F233" s="16">
         <v>25</v>
       </c>
-      <c r="G233" s="36"/>
-      <c r="H233" s="36"/>
-      <c r="I233" s="37"/>
-      <c r="J233" s="37"/>
-      <c r="K233" s="38"/>
+      <c r="G233" s="35"/>
+      <c r="H233" s="35"/>
+      <c r="I233" s="36"/>
+      <c r="J233" s="36"/>
+      <c r="K233" s="37"/>
     </row>
     <row r="234" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C234" s="35"/>
+      <c r="C234" s="34"/>
       <c r="D234" s="10" t="s">
         <v>491</v>
       </c>
@@ -10571,14 +10624,14 @@
       <c r="F234" s="16">
         <v>4</v>
       </c>
-      <c r="G234" s="36"/>
-      <c r="H234" s="36"/>
-      <c r="I234" s="37"/>
-      <c r="J234" s="37"/>
-      <c r="K234" s="38"/>
+      <c r="G234" s="35"/>
+      <c r="H234" s="35"/>
+      <c r="I234" s="36"/>
+      <c r="J234" s="36"/>
+      <c r="K234" s="37"/>
     </row>
     <row r="235" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C235" s="35"/>
+      <c r="C235" s="34"/>
       <c r="D235" s="10" t="s">
         <v>492</v>
       </c>
@@ -10588,14 +10641,14 @@
       <c r="F235" s="16">
         <v>17</v>
       </c>
-      <c r="G235" s="36"/>
-      <c r="H235" s="36"/>
-      <c r="I235" s="37"/>
-      <c r="J235" s="37"/>
-      <c r="K235" s="38"/>
+      <c r="G235" s="35"/>
+      <c r="H235" s="35"/>
+      <c r="I235" s="36"/>
+      <c r="J235" s="36"/>
+      <c r="K235" s="37"/>
     </row>
     <row r="236" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C236" s="35"/>
+      <c r="C236" s="34"/>
       <c r="D236" s="10" t="s">
         <v>493</v>
       </c>
@@ -10605,14 +10658,14 @@
       <c r="F236" s="16">
         <v>26</v>
       </c>
-      <c r="G236" s="36"/>
-      <c r="H236" s="36"/>
-      <c r="I236" s="37"/>
-      <c r="J236" s="37"/>
-      <c r="K236" s="38"/>
+      <c r="G236" s="35"/>
+      <c r="H236" s="35"/>
+      <c r="I236" s="36"/>
+      <c r="J236" s="36"/>
+      <c r="K236" s="37"/>
     </row>
     <row r="237" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C237" s="35"/>
+      <c r="C237" s="34"/>
       <c r="D237" s="10" t="s">
         <v>494</v>
       </c>
@@ -10634,10 +10687,10 @@
       <c r="J237" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K237" s="38"/>
+      <c r="K237" s="37"/>
     </row>
     <row r="238" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C238" s="35"/>
+      <c r="C238" s="34"/>
       <c r="D238" s="11" t="s">
         <v>495</v>
       </c>
@@ -10662,10 +10715,10 @@
       <c r="J238" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="K238" s="38"/>
+      <c r="K238" s="37"/>
     </row>
     <row r="239" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C239" s="35"/>
+      <c r="C239" s="34"/>
       <c r="D239" s="12" t="s">
         <v>496</v>
       </c>
@@ -10675,14 +10728,14 @@
       <c r="F239" s="18">
         <v>37</v>
       </c>
-      <c r="G239" s="36"/>
-      <c r="H239" s="36"/>
-      <c r="I239" s="37"/>
-      <c r="J239" s="37"/>
-      <c r="K239" s="38"/>
+      <c r="G239" s="35"/>
+      <c r="H239" s="35"/>
+      <c r="I239" s="36"/>
+      <c r="J239" s="36"/>
+      <c r="K239" s="37"/>
     </row>
     <row r="240" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C240" s="35"/>
+      <c r="C240" s="34"/>
       <c r="D240" s="13" t="s">
         <v>497</v>
       </c>
@@ -10692,14 +10745,14 @@
       <c r="F240" s="19">
         <v>59</v>
       </c>
-      <c r="G240" s="36"/>
-      <c r="H240" s="36"/>
-      <c r="I240" s="37"/>
-      <c r="J240" s="37"/>
-      <c r="K240" s="38"/>
+      <c r="G240" s="35"/>
+      <c r="H240" s="35"/>
+      <c r="I240" s="36"/>
+      <c r="J240" s="36"/>
+      <c r="K240" s="37"/>
     </row>
     <row r="241" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C241" s="35"/>
+      <c r="C241" s="34"/>
       <c r="D241" s="13" t="s">
         <v>498</v>
       </c>
@@ -10709,14 +10762,14 @@
       <c r="F241" s="19">
         <v>42</v>
       </c>
-      <c r="G241" s="36"/>
-      <c r="H241" s="36"/>
-      <c r="I241" s="37"/>
-      <c r="J241" s="37"/>
-      <c r="K241" s="38"/>
+      <c r="G241" s="35"/>
+      <c r="H241" s="35"/>
+      <c r="I241" s="36"/>
+      <c r="J241" s="36"/>
+      <c r="K241" s="37"/>
     </row>
     <row r="242" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C242" s="35"/>
+      <c r="C242" s="34"/>
       <c r="D242" s="13" t="s">
         <v>499</v>
       </c>
@@ -10726,14 +10779,14 @@
       <c r="F242" s="19">
         <v>47</v>
       </c>
-      <c r="G242" s="36"/>
-      <c r="H242" s="36"/>
-      <c r="I242" s="37"/>
-      <c r="J242" s="37"/>
-      <c r="K242" s="38"/>
+      <c r="G242" s="35"/>
+      <c r="H242" s="35"/>
+      <c r="I242" s="36"/>
+      <c r="J242" s="36"/>
+      <c r="K242" s="37"/>
     </row>
     <row r="243" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C243" s="35"/>
+      <c r="C243" s="34"/>
       <c r="D243" s="13" t="s">
         <v>500</v>
       </c>
@@ -10743,14 +10796,14 @@
       <c r="F243" s="19">
         <v>18</v>
       </c>
-      <c r="G243" s="36"/>
-      <c r="H243" s="36"/>
-      <c r="I243" s="37"/>
-      <c r="J243" s="37"/>
-      <c r="K243" s="38"/>
+      <c r="G243" s="35"/>
+      <c r="H243" s="35"/>
+      <c r="I243" s="36"/>
+      <c r="J243" s="36"/>
+      <c r="K243" s="37"/>
     </row>
     <row r="244" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C244" s="35"/>
+      <c r="C244" s="34"/>
       <c r="D244" s="13" t="s">
         <v>501</v>
       </c>
@@ -10772,10 +10825,10 @@
       <c r="J244" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K244" s="38"/>
+      <c r="K244" s="37"/>
     </row>
     <row r="245" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C245" s="35"/>
+      <c r="C245" s="34"/>
       <c r="D245" s="14" t="s">
         <v>502</v>
       </c>
@@ -10800,10 +10853,10 @@
       <c r="J245" s="5">
         <v>1</v>
       </c>
-      <c r="K245" s="38"/>
+      <c r="K245" s="37"/>
     </row>
     <row r="246" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C246" s="35"/>
+      <c r="C246" s="34"/>
       <c r="D246" s="9" t="s">
         <v>503</v>
       </c>
@@ -10813,14 +10866,14 @@
       <c r="F246" s="15">
         <v>30</v>
       </c>
-      <c r="G246" s="36"/>
-      <c r="H246" s="36"/>
-      <c r="I246" s="37"/>
-      <c r="J246" s="37"/>
-      <c r="K246" s="38"/>
+      <c r="G246" s="35"/>
+      <c r="H246" s="35"/>
+      <c r="I246" s="36"/>
+      <c r="J246" s="36"/>
+      <c r="K246" s="37"/>
     </row>
     <row r="247" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C247" s="35"/>
+      <c r="C247" s="34"/>
       <c r="D247" s="10" t="s">
         <v>504</v>
       </c>
@@ -10830,14 +10883,14 @@
       <c r="F247" s="16">
         <v>49</v>
       </c>
-      <c r="G247" s="36"/>
-      <c r="H247" s="36"/>
-      <c r="I247" s="37"/>
-      <c r="J247" s="37"/>
-      <c r="K247" s="38"/>
+      <c r="G247" s="35"/>
+      <c r="H247" s="35"/>
+      <c r="I247" s="36"/>
+      <c r="J247" s="36"/>
+      <c r="K247" s="37"/>
     </row>
     <row r="248" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C248" s="35"/>
+      <c r="C248" s="34"/>
       <c r="D248" s="10" t="s">
         <v>505</v>
       </c>
@@ -10847,14 +10900,14 @@
       <c r="F248" s="16">
         <v>58</v>
       </c>
-      <c r="G248" s="36"/>
-      <c r="H248" s="36"/>
-      <c r="I248" s="37"/>
-      <c r="J248" s="37"/>
-      <c r="K248" s="38"/>
+      <c r="G248" s="35"/>
+      <c r="H248" s="35"/>
+      <c r="I248" s="36"/>
+      <c r="J248" s="36"/>
+      <c r="K248" s="37"/>
     </row>
     <row r="249" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C249" s="35"/>
+      <c r="C249" s="34"/>
       <c r="D249" s="10" t="s">
         <v>506</v>
       </c>
@@ -10876,10 +10929,10 @@
       <c r="J249" s="29" t="s">
         <v>295</v>
       </c>
-      <c r="K249" s="38"/>
+      <c r="K249" s="37"/>
     </row>
     <row r="250" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C250" s="35"/>
+      <c r="C250" s="34"/>
       <c r="D250" s="11" t="s">
         <v>507</v>
       </c>
@@ -10904,18 +10957,18 @@
       <c r="J250" s="5">
         <v>1</v>
       </c>
-      <c r="K250" s="38"/>
+      <c r="K250" s="37"/>
     </row>
     <row r="251" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C251" s="40"/>
-      <c r="D251" s="41"/>
-      <c r="E251" s="41"/>
-      <c r="F251" s="41"/>
-      <c r="G251" s="41"/>
-      <c r="H251" s="41"/>
-      <c r="I251" s="42"/>
-      <c r="J251" s="42"/>
-      <c r="K251" s="43"/>
+      <c r="C251" s="39"/>
+      <c r="D251" s="40"/>
+      <c r="E251" s="40"/>
+      <c r="F251" s="40"/>
+      <c r="G251" s="40"/>
+      <c r="H251" s="40"/>
+      <c r="I251" s="41"/>
+      <c r="J251" s="41"/>
+      <c r="K251" s="42"/>
     </row>
     <row r="288" spans="9:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I288"/>

--- a/class-control.xlsx
+++ b/class-control.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F174110E-FC36-45C1-AC9B-B5FB8DFE89E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10545" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="new-GoStack" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1545,7 +1544,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -2025,12 +2024,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2039,6 +2032,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2065,7 +2064,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2103,9 +2102,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2138,26 +2137,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2190,26 +2172,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2382,7 +2347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -2403,10 +2368,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="O4" s="54"/>
+      <c r="O4" s="57"/>
     </row>
     <row r="5" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D5" s="21" t="s">
@@ -6313,14 +6278,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF66FF"/>
   </sheetPr>
   <dimension ref="C3:R303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6438,10 +6403,10 @@
       <c r="M9" s="34"/>
       <c r="N9" s="36"/>
       <c r="O9" s="36"/>
-      <c r="P9" s="55" t="s">
+      <c r="P9" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="Q9" s="55"/>
+      <c r="Q9" s="58"/>
       <c r="R9" s="37"/>
     </row>
     <row r="10" spans="3:18" x14ac:dyDescent="0.25">
@@ -6608,7 +6573,7 @@
         <f>G16+(H16/60)</f>
         <v>61.266666666666666</v>
       </c>
-      <c r="J16" s="58">
+      <c r="J16" s="56">
         <v>1</v>
       </c>
       <c r="K16" s="37"/>
@@ -6793,13 +6758,13 @@
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" s="34"/>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="54">
         <v>4</v>
       </c>
-      <c r="F27" s="57">
+      <c r="F27" s="55">
         <v>43</v>
       </c>
       <c r="G27" s="7">
@@ -6814,20 +6779,20 @@
         <f>G27+(H27/60)</f>
         <v>71.833333333333329</v>
       </c>
-      <c r="J27" s="58">
+      <c r="J27" s="56">
         <v>1</v>
       </c>
       <c r="K27" s="37"/>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" s="34"/>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="46">
         <v>1</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="47">
         <v>49</v>
       </c>
       <c r="G28" s="35"/>
@@ -6838,13 +6803,13 @@
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="34"/>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="46">
         <v>7</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="47">
         <v>31</v>
       </c>
       <c r="G29" s="35"/>
@@ -6855,13 +6820,13 @@
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="34"/>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="46">
         <v>7</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="47">
         <v>6</v>
       </c>
       <c r="G30" s="35"/>
@@ -6872,13 +6837,13 @@
     </row>
     <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="34"/>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="46">
         <v>11</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="47">
         <v>17</v>
       </c>
       <c r="G31" s="35"/>
